--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -44,7 +44,85 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 12:23 AM</t>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>PRAVOTIN 100MG 14 SACHETS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>RAKU-TEN EMOLLIENT CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 5 June, 2025 11:01 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +332,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +344,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,56 +752,268 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>11</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>12</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
         <v>13</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>22</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>19</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>24</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>25</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>19</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>26</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>16</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>27</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>29</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>30</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>31</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>33</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>30</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>34</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>35</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>360.75999999999999</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>37</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>38</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>39</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -737,10 +1027,40 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -89,6 +89,18 @@
     <t>3:2</t>
   </si>
   <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>PRAVOTIN 100MG 14 SACHETS</t>
   </si>
   <si>
@@ -110,19 +122,31 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جنتيانا </t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>3.00</t>
   </si>
   <si>
     <t>3.0000</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 11:01 AM</t>
+    <t>Thursday, 5 June, 2025 11:26 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -895,7 +919,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -905,11 +929,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -921,14 +945,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -961,13 +985,13 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -982,38 +1006,104 @@
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>360.75999999999999</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>37</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
         <v>38</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
         <v>39</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>40</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>42</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>34</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>39</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>43</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>410.75999999999999</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>45</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>46</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>47</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1057,10 +1147,20 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -101,6 +101,18 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>PRAVOTIN 100MG 14 SACHETS</t>
   </si>
   <si>
@@ -122,6 +134,42 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
+    <t>TORSERETIC 100MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>261.00</t>
+  </si>
+  <si>
+    <t>86.1300</t>
+  </si>
+  <si>
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
@@ -146,7 +194,19 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 11:26 AM</t>
+    <t>معجون سيجنال 25 مل</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 5 June, 2025 11:32 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -952,7 +1012,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -962,14 +1022,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -978,14 +1038,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1024,15 +1084,15 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1044,20 +1104,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1068,42 +1128,207 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>45</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>46</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>47</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>49</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>50</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>51</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>53</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>54</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>55</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>56</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>410.75999999999999</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
-        <v>45</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
-        <v>46</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
-        <v>47</v>
-      </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>58</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>38</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>55</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>59</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>61</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>62</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>55</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>63</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>603.51499999999999</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>65</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>66</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>67</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1157,10 +1382,35 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -62,12 +62,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -89,6 +98,18 @@
     <t>3:2</t>
   </si>
   <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
@@ -170,6 +191,15 @@
     <t>86.1300</t>
   </si>
   <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
@@ -206,7 +236,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 11:32 AM</t>
+    <t>Thursday, 5 June, 2025 11:37 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -880,7 +910,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -890,14 +920,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -913,7 +943,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -923,14 +953,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -956,14 +986,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -972,14 +1002,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -989,14 +1019,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1005,14 +1035,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1022,14 +1052,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1038,14 +1068,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1095,7 +1125,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1111,7 +1141,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1121,14 +1151,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1137,14 +1167,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1154,14 +1184,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1170,14 +1200,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1187,14 +1217,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1203,31 +1233,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1236,31 +1266,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1269,66 +1299,165 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>63</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
         <v>64</v>
       </c>
-      <c t="s" r="Q20" s="12">
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>65</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>66</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>603.51499999999999</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>68</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>45</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
         <v>65</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
-        <v>66</v>
-      </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
-        <v>67</v>
-      </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>69</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>71</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>72</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>65</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>73</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>759.745</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>75</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>76</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>77</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1407,10 +1536,25 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>BIONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
   </si>
   <si>
@@ -71,9 +86,6 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
@@ -134,6 +146,27 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>PRAVOTIN 100MG 14 SACHETS</t>
   </si>
   <si>
@@ -146,9 +179,6 @@
     <t>RAKU-TEN EMOLLIENT CREAM 50 GM</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>85.00</t>
   </si>
   <si>
@@ -170,9 +200,6 @@
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>136.50</t>
   </si>
   <si>
@@ -200,6 +227,15 @@
     <t>40.5900</t>
   </si>
   <si>
+    <t>ZESTRIL 20MG 10 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
@@ -236,7 +272,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 11:37 AM</t>
+    <t>Thursday, 5 June, 2025 12:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -910,7 +946,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -920,14 +956,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -936,14 +972,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -953,14 +989,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -969,14 +1005,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -986,14 +1022,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1002,14 +1038,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1019,14 +1055,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1035,14 +1071,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1052,14 +1088,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1092,7 +1128,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1125,7 +1161,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1141,7 +1177,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1151,14 +1187,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1167,14 +1203,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1191,7 +1227,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1224,7 +1260,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1240,7 +1276,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1250,14 +1286,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1266,14 +1302,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1283,14 +1319,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1299,14 +1335,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1316,14 +1352,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1332,31 +1368,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1365,31 +1401,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1398,66 +1434,198 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>72</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>49</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>13</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>73</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
         <v>74</v>
       </c>
-      <c t="s" r="Q23" s="12">
+      <c t="s" r="Q24" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>759.745</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
         <v>75</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
         <v>76</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
         <v>77</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>78</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>80</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>49</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>77</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>81</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>83</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>84</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>77</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>85</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>959.90499999999997</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>87</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>88</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>89</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1551,10 +1719,30 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -272,7 +272,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 12:03 PM</t>
+    <t>Thursday, 5 June, 2025 12:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -272,7 +272,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 12:36 PM</t>
+    <t>Thursday, 5 June, 2025 1:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -272,7 +272,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 1:29 PM</t>
+    <t>Thursday, 5 June, 2025 1:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -251,6 +251,18 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -260,19 +272,37 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>فلامنجو شفرات للنساء</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>كريم فاتيكا 190 مل</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>كريم فيرند لافلي الصغير</t>
+  </si>
+  <si>
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
     <t>12:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>Thursday, 5 June, 2025 1:30 PM</t>
+    <t>Thursday, 5 June, 2025 1:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1540,7 +1570,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1550,11 +1580,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1566,14 +1596,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1594,38 +1624,170 @@
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>959.90499999999997</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>87</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>38</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>77</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
         <v>88</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
         <v>89</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c t="s" r="Q28" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>90</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>91</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>77</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>92</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>94</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>91</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>77</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>82</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>95</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>96</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>77</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>82</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1109.905</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>97</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>98</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>99</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1739,10 +1901,30 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -302,7 +302,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 1:32 PM</t>
+    <t>Thursday, 5 June, 2025 1:49 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -98,18 +98,24 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>3:1</t>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:2</t>
   </si>
   <si>
     <t>11.8800</t>
   </si>
   <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
@@ -188,9 +194,6 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -209,9 +212,6 @@
     <t>TORSERETIC 100MG 30 TABS.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>261.00</t>
   </si>
   <si>
@@ -236,15 +236,27 @@
     <t>68.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
@@ -257,10 +269,13 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -302,7 +317,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 1:49 PM</t>
+    <t>Thursday, 5 June, 2025 1:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1092,7 +1107,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1101,14 +1116,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1122,7 +1137,7 @@
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1134,14 +1149,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1151,11 +1166,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1167,14 +1182,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1184,11 +1199,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1200,14 +1215,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1217,11 +1232,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1233,7 +1248,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1250,11 +1265,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1266,14 +1281,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1283,11 +1298,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1299,7 +1314,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1316,11 +1331,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1332,14 +1347,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1349,11 +1364,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1365,14 +1380,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1382,11 +1397,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1398,7 +1413,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1415,11 +1430,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1431,14 +1446,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1504,7 +1519,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1603,7 +1618,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1613,11 +1628,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1629,14 +1644,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1646,11 +1661,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1662,14 +1677,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1679,11 +1694,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1695,14 +1710,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1712,11 +1727,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1745,49 +1760,115 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1109.905</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
-        <v>97</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
-        <v>98</v>
-      </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>99</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>96</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>77</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>78</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>100</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>101</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>77</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>78</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>1143.7850000000001</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>102</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>103</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>104</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1921,10 +2002,20 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -140,6 +140,18 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -161,6 +173,18 @@
     <t>19.8000</t>
   </si>
   <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>-76.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
   </si>
   <si>
@@ -254,9 +278,6 @@
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
@@ -317,7 +338,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 1:52 PM</t>
+    <t>Thursday, 5 June, 2025 2:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1239,7 +1260,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1255,7 +1276,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1265,11 +1286,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1281,14 +1302,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1321,7 +1342,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1338,7 +1359,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1347,14 +1368,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1364,14 +1385,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1380,14 +1401,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1397,14 +1418,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1413,14 +1434,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1430,14 +1451,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1446,14 +1467,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1463,11 +1484,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1479,7 +1500,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1496,11 +1517,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1512,14 +1533,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1529,14 +1550,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1545,20 +1566,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1569,7 +1590,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1585,21 +1606,21 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1611,28 +1632,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1644,28 +1665,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1677,28 +1698,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1710,28 +1731,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1743,20 +1764,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1783,21 +1804,21 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1809,66 +1830,132 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>1143.7850000000001</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
-        <v>102</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>106</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
         <v>103</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
-        <v>104</v>
-      </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>85</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>86</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>107</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>108</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>85</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>86</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1089.7850000000001</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>109</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>110</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>111</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2012,10 +2099,20 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -338,7 +338,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 2:42 PM</t>
+    <t>Thursday, 5 June, 2025 2:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -95,6 +95,27 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>CLARITINE 1MG/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>CONGESTAL SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -131,172 +152,208 @@
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>-76.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>142.0000</t>
+  </si>
+  <si>
+    <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>PRAVOTIN 100MG 14 SACHETS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>RAKU-TEN EMOLLIENT CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
+    <t>TORSERETIC 100MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>261.00</t>
+  </si>
+  <si>
+    <t>86.1300</t>
+  </si>
+  <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>ZESTRIL 20MG 10 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>ZYRTEC 0.1% SYRUP 100ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جنتيانا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>حنه فاتيكا اسود 1 كيس</t>
+  </si>
+  <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
     <t>35.0000</t>
   </si>
   <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>-76.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>98.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>PRAVOTIN 100MG 14 SACHETS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>RAKU-TEN EMOLLIENT CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>45.0450</t>
-  </si>
-  <si>
-    <t>TORSERETIC 100MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>261.00</t>
-  </si>
-  <si>
-    <t>86.1300</t>
-  </si>
-  <si>
-    <t>TORSERETIC 20MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>40.5900</t>
-  </si>
-  <si>
-    <t>ZESTRIL 20MG 10 TAB</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جنتيانا </t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>حلاوة حرير</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>4.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -338,7 +395,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 2:43 PM</t>
+    <t>Thursday, 5 June, 2025 2:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1121,14 +1178,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1144,7 +1201,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1154,14 +1211,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1187,14 +1244,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>38</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1220,14 +1277,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1236,14 +1293,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1253,14 +1310,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1269,14 +1326,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1286,14 +1343,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1302,14 +1359,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1326,7 +1383,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1342,7 +1399,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1359,7 +1416,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1368,14 +1425,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1385,11 +1442,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1401,7 +1458,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1418,14 +1475,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1434,14 +1491,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1451,14 +1508,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1467,14 +1524,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1491,7 +1548,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1507,7 +1564,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1540,7 +1597,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1557,7 +1614,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1573,7 +1630,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1590,7 +1647,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1606,7 +1663,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1623,7 +1680,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1639,24 +1696,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1665,31 +1722,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1698,31 +1755,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1731,31 +1788,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1764,28 +1821,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1797,28 +1854,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1830,28 +1887,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1863,28 +1920,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1909,53 +1966,284 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1089.7850000000001</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
         <v>109</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
         <v>110</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>101</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>47</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
         <v>111</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c t="s" r="Q36" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>112</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>29</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>101</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>113</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>115</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>29</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>101</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>116</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>118</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>110</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>101</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>119</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>121</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>122</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>101</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>123</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>125</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>122</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>101</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>102</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>126</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>127</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>101</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>102</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1489.615</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>128</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>129</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>130</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2109,10 +2397,45 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -395,7 +395,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 2:55 PM</t>
+    <t>Thursday, 5 June, 2025 2:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AUGMENTIN ES-600 PD. FOR ORAL SUSP. 75 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>169.00</t>
+  </si>
+  <si>
+    <t>169.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
     <t>0:3</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
     <t>51.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>BIONAL 30 CAP</t>
   </si>
   <si>
@@ -86,6 +98,15 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>BRUFEN 400MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
@@ -149,6 +170,15 @@
     <t>35.6400</t>
   </si>
   <si>
+    <t>E-MOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
@@ -158,9 +188,6 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -254,12 +281,6 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -269,6 +290,15 @@
     <t>45.0450</t>
   </si>
   <si>
+    <t>SUGARLO PLUS 50/500MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
     <t>TORSERETIC 100MG 30 TABS.</t>
   </si>
   <si>
@@ -305,6 +335,18 @@
     <t>68.0000</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>ZYRTEC 0.1% SYRUP 100ML</t>
   </si>
   <si>
@@ -320,9 +362,6 @@
     <t>20.00</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
@@ -341,9 +380,6 @@
     <t>حنه فاتيكا اسود 1 كيس</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>35.0000</t>
   </si>
   <si>
@@ -365,6 +401,15 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>فرشه اسنان SENSODYNE</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>فلامنجو شفرات للنساء</t>
   </si>
   <si>
@@ -380,22 +425,19 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
     <t>كريم فيرند لافلي الصغير</t>
   </si>
   <si>
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>Thursday, 5 June, 2025 2:59 PM</t>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 5 June, 2025 3:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1086,7 +1128,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1095,14 +1137,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1119,7 +1161,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1128,14 +1170,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1145,14 +1187,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1161,14 +1203,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1185,7 +1227,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1201,7 +1243,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1218,7 +1260,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1244,14 +1286,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1267,7 +1309,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1277,14 +1319,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1310,14 +1352,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>45</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1333,7 +1375,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1343,14 +1385,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1359,14 +1401,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1376,14 +1418,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1392,14 +1434,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1409,14 +1451,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1425,14 +1467,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1442,14 +1484,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1458,14 +1500,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1475,14 +1517,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1498,7 +1540,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1515,7 +1557,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1524,14 +1566,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1541,14 +1583,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1557,14 +1599,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1574,14 +1616,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1590,14 +1632,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1607,14 +1649,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1623,14 +1665,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1647,7 +1689,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1680,7 +1722,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1696,7 +1738,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1713,7 +1755,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1729,7 +1771,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1746,7 +1788,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1762,7 +1804,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1772,14 +1814,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1788,14 +1830,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1805,14 +1847,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1821,14 +1863,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1838,11 +1880,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1854,14 +1896,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1871,14 +1913,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1894,24 +1936,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1920,31 +1962,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1953,28 +1995,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1986,24 +2028,24 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2026,24 +2068,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2052,20 +2094,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2073,7 +2115,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2085,28 +2127,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2118,28 +2160,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2151,28 +2193,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2184,66 +2226,264 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>127</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>36</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>115</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>128</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q43" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1489.615</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
-        <v>128</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
-        <v>129</v>
-      </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
         <v>130</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>109</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>115</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>131</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>133</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>109</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>115</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>134</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>136</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>137</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>115</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>131</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>138</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>137</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>115</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>116</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>139</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>140</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>115</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>116</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>2037.355</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>142</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>143</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>144</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2432,10 +2672,40 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -170,6 +170,18 @@
     <t>35.6400</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>E-MOX 500MG 16 CAPS</t>
   </si>
   <si>
@@ -200,6 +212,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>KETOFAN 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>14.8500</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -215,12 +236,6 @@
     <t>2:1</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
     <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -413,9 +428,6 @@
     <t>فلامنجو شفرات للنساء</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
     <t>45.0000</t>
   </si>
   <si>
@@ -437,7 +449,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 3:24 PM</t>
+    <t>Thursday, 5 June, 2025 3:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1441,7 +1453,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1451,11 +1463,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>25</v>
@@ -1467,14 +1479,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1484,14 +1496,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1500,14 +1512,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1524,7 +1536,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1540,7 +1552,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1550,14 +1562,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1566,14 +1578,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1606,7 +1618,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1616,11 +1628,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>25</v>
@@ -1632,14 +1644,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1649,14 +1661,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1665,14 +1677,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1682,14 +1694,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1698,14 +1710,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1715,14 +1727,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1731,14 +1743,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1748,14 +1760,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1764,7 +1776,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1781,14 +1793,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1797,14 +1809,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1814,14 +1826,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1830,14 +1842,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1847,14 +1859,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1863,14 +1875,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1880,14 +1892,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1896,14 +1908,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1913,11 +1925,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>25</v>
@@ -1929,14 +1941,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1946,14 +1958,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1962,14 +1974,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1979,11 +1991,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -1995,14 +2007,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2012,14 +2024,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2028,14 +2040,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2045,14 +2057,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2061,7 +2073,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2078,11 +2090,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2107,15 +2119,15 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2134,21 +2146,21 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2160,28 +2172,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2200,21 +2212,21 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2226,31 +2238,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2266,21 +2278,21 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2292,31 +2304,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2325,28 +2337,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2358,28 +2370,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2398,21 +2410,21 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2424,66 +2436,132 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>142</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
         <v>141</v>
       </c>
-      <c t="s" r="Q48" s="12">
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>120</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>121</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>143</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>144</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>120</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>121</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>43</v>
       </c>
     </row>
-    <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>2037.355</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
-        <v>142</v>
-      </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
-        <v>143</v>
-      </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
-        <v>144</v>
-      </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>2068.0450000000001</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>146</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>147</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>148</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2702,10 +2780,20 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -449,7 +449,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 3:28 PM</t>
+    <t>Thursday, 5 June, 2025 3:31 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -44,24 +44,60 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALGASON MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
     <t>AUGMENTIN ES-600 PD. FOR ORAL SUSP. 75 ML</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>169.00</t>
   </si>
   <si>
     <t>169.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -86,9 +122,6 @@
     <t>63.3600</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
   </si>
   <si>
@@ -101,9 +134,6 @@
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>25.7400</t>
   </si>
   <si>
@@ -137,39 +167,36 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>DALACIN 2% VAGINAL CREAM 16.5 GM</t>
+  </si>
+  <si>
+    <t>58.50</t>
+  </si>
+  <si>
+    <t>58.5000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
-    <t>35.6400</t>
-  </si>
-  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -182,6 +209,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>DUPHALAC 667GM/L SYRUP 200ML</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
     <t>E-MOX 500MG 16 CAPS</t>
   </si>
   <si>
@@ -191,6 +227,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>EXARETIC 20 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>106.50</t>
+  </si>
+  <si>
+    <t>35.1450</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
@@ -212,6 +257,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>GLIPTUS 50 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>151.50</t>
+  </si>
+  <si>
+    <t>151.5000</t>
+  </si>
+  <si>
     <t>KETOFAN 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -332,6 +386,27 @@
     <t>40.5900</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -413,7 +488,13 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>فرشاة اطفال ريتش ديلي</t>
+  </si>
+  <si>
+    <t>23:0</t>
   </si>
   <si>
     <t>فرشه اسنان SENSODYNE</t>
@@ -449,7 +530,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 3:31 PM</t>
+    <t>Thursday, 5 June, 2025 3:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1107,7 +1188,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1116,14 +1197,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1133,14 +1214,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1173,7 +1254,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1182,14 +1263,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1206,7 +1287,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1222,7 +1303,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1232,14 +1313,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1248,14 +1329,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1265,14 +1346,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1281,14 +1362,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1298,14 +1379,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1314,14 +1395,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1331,14 +1412,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1354,7 +1435,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1364,14 +1445,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1380,14 +1461,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1397,14 +1478,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1420,7 +1501,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1430,14 +1511,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1446,14 +1527,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1463,14 +1544,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1479,14 +1560,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1496,14 +1577,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1512,14 +1593,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1529,14 +1610,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1545,14 +1626,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1562,14 +1643,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1578,14 +1659,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1595,14 +1676,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1611,14 +1692,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1628,14 +1709,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1644,14 +1725,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1661,14 +1742,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1677,14 +1758,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1694,14 +1775,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1710,14 +1791,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1727,14 +1808,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>80</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1743,14 +1824,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1760,11 +1841,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1776,14 +1857,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1793,14 +1874,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1809,14 +1890,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1826,14 +1907,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1842,14 +1923,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1859,14 +1940,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1875,14 +1956,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1892,14 +1973,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1908,14 +1989,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1925,14 +2006,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1941,14 +2022,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1958,14 +2039,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1974,14 +2055,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1991,14 +2072,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2007,14 +2088,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2024,14 +2105,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2040,14 +2121,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2057,14 +2138,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2073,14 +2154,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2090,14 +2171,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2106,14 +2187,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2123,14 +2204,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2139,14 +2220,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2156,14 +2237,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2172,31 +2253,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2205,31 +2286,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2238,31 +2319,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2271,31 +2352,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2304,20 +2385,20 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2344,24 +2425,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2377,13 +2458,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2394,7 +2475,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2410,24 +2491,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2436,31 +2517,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2469,31 +2550,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2502,66 +2583,396 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>150</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>151</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
         <v>145</v>
       </c>
-      <c t="s" r="Q50" s="12">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>2068.0450000000001</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
         <v>146</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
-        <v>147</v>
-      </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>152</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>139</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>145</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>76</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>154</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>46</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>145</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>155</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>157</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>46</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>145</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>158</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>160</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>161</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>145</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
         <v>148</v>
       </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>162</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>139</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>145</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>163</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>165</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>139</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>145</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>86</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>167</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>168</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>145</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>163</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>169</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>168</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>145</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>146</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>170</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>171</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>145</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>146</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>2687.6300000000001</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
+        <v>173</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
+        <v>174</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>175</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2790,10 +3201,60 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -530,7 +530,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 3:41 PM</t>
+    <t>Thursday, 5 June, 2025 3:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -266,6 +266,18 @@
     <t>151.5000</t>
   </si>
   <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>KETOFAN 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -428,9 +440,6 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>96.00</t>
   </si>
   <si>
@@ -452,6 +461,15 @@
     <t>20.00</t>
   </si>
   <si>
+    <t>بيروسول 300 مل</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
@@ -464,9 +482,6 @@
     <t>حلاوة حرير</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t>حنه فاتيكا اسود 1 كيس</t>
   </si>
   <si>
@@ -491,6 +506,24 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>شامبو كلير 1 كيس</t>
+  </si>
+  <si>
+    <t>119:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>2.5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فازلين بيور صغير </t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
     <t>فرشاة اطفال ريتش ديلي</t>
   </si>
   <si>
@@ -518,6 +551,15 @@
     <t>7:0</t>
   </si>
   <si>
+    <t>كريم فاتيكا 65 مل</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>كريم فيرند لافلي الصغير</t>
   </si>
   <si>
@@ -525,9 +567,6 @@
   </si>
   <si>
     <t>10:0</t>
-  </si>
-  <si>
-    <t>60.0000</t>
   </si>
   <si>
     <t>Thursday, 5 June, 2025 3:44 PM</t>
@@ -1897,7 +1936,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1907,14 +1946,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1923,14 +1962,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1940,11 +1979,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>17</v>
@@ -1956,14 +1995,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1973,11 +2012,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>17</v>
@@ -1989,14 +2028,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2006,11 +2045,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>17</v>
@@ -2022,14 +2061,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2039,14 +2078,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2062,7 +2101,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2072,14 +2111,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>102</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2095,7 +2134,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2105,14 +2144,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2121,14 +2160,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2138,14 +2177,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2154,14 +2193,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2171,11 +2210,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2187,14 +2226,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2204,14 +2243,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2220,14 +2259,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2237,11 +2276,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>17</v>
@@ -2253,14 +2292,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2270,14 +2309,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2286,7 +2325,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2303,14 +2342,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2319,14 +2358,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2336,11 +2375,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>17</v>
@@ -2352,14 +2391,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2369,14 +2408,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2385,14 +2424,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2435,14 +2474,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2451,14 +2490,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2468,14 +2507,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2484,14 +2523,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2524,7 +2563,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2534,11 +2573,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2550,28 +2589,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>31</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2583,28 +2622,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2629,15 +2668,15 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2649,28 +2688,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2682,31 +2721,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2722,24 +2761,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2748,31 +2787,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>161</v>
+        <v>46</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2788,13 +2827,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2805,7 +2844,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2821,21 +2860,21 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2847,28 +2886,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2880,28 +2919,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -2913,66 +2952,231 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>171</v>
+        <v>86</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>176</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>86</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>148</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>90</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>178</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>179</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>148</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>174</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>180</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>46</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>148</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>181</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>183</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>179</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>148</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>149</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>2687.6300000000001</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
-        <v>173</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
-        <v>174</v>
-      </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
-        <v>175</v>
-      </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>184</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>185</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>148</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>149</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>2847.1300000000001</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>186</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>187</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>188</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3251,10 +3455,35 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADOLOR 30 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>-11.8800</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>ALGASON MASSAGE CREAM 40 GM</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>46.00</t>
   </si>
   <si>
@@ -89,9 +104,6 @@
     <t>AUGMENTIN ES-600 PD. FOR ORAL SUSP. 75 ML</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>169.00</t>
   </si>
   <si>
@@ -140,9 +152,6 @@
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>18.0000</t>
   </si>
   <si>
@@ -257,6 +266,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>-17.8200</t>
+  </si>
+  <si>
     <t>GLIPTUS 50 MG 30 TABS.</t>
   </si>
   <si>
@@ -317,9 +335,6 @@
     <t>-76.0000</t>
   </si>
   <si>
-    <t>0:-1</t>
-  </si>
-  <si>
     <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
   </si>
   <si>
@@ -419,6 +434,18 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>-14.4000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -569,7 +596,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 3:44 PM</t>
+    <t>Thursday, 5 June, 2025 3:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1227,7 +1254,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1236,14 +1263,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1253,14 +1280,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1293,7 +1320,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1302,14 +1329,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1319,14 +1346,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1335,14 +1362,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1359,7 +1386,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1392,7 +1419,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1408,7 +1435,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1418,14 +1445,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1434,14 +1461,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1451,14 +1478,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1467,14 +1494,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1484,14 +1511,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1500,14 +1527,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1517,14 +1544,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1533,14 +1560,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1557,7 +1584,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1573,7 +1600,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1590,7 +1617,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1606,7 +1633,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1616,14 +1643,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1649,14 +1676,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1665,14 +1692,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1682,14 +1709,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1698,14 +1725,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1719,10 +1746,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1731,14 +1758,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1755,7 +1782,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1771,7 +1798,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1788,7 +1815,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1804,7 +1831,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1821,7 +1848,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1837,7 +1864,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1854,7 +1881,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1870,7 +1897,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1880,11 +1907,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1896,14 +1923,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1920,7 +1947,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1936,7 +1963,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1946,14 +1973,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1962,14 +1989,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1979,14 +2006,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1995,14 +2022,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2019,7 +2046,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2035,7 +2062,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2045,14 +2072,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2061,14 +2088,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2078,14 +2105,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2094,14 +2121,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2111,14 +2138,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>102</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2134,7 +2161,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2144,14 +2171,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2160,14 +2187,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2177,14 +2204,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2193,14 +2220,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2210,11 +2237,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2226,14 +2253,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2243,14 +2270,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2259,14 +2286,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2276,14 +2303,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2292,14 +2319,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2309,14 +2336,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2325,14 +2352,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2342,14 +2369,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2358,14 +2385,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2375,14 +2402,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2391,14 +2418,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2408,14 +2435,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2424,14 +2451,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2441,14 +2468,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2457,14 +2484,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2474,14 +2501,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2490,14 +2517,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2507,14 +2534,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2523,14 +2550,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2540,14 +2567,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2556,14 +2583,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2580,7 +2607,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2596,7 +2623,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2606,14 +2633,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2622,20 +2649,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>49</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2643,10 +2670,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2655,31 +2682,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2688,31 +2715,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2721,31 +2748,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2754,31 +2781,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2787,31 +2814,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2820,31 +2847,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2853,31 +2880,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2886,28 +2913,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>170</v>
+        <v>49</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2926,21 +2953,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>172</v>
+        <v>49</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -2952,31 +2979,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>86</v>
+        <v>175</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2985,31 +3012,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3018,31 +3045,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3051,31 +3078,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3084,31 +3111,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>71</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3117,66 +3144,165 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>59</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>2847.1300000000001</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
-        <v>186</v>
-      </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
-        <v>187</v>
-      </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>189</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>49</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>157</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>190</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>192</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
         <v>188</v>
       </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>157</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>158</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>193</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>194</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>157</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>158</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>2803.0300000000002</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>195</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>196</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>197</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3480,10 +3606,25 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -596,7 +596,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 3:47 PM</t>
+    <t>Thursday, 5 June, 2025 3:49 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -515,6 +515,12 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">زبدة كاكاو لونا </t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -590,13 +596,22 @@
     <t>كريم فيرند لافلي الصغير</t>
   </si>
   <si>
+    <t>ماسك صنفره هاي لايف</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
     <t>10:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 3:49 PM</t>
+    <t>Thursday, 5 June, 2025 3:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2920,7 +2935,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2930,14 +2945,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2946,7 +2961,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2963,11 +2978,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -2979,14 +2994,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>175</v>
+        <v>49</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2996,14 +3011,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3012,14 +3027,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3029,11 +3044,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3085,7 +3100,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>92</v>
+        <v>183</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3095,11 +3110,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3111,7 +3126,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3128,7 +3143,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>96</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3151,7 +3166,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>188</v>
+        <v>92</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3161,11 +3176,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3184,7 +3199,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>49</v>
+        <v>190</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3194,11 +3209,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3210,14 +3225,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>188</v>
+        <v>49</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3227,11 +3242,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3243,14 +3258,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3264,45 +3279,111 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>195</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>49</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>157</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>196</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>198</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>199</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>157</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>158</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
         <v>161</v>
       </c>
-      <c t="s" r="Q68" s="12">
+      <c t="s" r="Q70" s="12">
         <v>62</v>
       </c>
     </row>
-    <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>2803.0300000000002</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
-        <v>195</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
-        <v>196</v>
-      </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
-        <v>197</v>
-      </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>2848.0300000000002</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
+        <v>200</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>201</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>202</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3621,10 +3702,20 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -338,9 +338,6 @@
     <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>-1:0</t>
-  </si>
-  <si>
     <t>71.00</t>
   </si>
   <si>
@@ -611,7 +608,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 3:50 PM</t>
+    <t>Thursday, 5 June, 2025 3:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2242,7 +2239,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2252,11 +2249,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2268,7 +2265,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2285,11 +2282,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>22</v>
@@ -2301,7 +2298,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2318,11 +2315,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>18</v>
@@ -2334,7 +2331,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2351,11 +2348,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2367,7 +2364,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2400,7 +2397,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2417,11 +2414,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>22</v>
@@ -2433,7 +2430,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2450,11 +2447,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>18</v>
@@ -2466,7 +2463,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2483,11 +2480,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>22</v>
@@ -2499,7 +2496,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2516,11 +2513,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>22</v>
@@ -2532,7 +2529,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2549,11 +2546,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2565,14 +2562,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2582,11 +2579,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>18</v>
@@ -2598,14 +2595,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2615,11 +2612,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2631,14 +2628,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2652,7 +2649,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>22</v>
@@ -2664,7 +2661,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2681,11 +2678,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>18</v>
@@ -2697,7 +2694,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2714,11 +2711,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>18</v>
@@ -2730,7 +2727,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2763,24 +2760,24 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -2796,20 +2793,20 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2817,7 +2814,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -2829,7 +2826,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2842,15 +2839,15 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -2862,24 +2859,24 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -2895,7 +2892,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2908,7 +2905,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2916,7 +2913,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -2928,24 +2925,24 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -2961,7 +2958,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2974,15 +2971,15 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -2994,7 +2991,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3007,15 +3004,15 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3027,28 +3024,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3060,28 +3057,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3093,28 +3090,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3126,7 +3123,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3139,15 +3136,15 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3159,7 +3156,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3172,7 +3169,7 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3180,7 +3177,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3192,28 +3189,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3225,7 +3222,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3238,15 +3235,15 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3258,24 +3255,24 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3291,7 +3288,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3304,15 +3301,15 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3324,28 +3321,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>62</v>
@@ -3359,7 +3356,7 @@
     </row>
     <row r="72" ht="16.5" customHeight="1">
       <c t="s" r="A72" s="14">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -3367,13 +3364,13 @@
       <c r="E72" s="14"/>
       <c r="F72" s="14"/>
       <c t="s" r="G72" s="15">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H72" s="15"/>
       <c r="I72" s="15"/>
       <c r="J72" s="16"/>
       <c t="s" r="K72" s="17">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L72" s="17"/>
       <c r="M72" s="17"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -548,6 +548,15 @@
     <t>2.5000</t>
   </si>
   <si>
+    <t>شمع حريمي</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">فازلين بيور صغير </t>
   </si>
   <si>
@@ -608,7 +617,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 3:58 PM</t>
+    <t>Thursday, 5 June, 2025 4:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3064,7 +3073,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>180</v>
+        <v>62</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3074,11 +3083,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3090,14 +3099,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3123,14 +3132,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>92</v>
+        <v>185</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3140,11 +3149,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3173,11 +3182,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>96</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3189,14 +3198,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>189</v>
+        <v>92</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3206,11 +3215,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>184</v>
+        <v>96</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3222,14 +3231,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>49</v>
+        <v>192</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3239,11 +3248,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3262,7 +3271,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3272,11 +3281,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3288,14 +3297,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>49</v>
+        <v>192</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3305,11 +3314,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3328,7 +3337,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>198</v>
+        <v>49</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3338,49 +3347,82 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>200</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>201</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>156</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>157</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
         <v>160</v>
       </c>
-      <c t="s" r="Q70" s="12">
+      <c t="s" r="Q71" s="12">
         <v>62</v>
       </c>
     </row>
-    <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>2848.0300000000002</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
-        <v>199</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
-        <v>200</v>
-      </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
-        <v>201</v>
-      </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>2898.0300000000002</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>202</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>203</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>204</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3709,10 +3751,15 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -494,7 +494,64 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t xml:space="preserve">جنتيانا </t>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>حنه فاتيكا اسود 1 كيس</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زبدة كاكاو لونا </t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>شامبو كلير 1 كيس</t>
+  </si>
+  <si>
+    <t>119:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>2.5000</t>
+  </si>
+  <si>
+    <t>شمع حريمي</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فازلين بيور صغير </t>
+  </si>
+  <si>
+    <t>13:0</t>
   </si>
   <si>
     <t>15.00</t>
@@ -503,66 +560,6 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>حلاوة حرير</t>
-  </si>
-  <si>
-    <t>حنه فاتيكا اسود 1 كيس</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">زبدة كاكاو لونا </t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>شامبو كلير 1 كيس</t>
-  </si>
-  <si>
-    <t>119:0</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>2.5000</t>
-  </si>
-  <si>
-    <t>شمع حريمي</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فازلين بيور صغير </t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
     <t>فرشاة اطفال ريتش ديلي</t>
   </si>
   <si>
@@ -617,7 +614,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 4:05 PM</t>
+    <t>Thursday, 5 June, 2025 4:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2842,7 +2839,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2852,11 +2849,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -2868,14 +2865,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2885,11 +2882,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -2901,14 +2898,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2918,11 +2915,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -2934,14 +2931,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>168</v>
+        <v>49</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2951,14 +2948,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3007,7 +3004,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3017,14 +3014,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3033,14 +3030,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>176</v>
+        <v>62</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3073,7 +3070,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>62</v>
+        <v>180</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3083,11 +3080,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3099,14 +3096,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3116,11 +3113,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3132,14 +3129,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>185</v>
+        <v>92</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3149,11 +3146,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3165,7 +3162,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3182,11 +3179,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3198,14 +3195,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3215,11 +3212,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3231,14 +3228,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>192</v>
+        <v>49</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3248,11 +3245,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3264,14 +3261,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>49</v>
+        <v>191</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3281,11 +3278,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3304,7 +3301,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>192</v>
+        <v>49</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3314,11 +3311,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3330,14 +3327,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>49</v>
+        <v>200</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3347,82 +3344,49 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
-      <c r="A71" s="7">
-        <v>65</v>
-      </c>
-      <c r="B71" s="7"/>
-      <c t="s" r="C71" s="8">
-        <v>200</v>
-      </c>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c t="s" r="H71" s="9">
+      <c r="P71" s="13">
+        <v>2883.0300000000002</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
         <v>201</v>
       </c>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
-      <c t="s" r="L71" s="10">
-        <v>156</v>
-      </c>
-      <c r="M71" s="10"/>
-      <c t="s" r="N71" s="8">
-        <v>157</v>
-      </c>
-      <c r="O71" s="8"/>
-      <c t="s" r="P71" s="11">
-        <v>160</v>
-      </c>
-      <c t="s" r="Q71" s="12">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>2898.0300000000002</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
         <v>202</v>
       </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
         <v>203</v>
       </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
-        <v>204</v>
-      </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3751,15 +3715,10 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:K71"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -383,7 +383,7 @@
     <t>45.0450</t>
   </si>
   <si>
-    <t>SUGARLO PLUS 50/500MG 30 F.C. TABS</t>
+    <t>SUGARLO PLUS 50/850MG 30 F.C. TABS</t>
   </si>
   <si>
     <t>132.00</t>
@@ -614,7 +614,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 4:07 PM</t>
+    <t>Thursday, 5 June, 2025 4:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -614,7 +614,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 4:12 PM</t>
+    <t>Thursday, 5 June, 2025 4:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -47,63 +47,66 @@
     <t>ADOLOR 30 MG 3 AMPS.</t>
   </si>
   <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>-11.8800</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>ALGASON MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>AUGMENTIN ES-600 PD. FOR ORAL SUSP. 75 ML</t>
+  </si>
+  <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>-11.8800</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>ALGASON MASSAGE CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>67.3200</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>51.4800</t>
-  </si>
-  <si>
-    <t>AUGMENTIN ES-600 PD. FOR ORAL SUSP. 75 ML</t>
-  </si>
-  <si>
     <t>169.00</t>
   </si>
   <si>
@@ -155,6 +158,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>CIPRAPRO 10MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>-78.2100</t>
+  </si>
+  <si>
     <t>CLARITINE 1MG/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -188,7 +200,7 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>2:2</t>
+    <t>7:2</t>
   </si>
   <si>
     <t>35.6400</t>
@@ -206,6 +218,15 @@
     <t>108.00</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -218,6 +239,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>DULOXEPRIN 30MG 28 CAPSULES</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>DUPHALAC 667GM/L SYRUP 200ML</t>
   </si>
   <si>
@@ -245,6 +275,27 @@
     <t>35.1450</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:10</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>8:3</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
@@ -269,6 +320,9 @@
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
+    <t>6:1</t>
+  </si>
+  <si>
     <t>54.00</t>
   </si>
   <si>
@@ -287,9 +341,6 @@
     <t>IVERZINE 1% LOTION 60 ML</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>52.00</t>
   </si>
   <si>
@@ -356,9 +407,6 @@
     <t>PRAVOTIN 100MG 14 SACHETS</t>
   </si>
   <si>
-    <t>180.00</t>
-  </si>
-  <si>
     <t>180.0000</t>
   </si>
   <si>
@@ -371,6 +419,18 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>SHAAN BODY MILK 300ML</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>200.0000</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -434,9 +494,6 @@
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
-    <t>0:4</t>
-  </si>
-  <si>
     <t>90.00</t>
   </si>
   <si>
@@ -464,6 +521,9 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>96.00</t>
   </si>
   <si>
@@ -479,9 +539,6 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -500,9 +557,6 @@
     <t>حنه فاتيكا اسود 1 كيس</t>
   </si>
   <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">زبدة كاكاو لونا </t>
   </si>
   <si>
@@ -599,6 +653,9 @@
     <t>كريم فيرند لافلي الصغير</t>
   </si>
   <si>
+    <t>ليفه اطفال اشكال</t>
+  </si>
+  <si>
     <t>ماسك صنفره هاي لايف</t>
   </si>
   <si>
@@ -614,7 +671,13 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 4:16 PM</t>
+    <t>مناديل سولو سحب صغيره</t>
+  </si>
+  <si>
+    <t>38:0</t>
+  </si>
+  <si>
+    <t>Thursday, 5 June, 2025 5:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1387,7 +1450,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1397,11 +1460,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>18</v>
@@ -1413,14 +1476,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1430,11 +1493,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>18</v>
@@ -1446,14 +1509,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1463,11 +1526,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>22</v>
@@ -1479,7 +1542,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1496,11 +1559,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>22</v>
@@ -1512,14 +1575,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1533,7 +1596,7 @@
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>22</v>
@@ -1545,7 +1608,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1566,7 +1629,7 @@
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>22</v>
@@ -1578,14 +1641,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1602,7 +1665,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1618,7 +1681,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1628,11 +1691,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>18</v>
@@ -1644,14 +1707,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1661,11 +1724,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>18</v>
@@ -1677,14 +1740,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1694,14 +1757,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1710,14 +1773,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1731,10 +1794,10 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1743,14 +1806,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1760,14 +1823,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1776,14 +1839,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1793,11 +1856,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>22</v>
@@ -1816,7 +1879,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1833,7 +1896,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1849,7 +1912,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1859,11 +1922,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>22</v>
@@ -1875,14 +1938,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1892,11 +1955,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>22</v>
@@ -1908,14 +1971,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1925,14 +1988,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1941,14 +2004,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1965,7 +2028,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1981,7 +2044,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1998,7 +2061,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2014,7 +2077,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2024,14 +2087,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>90</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2064,7 +2127,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2080,7 +2143,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2097,7 +2160,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2113,7 +2176,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2123,14 +2186,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2139,14 +2202,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2156,14 +2219,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2172,14 +2235,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2189,14 +2252,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2205,14 +2268,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2222,14 +2285,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2238,14 +2301,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2255,14 +2318,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2271,14 +2334,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2288,11 +2351,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>22</v>
@@ -2304,14 +2367,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2321,14 +2384,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2337,14 +2400,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2354,14 +2417,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2370,14 +2433,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2387,14 +2450,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2403,14 +2466,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2420,14 +2483,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2436,14 +2499,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2453,14 +2516,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2469,14 +2532,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2486,14 +2549,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2502,14 +2565,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2519,14 +2582,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2535,28 +2598,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2568,14 +2631,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2585,14 +2648,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2601,14 +2664,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2625,7 +2688,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2641,7 +2704,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2651,14 +2714,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2674,7 +2737,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2691,7 +2754,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2707,7 +2770,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2724,7 +2787,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2740,7 +2803,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2750,11 +2813,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
@@ -2766,28 +2829,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>18</v>
@@ -2799,31 +2862,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2832,31 +2895,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>157</v>
+        <v>36</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2865,28 +2928,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -2898,28 +2961,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -2931,31 +2994,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2964,31 +3027,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2997,28 +3060,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>18</v>
@@ -3030,28 +3093,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>62</v>
+        <v>178</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3063,31 +3126,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>180</v>
+        <v>66</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3096,28 +3159,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3129,31 +3192,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3162,31 +3225,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3208,15 +3271,15 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3228,28 +3291,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3261,28 +3324,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>74</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3294,28 +3357,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>49</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3327,66 +3390,330 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>62</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>2883.0300000000002</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
-        <v>201</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
-        <v>202</v>
-      </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
-        <v>203</v>
-      </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>206</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>12</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>137</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>113</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>208</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>209</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>137</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>204</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>210</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>53</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>137</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>211</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>212</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>213</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>209</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>137</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>176</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>214</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>31</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>137</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>176</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>215</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>53</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>137</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>216</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>218</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>219</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>137</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>176</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>220</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>221</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>137</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>96</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>3259.3000000000002</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
+        <v>222</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
+        <v>223</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>224</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3715,10 +4042,50 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -209,96 +209,102 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>DULOXEPRIN 30MG 28 CAPSULES</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>DUPHALAC 667GM/L SYRUP 200ML</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>E-MOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>EXARETIC 20 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>106.50</t>
+  </si>
+  <si>
+    <t>35.1450</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:10</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>8:3</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>DULOXEPRIN 30MG 28 CAPSULES</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>DUPHALAC 667GM/L SYRUP 200ML</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>87.0000</t>
-  </si>
-  <si>
-    <t>E-MOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>EXARETIC 20 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>106.50</t>
-  </si>
-  <si>
-    <t>35.1450</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:10</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>8:3</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
@@ -320,13 +326,13 @@
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
-    <t>6:1</t>
+    <t>6:0</t>
   </si>
   <si>
     <t>54.00</t>
   </si>
   <si>
-    <t>-17.8200</t>
+    <t>0.0000</t>
   </si>
   <si>
     <t>GLIPTUS 50 MG 30 TABS.</t>
@@ -410,6 +416,15 @@
     <t>180.0000</t>
   </si>
   <si>
+    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
+  </si>
+  <si>
+    <t>1:8</t>
+  </si>
+  <si>
+    <t>4.8000</t>
+  </si>
+  <si>
     <t>RAKU-TEN EMOLLIENT CREAM 50 GM</t>
   </si>
   <si>
@@ -434,6 +449,15 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -521,9 +545,6 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>96.00</t>
   </si>
   <si>
@@ -569,7 +590,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>10.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -677,7 +698,7 @@
     <t>38:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 5:36 PM</t>
+    <t>Thursday, 5 June, 2025 5:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1827,10 +1848,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1839,7 +1860,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1856,7 +1877,7 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -1872,7 +1893,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1889,11 +1910,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>22</v>
@@ -1905,14 +1926,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1922,11 +1943,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>22</v>
@@ -1938,7 +1959,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1955,11 +1976,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>22</v>
@@ -1971,7 +1992,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1988,11 +2009,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>18</v>
@@ -2004,7 +2025,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2021,11 +2042,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>22</v>
@@ -2037,7 +2058,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2054,11 +2075,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>22</v>
@@ -2070,14 +2091,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2087,14 +2108,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>64</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2103,14 +2124,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2120,11 +2141,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>22</v>
@@ -2136,14 +2157,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2153,11 +2174,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>31</v>
@@ -2169,14 +2190,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2186,11 +2207,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>18</v>
@@ -2202,14 +2223,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2219,14 +2240,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2235,7 +2256,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2252,11 +2273,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>18</v>
@@ -2268,7 +2289,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2285,11 +2306,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>18</v>
@@ -2301,7 +2322,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2318,11 +2339,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>22</v>
@@ -2334,14 +2355,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2351,11 +2372,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>22</v>
@@ -2367,14 +2388,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2384,11 +2405,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>22</v>
@@ -2400,7 +2421,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2417,11 +2438,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>22</v>
@@ -2433,14 +2454,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2450,11 +2471,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2466,7 +2487,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2483,11 +2504,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>31</v>
@@ -2499,7 +2520,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2516,11 +2537,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>22</v>
@@ -2532,7 +2553,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2549,11 +2570,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
@@ -2565,14 +2586,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2582,14 +2603,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2598,7 +2619,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2611,15 +2632,15 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2631,31 +2652,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2664,14 +2685,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2681,11 +2702,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>22</v>
@@ -2697,14 +2718,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2714,11 +2735,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -2730,14 +2751,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2747,11 +2768,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>22</v>
@@ -2763,14 +2784,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2780,14 +2801,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2796,14 +2817,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2813,14 +2834,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2829,14 +2850,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2846,14 +2867,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2862,14 +2883,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2879,14 +2900,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2895,14 +2916,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2912,14 +2933,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>36</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2928,14 +2949,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2945,14 +2966,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2961,14 +2982,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2978,14 +2999,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>36</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2994,7 +3015,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3011,11 +3032,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>37</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3027,28 +3048,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -3060,28 +3081,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>53</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>18</v>
@@ -3093,28 +3114,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3126,31 +3147,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>66</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>97</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3159,28 +3180,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3192,28 +3213,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>31</v>
@@ -3225,31 +3246,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>53</v>
+        <v>190</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3258,20 +3279,20 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>53</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3282,7 +3303,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3298,13 +3319,13 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3315,7 +3336,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3337,7 +3358,7 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3364,21 +3385,21 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>97</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3390,28 +3411,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3423,24 +3444,24 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3456,28 +3477,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3489,28 +3510,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3522,28 +3543,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>84</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3555,28 +3576,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>84</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3588,28 +3609,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>53</v>
+        <v>216</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3621,31 +3642,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>219</v>
+        <v>31</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>179</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>66</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3654,66 +3675,132 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>221</v>
+        <v>53</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>96</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>71</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>3259.3000000000002</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
-        <v>222</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
-        <v>223</v>
-      </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
-        <v>224</v>
-      </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>225</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>226</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>142</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>183</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>227</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>228</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>142</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>98</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="P81" s="13">
+        <v>3320.8000000000002</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
+        <v>229</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
+        <v>230</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
+        <v>231</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4082,10 +4169,20 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -698,7 +698,7 @@
     <t>38:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 5:38 PM</t>
+    <t>Thursday, 5 June, 2025 5:39 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -269,6 +269,18 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
     <t>EXARETIC 20 MG 30 TAB.</t>
   </si>
   <si>
@@ -698,7 +710,7 @@
     <t>38:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 5:39 PM</t>
+    <t>Thursday, 5 June, 2025 5:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2065,7 +2077,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2075,11 +2087,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>22</v>
@@ -2091,14 +2103,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2108,14 +2120,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>91</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2124,14 +2136,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2141,14 +2153,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>95</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2181,7 +2193,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2214,7 +2226,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2247,7 +2259,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>53</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2263,7 +2275,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2273,14 +2285,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2289,14 +2301,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2306,11 +2318,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>18</v>
@@ -2322,14 +2334,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2339,14 +2351,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2355,14 +2367,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2372,11 +2384,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>22</v>
@@ -2388,14 +2400,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2405,11 +2417,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>22</v>
@@ -2421,14 +2433,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2438,11 +2450,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>22</v>
@@ -2454,14 +2466,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2471,14 +2483,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2487,14 +2499,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2504,14 +2516,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2520,7 +2532,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2537,14 +2549,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2553,14 +2565,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2570,14 +2582,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2586,14 +2598,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2603,14 +2615,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2619,14 +2631,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2636,14 +2648,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2652,7 +2664,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2665,7 +2677,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2692,24 +2704,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2718,14 +2730,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2735,14 +2747,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2751,14 +2763,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2768,14 +2780,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2784,14 +2796,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2801,14 +2813,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2817,7 +2829,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2834,14 +2846,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2850,14 +2862,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2867,11 +2879,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>22</v>
@@ -2883,14 +2895,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2900,14 +2912,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2916,14 +2928,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2956,7 +2968,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>91</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2966,14 +2978,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2982,14 +2994,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2999,14 +3011,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3015,14 +3027,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>53</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3032,14 +3044,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>36</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3048,14 +3060,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3065,11 +3077,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -3081,14 +3093,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3098,11 +3110,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>18</v>
@@ -3114,28 +3126,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>53</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>36</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3147,28 +3159,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>118</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3180,28 +3192,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3213,31 +3225,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>97</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>98</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3246,31 +3258,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>190</v>
+        <v>101</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3279,31 +3291,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>53</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>101</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3312,7 +3324,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3325,18 +3337,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>31</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3345,20 +3357,20 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>198</v>
+        <v>53</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3369,7 +3381,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3385,21 +3397,21 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>97</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3411,20 +3423,20 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>101</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3457,15 +3469,15 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3477,28 +3489,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3510,7 +3522,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3523,15 +3535,15 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3543,28 +3555,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>119</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3576,28 +3588,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3609,28 +3621,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>216</v>
+        <v>53</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>183</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>85</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3642,24 +3654,24 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>31</v>
+        <v>220</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3675,28 +3687,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3708,31 +3720,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>53</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>97</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3741,66 +3753,99 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>98</v>
+        <v>187</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>231</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>232</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>146</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>102</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
         <v>72</v>
       </c>
-      <c t="s" r="Q80" s="12">
+      <c t="s" r="Q81" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>3320.8000000000002</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
-        <v>229</v>
-      </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
-        <v>230</v>
-      </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
-        <v>231</v>
-      </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>3332.3200000000002</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>233</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>234</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>235</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4179,10 +4224,15 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -293,171 +293,180 @@
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
-    <t>1:10</t>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>71.2800</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>8:3</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>GLIPTUS 50 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>151.50</t>
+  </si>
+  <si>
+    <t>151.5000</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>KETOFAN 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>14.8500</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>-76.0000</t>
+  </si>
+  <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>142.0000</t>
+  </si>
+  <si>
+    <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>PRAVOTIN 100MG 14 SACHETS</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
+  </si>
+  <si>
+    <t>1:8</t>
+  </si>
+  <si>
+    <t>4.8000</t>
+  </si>
+  <si>
+    <t>RAKU-TEN EMOLLIENT CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>SHAAN BODY MILK 300ML</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>200.0000</t>
+  </si>
+  <si>
+    <t>SILDAVA 100MG 12 TABLETS</t>
   </si>
   <si>
     <t>0:4</t>
   </si>
   <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>8:3</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>GLIPTUS 50 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>151.50</t>
-  </si>
-  <si>
-    <t>151.5000</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>KETOFAN 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>14.8500</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>-76.0000</t>
-  </si>
-  <si>
-    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>142.0000</t>
-  </si>
-  <si>
-    <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>98.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>PRAVOTIN 100MG 14 SACHETS</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
-  </si>
-  <si>
-    <t>1:8</t>
-  </si>
-  <si>
-    <t>4.8000</t>
-  </si>
-  <si>
-    <t>RAKU-TEN EMOLLIENT CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>SHAAN BODY MILK 300ML</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>200.00</t>
-  </si>
-  <si>
-    <t>200.0000</t>
-  </si>
-  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -710,7 +719,7 @@
     <t>38:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 5:40 PM</t>
+    <t>Thursday, 5 June, 2025 6:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2157,10 +2166,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2169,14 +2178,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2186,11 +2195,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>22</v>
@@ -2202,14 +2211,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2219,11 +2228,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>31</v>
@@ -2235,14 +2244,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2252,11 +2261,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>18</v>
@@ -2268,14 +2277,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2285,11 +2294,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>53</v>
@@ -2301,7 +2310,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2318,11 +2327,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>18</v>
@@ -2334,7 +2343,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2351,11 +2360,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>18</v>
@@ -2367,7 +2376,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2384,11 +2393,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>22</v>
@@ -2400,14 +2409,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2417,11 +2426,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>22</v>
@@ -2433,14 +2442,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2466,7 +2475,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2483,11 +2492,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>22</v>
@@ -2499,14 +2508,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2516,11 +2525,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2532,7 +2541,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2549,11 +2558,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>31</v>
@@ -2565,7 +2574,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2582,11 +2591,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>22</v>
@@ -2598,7 +2607,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2619,7 +2628,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>18</v>
@@ -2631,14 +2640,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2648,11 +2657,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>22</v>
@@ -2664,7 +2673,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2681,11 +2690,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>18</v>
@@ -2697,7 +2706,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2710,15 +2719,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -2730,14 +2739,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2747,14 +2756,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2763,14 +2772,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2780,14 +2789,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2803,7 +2812,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2820,7 +2829,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2836,7 +2845,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2853,7 +2862,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2886,7 +2895,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2902,7 +2911,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2935,7 +2944,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2952,7 +2961,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2968,7 +2977,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2978,11 +2987,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -2994,14 +3003,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3018,7 +3027,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3034,7 +3043,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3044,14 +3053,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3067,7 +3076,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3077,14 +3086,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>36</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3100,7 +3109,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3133,7 +3142,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3143,11 +3152,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>37</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3159,28 +3168,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>53</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>36</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3205,15 +3214,15 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3232,21 +3241,21 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>85</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3258,31 +3267,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>101</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>102</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3291,31 +3300,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>187</v>
+        <v>103</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3324,31 +3333,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>105</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3370,7 +3379,7 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3381,7 +3390,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>31</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3397,24 +3406,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>53</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3423,20 +3432,20 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>101</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3463,21 +3472,21 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>102</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3489,28 +3498,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3522,28 +3531,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>216</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3568,15 +3577,15 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>119</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3588,28 +3597,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>120</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3621,28 +3630,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>53</v>
+        <v>223</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3661,21 +3670,21 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>220</v>
+        <v>53</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>85</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3687,24 +3696,24 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -3720,28 +3729,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3760,24 +3769,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>53</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>101</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3786,66 +3795,99 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>102</v>
+        <v>190</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>234</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>235</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>147</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>103</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
         <v>72</v>
       </c>
-      <c t="s" r="Q81" s="12">
+      <c t="s" r="Q82" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>3332.3200000000002</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
-        <v>233</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
-        <v>234</v>
-      </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
-        <v>235</v>
-      </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>3415.48</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>236</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>237</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>238</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4229,10 +4271,15 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>ALZMENDA 10 MG 21 F.C.TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
   </si>
   <si>
@@ -170,9 +182,6 @@
     <t>CLARITINE 1MG/ML SYRUP 100ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>62.00</t>
   </si>
   <si>
@@ -719,7 +728,7 @@
     <t>38:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 6:05 PM</t>
+    <t>Thursday, 5 June, 2025 6:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1443,7 +1452,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1452,14 +1461,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1469,14 +1478,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>29</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1509,7 +1518,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1575,7 +1584,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1591,7 +1600,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1601,14 +1610,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1617,14 +1626,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1634,14 +1643,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1650,14 +1659,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1667,14 +1676,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1683,14 +1692,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1700,14 +1709,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1716,14 +1725,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1740,7 +1749,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1756,7 +1765,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1789,7 +1798,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1822,7 +1831,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1832,14 +1841,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1888,7 +1897,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1898,14 +1907,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1914,7 +1923,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1931,14 +1940,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1954,7 +1963,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1964,14 +1973,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1980,14 +1989,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2004,7 +2013,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2020,7 +2029,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2037,7 +2046,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2053,7 +2062,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2070,7 +2079,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2086,7 +2095,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2096,14 +2105,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2112,14 +2121,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2136,7 +2145,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2152,7 +2161,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2162,14 +2171,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>96</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2178,14 +2187,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2195,14 +2204,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2211,14 +2220,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2228,14 +2237,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2244,14 +2253,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2261,14 +2270,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2277,14 +2286,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2294,14 +2303,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>53</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2310,14 +2319,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2334,7 +2343,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2350,7 +2359,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2383,7 +2392,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2400,7 +2409,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2416,7 +2425,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2433,7 +2442,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2449,7 +2458,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2459,14 +2468,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2475,14 +2484,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2492,14 +2501,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2508,14 +2517,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2525,14 +2534,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2548,7 +2557,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2565,7 +2574,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2581,7 +2590,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2598,7 +2607,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2614,7 +2623,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2624,14 +2633,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2640,14 +2649,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2657,14 +2666,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2680,7 +2689,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2690,14 +2699,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2713,21 +2722,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -2739,31 +2748,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>151</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2772,14 +2781,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2789,14 +2798,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2805,14 +2814,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2822,14 +2831,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2845,7 +2854,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2862,7 +2871,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2878,7 +2887,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2895,7 +2904,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2911,7 +2920,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2928,7 +2937,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2944,7 +2953,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2961,7 +2970,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2977,7 +2986,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2994,7 +3003,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3010,7 +3019,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3020,11 +3029,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -3036,14 +3045,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3060,7 +3069,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3076,7 +3085,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3086,14 +3095,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>36</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3109,7 +3118,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3119,14 +3128,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3142,7 +3151,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3175,7 +3184,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3185,11 +3194,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>36</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>37</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3201,28 +3210,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3247,15 +3256,15 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>123</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3274,21 +3283,21 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>85</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3300,31 +3309,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3333,31 +3342,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>190</v>
+        <v>106</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3366,31 +3375,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>106</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3406,13 +3415,13 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3423,7 +3432,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>31</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3439,24 +3448,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3465,20 +3474,20 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>102</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3505,21 +3514,21 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>212</v>
+        <v>105</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3531,28 +3540,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3564,28 +3573,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3610,15 +3619,15 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>120</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3630,28 +3639,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>123</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3663,28 +3672,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>53</v>
+        <v>226</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3703,21 +3712,21 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>223</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>85</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3729,28 +3738,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>31</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3762,28 +3771,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -3802,24 +3811,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>102</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3828,66 +3837,99 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>72</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q82" s="12">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>237</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>238</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>150</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>106</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q83" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>3415.48</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
-        <v>236</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
-        <v>237</v>
-      </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
-        <v>238</v>
-      </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>3490.48</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
+        <v>239</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>240</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>241</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4276,10 +4318,15 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -728,7 +728,7 @@
     <t>38:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 6:37 PM</t>
+    <t>Thursday, 5 June, 2025 6:38 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -137,6 +137,18 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>BIONAL 30 CAP</t>
   </si>
   <si>
@@ -245,9 +257,6 @@
     <t>6:2</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
@@ -269,6 +278,15 @@
     <t>87.0000</t>
   </si>
   <si>
+    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>386.00</t>
+  </si>
+  <si>
+    <t>127.3800</t>
+  </si>
+  <si>
     <t>E-MOX 500MG 16 CAPS</t>
   </si>
   <si>
@@ -299,12 +317,12 @@
     <t>35.1450</t>
   </si>
   <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
-    <t>1:6</t>
-  </si>
-  <si>
     <t>71.2800</t>
   </si>
   <si>
@@ -620,7 +638,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>10.0000</t>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -728,7 +749,7 @@
     <t>38:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 6:38 PM</t>
+    <t>Thursday, 5 June, 2025 6:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1617,7 +1638,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1633,7 +1654,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1643,11 +1664,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>26</v>
@@ -1659,14 +1680,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1676,11 +1697,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>26</v>
@@ -1692,14 +1713,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1709,11 +1730,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>26</v>
@@ -1725,14 +1746,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1742,14 +1763,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1758,14 +1779,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1775,14 +1796,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1791,7 +1812,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1808,11 +1829,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
@@ -1824,14 +1845,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1841,11 +1862,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>18</v>
@@ -1857,14 +1878,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1874,14 +1895,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1890,14 +1911,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1911,10 +1932,10 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1923,14 +1944,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1940,14 +1961,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1956,14 +1977,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1973,11 +1994,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>26</v>
@@ -1989,14 +2010,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2029,7 +2050,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2039,7 +2060,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -2062,7 +2083,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2079,7 +2100,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2112,7 +2133,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2128,7 +2149,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2138,11 +2159,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>26</v>
@@ -2154,14 +2175,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2171,11 +2192,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>26</v>
@@ -2187,14 +2208,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2204,14 +2225,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>99</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2220,14 +2241,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2237,11 +2258,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>26</v>
@@ -2253,14 +2274,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2270,14 +2291,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2286,14 +2307,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2303,14 +2324,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2319,14 +2340,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2336,14 +2357,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2352,14 +2373,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2369,14 +2390,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2385,14 +2406,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2402,11 +2423,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>18</v>
@@ -2418,14 +2439,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2435,14 +2456,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2451,14 +2472,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2468,14 +2489,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2484,14 +2505,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2501,14 +2522,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2517,14 +2538,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2534,11 +2555,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>26</v>
@@ -2550,14 +2571,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2567,14 +2588,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2583,14 +2604,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2600,14 +2621,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2616,14 +2637,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2633,11 +2654,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>26</v>
@@ -2649,14 +2670,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2666,14 +2687,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2682,14 +2703,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2699,14 +2720,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2715,7 +2736,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2732,14 +2753,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2748,28 +2769,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -2781,14 +2802,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2798,14 +2819,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>154</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2814,14 +2835,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2831,14 +2852,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2847,20 +2868,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2897,14 +2918,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>26</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2913,14 +2934,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2930,14 +2951,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2946,14 +2967,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2963,14 +2984,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2979,14 +3000,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2996,11 +3017,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>26</v>
@@ -3012,14 +3033,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3029,11 +3050,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -3045,14 +3066,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3062,14 +3083,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3078,14 +3099,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>154</v>
+        <v>47</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3095,14 +3116,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3111,14 +3132,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>182</v>
+        <v>115</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3128,14 +3149,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3144,14 +3165,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3161,11 +3182,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3177,14 +3198,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3194,14 +3215,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3210,14 +3231,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3231,10 +3252,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3243,28 +3264,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3276,28 +3297,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>126</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3309,28 +3330,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3342,31 +3363,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>105</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>106</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3375,28 +3396,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>132</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>88</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3408,31 +3429,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>201</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>109</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3448,21 +3469,21 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>112</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>35</v>
@@ -3474,28 +3495,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3507,31 +3528,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3540,31 +3561,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>215</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3573,20 +3594,20 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3606,28 +3627,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3639,24 +3660,24 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3685,15 +3706,15 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3712,13 +3733,13 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -3745,21 +3766,21 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>88</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3771,28 +3792,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>88</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -3804,7 +3825,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3817,15 +3838,15 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -3837,31 +3858,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>196</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>105</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3870,66 +3891,165 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>238</v>
+        <v>35</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>106</v>
+        <v>199</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>3490.48</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
         <v>239</v>
       </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>22</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>156</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
         <v>240</v>
       </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
         <v>241</v>
       </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c t="s" r="Q84" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>242</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>243</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>156</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>199</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>244</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>245</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>156</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>112</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>3698.8600000000001</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>246</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>247</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>248</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4323,10 +4443,25 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -176,6 +176,15 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
@@ -749,7 +758,7 @@
     <t>38:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 6:39 PM</t>
+    <t>Thursday, 5 June, 2025 6:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1753,7 +1762,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1763,11 +1772,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>26</v>
@@ -1779,14 +1788,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1796,14 +1805,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1819,7 +1828,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1836,7 +1845,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1885,7 +1894,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1918,7 +1927,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1928,14 +1937,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1968,7 +1977,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1984,7 +1993,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1994,14 +2003,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2010,14 +2019,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2027,11 +2036,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>26</v>
@@ -2050,7 +2059,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2060,7 +2069,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -2083,7 +2092,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2093,7 +2102,7 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -2116,7 +2125,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2133,7 +2142,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2166,7 +2175,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2215,7 +2224,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2225,11 +2234,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>26</v>
@@ -2241,14 +2250,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2281,7 +2290,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2291,14 +2300,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2307,14 +2316,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2324,14 +2333,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>105</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2347,7 +2356,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2357,14 +2366,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2373,14 +2382,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2390,14 +2399,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2406,14 +2415,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2423,14 +2432,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2439,14 +2448,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2456,14 +2465,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2472,14 +2481,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2496,7 +2505,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2512,7 +2521,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2545,7 +2554,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2562,7 +2571,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2578,7 +2587,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2611,7 +2620,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2621,11 +2630,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>26</v>
@@ -2637,14 +2646,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2654,11 +2663,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>26</v>
@@ -2670,14 +2679,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2687,14 +2696,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2710,7 +2719,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2727,7 +2736,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2760,7 +2769,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2776,7 +2785,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2786,14 +2795,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2802,14 +2811,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2819,14 +2828,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2842,7 +2851,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2852,14 +2861,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2881,15 +2890,15 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
@@ -2901,31 +2910,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>160</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2934,14 +2943,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2951,14 +2960,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>26</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2967,14 +2976,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2984,14 +2993,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3007,7 +3016,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3024,7 +3033,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3040,7 +3049,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3057,7 +3066,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3090,7 +3099,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3106,7 +3115,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3139,7 +3148,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3156,7 +3165,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3172,7 +3181,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3182,11 +3191,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3198,14 +3207,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3222,7 +3231,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3238,7 +3247,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3248,14 +3257,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3271,7 +3280,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3281,14 +3290,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3304,7 +3313,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3337,7 +3346,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3347,11 +3356,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3363,28 +3372,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3409,15 +3418,15 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3436,21 +3445,21 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>94</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3462,31 +3471,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>111</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3495,31 +3504,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>114</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>199</v>
+        <v>115</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3528,31 +3537,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>210</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3561,7 +3570,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3574,18 +3583,18 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
+        <v>212</v>
+      </c>
+      <c t="s" r="Q73" s="12">
         <v>213</v>
-      </c>
-      <c t="s" r="Q73" s="12">
-        <v>35</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3601,24 +3610,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>215</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3627,20 +3636,20 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>111</v>
+        <v>218</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3667,21 +3676,21 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>222</v>
+        <v>114</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3693,28 +3702,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3726,28 +3735,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3772,15 +3781,15 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3792,28 +3801,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>132</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -3825,28 +3834,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>236</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -3865,21 +3874,21 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>233</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>94</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -3891,28 +3900,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>35</v>
+        <v>236</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -3924,28 +3933,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -3964,24 +3973,24 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>243</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>199</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>202</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>111</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3990,66 +3999,99 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q86" s="12">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>247</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>248</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>159</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>115</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q87" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>3698.8600000000001</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
-        <v>246</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
-        <v>247</v>
-      </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
-        <v>248</v>
-      </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>3731.5300000000002</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>249</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>250</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>251</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4458,10 +4500,15 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -101,6 +101,27 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>AMIPRIDE 50MG 30 TAB</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
@@ -209,6 +230,15 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>69.3000</t>
+  </si>
+  <si>
     <t>CONGESTAL SYRUP 120 ML</t>
   </si>
   <si>
@@ -395,6 +425,15 @@
     <t>151.5000</t>
   </si>
   <si>
+    <t>HERO BABY 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
     <t>IVERZINE 1% LOTION 60 ML</t>
   </si>
   <si>
@@ -425,9 +464,6 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -758,7 +794,7 @@
     <t>38:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 6:42 PM</t>
+    <t>Thursday, 5 June, 2025 7:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1531,7 +1567,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1541,14 +1577,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1557,14 +1593,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1574,14 +1610,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1590,14 +1626,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1607,14 +1643,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1623,14 +1659,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1640,14 +1676,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1656,14 +1692,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1673,14 +1709,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1689,14 +1725,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1713,7 +1749,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1729,7 +1765,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1739,11 +1775,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>26</v>
@@ -1755,14 +1791,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1772,11 +1808,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>26</v>
@@ -1788,14 +1824,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1805,11 +1841,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>26</v>
@@ -1821,14 +1857,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1838,14 +1874,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1854,14 +1890,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1871,14 +1907,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1887,14 +1923,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1904,14 +1940,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1920,14 +1956,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1937,11 +1973,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>18</v>
@@ -1953,14 +1989,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1970,14 +2006,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1986,14 +2022,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2003,14 +2039,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2019,14 +2055,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2036,14 +2072,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2052,14 +2088,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2069,14 +2105,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2085,14 +2121,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2102,14 +2138,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2118,14 +2154,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2135,11 +2171,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>26</v>
@@ -2151,14 +2187,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2168,14 +2204,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2184,14 +2220,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2201,11 +2237,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>26</v>
@@ -2217,14 +2253,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2234,11 +2270,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>26</v>
@@ -2250,14 +2286,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2274,7 +2310,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2290,7 +2326,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2323,7 +2359,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2333,14 +2369,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2349,14 +2385,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2366,14 +2402,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>108</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2382,14 +2418,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2399,11 +2435,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>26</v>
@@ -2415,14 +2451,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2432,14 +2468,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2448,14 +2484,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2465,14 +2501,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2481,14 +2517,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2498,14 +2534,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2514,14 +2550,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2531,14 +2567,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2547,14 +2583,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2587,7 +2623,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2597,14 +2633,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2613,14 +2649,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2630,14 +2666,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2646,14 +2682,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2663,14 +2699,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2679,14 +2715,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2696,14 +2732,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2712,14 +2748,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2729,14 +2765,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2745,14 +2781,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2762,14 +2798,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2778,14 +2814,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2795,11 +2831,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>26</v>
@@ -2811,7 +2847,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2828,14 +2864,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2844,14 +2880,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2861,14 +2897,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2877,7 +2913,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2894,14 +2930,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2910,7 +2946,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2923,7 +2959,7 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2934,7 +2970,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2950,7 +2986,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2960,14 +2996,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>163</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2983,7 +3019,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2993,11 +3029,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>54</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>26</v>
@@ -3009,14 +3045,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3026,11 +3062,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -3042,31 +3078,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3075,14 +3111,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3092,14 +3128,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3108,14 +3144,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3125,11 +3161,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>39</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>26</v>
@@ -3148,7 +3184,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3165,7 +3201,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3181,7 +3217,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3198,7 +3234,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3214,7 +3250,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>29</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3224,11 +3260,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3240,14 +3276,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3257,14 +3293,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3273,14 +3309,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>54</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3290,11 +3326,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>26</v>
@@ -3306,14 +3342,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3323,11 +3359,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3339,14 +3375,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>122</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3379,7 +3415,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3389,14 +3425,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3405,31 +3441,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>47</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>97</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3438,28 +3474,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3471,28 +3507,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>132</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>97</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3504,31 +3540,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3537,28 +3573,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3570,31 +3606,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>216</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>148</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>213</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3603,31 +3639,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>216</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3636,31 +3672,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>218</v>
+        <v>124</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>125</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3669,28 +3705,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>114</v>
+        <v>221</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3702,31 +3738,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>225</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>225</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3735,31 +3771,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>229</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3768,20 +3804,20 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3808,21 +3844,21 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>132</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -3834,28 +3870,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -3867,20 +3903,20 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>241</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -3900,28 +3936,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>97</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -3933,28 +3969,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>97</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -3966,20 +4002,20 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>248</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
@@ -3999,31 +4035,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>246</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>205</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>114</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4032,7 +4068,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4045,53 +4081,185 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>115</v>
+        <v>214</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>3731.5300000000002</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
-        <v>249</v>
-      </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
-        <v>250</v>
-      </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
-        <v>251</v>
-      </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>253</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>42</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>171</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>214</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>254</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>22</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>171</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>255</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>256</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>257</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>258</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>171</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>214</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>259</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>260</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>171</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>125</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>4124.1499999999996</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>261</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>262</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>263</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4505,10 +4673,30 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -362,10 +362,13 @@
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
-    <t>71.2800</t>
-  </si>
-  <si>
-    <t>0:8</t>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>88.5600</t>
+  </si>
+  <si>
+    <t>0:10</t>
   </si>
   <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
@@ -443,12 +446,18 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>KETOFAN 50MG 30 CAPS.</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
     <t>14.8500</t>
   </si>
   <si>
@@ -464,6 +473,9 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
+    <t>MAXDINIR 125MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
     <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -620,10 +632,22 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>8:1</t>
-  </si>
-  <si>
-    <t>16.8300</t>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8696:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
   </si>
   <si>
     <t>ZESTRIL 20MG 10 TAB</t>
@@ -677,18 +701,15 @@
     <t>15:0</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -749,9 +770,6 @@
     <t>فلامنجو شفرات للنساء</t>
   </si>
   <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>كريم فاتيكا 190 مل</t>
   </si>
   <si>
@@ -794,7 +812,7 @@
     <t>38:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 7:11 PM</t>
+    <t>Thursday, 5 June, 2025 7:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2491,7 +2509,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2505,10 +2523,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2517,14 +2535,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2534,11 +2552,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>26</v>
@@ -2550,14 +2568,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2567,11 +2585,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>42</v>
@@ -2583,14 +2601,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2600,11 +2618,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>18</v>
@@ -2616,14 +2634,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2633,11 +2651,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>22</v>
@@ -2649,7 +2667,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2666,11 +2684,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
@@ -2682,7 +2700,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2699,11 +2717,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>18</v>
@@ -2715,7 +2733,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2732,11 +2750,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2748,14 +2766,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2765,14 +2783,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2781,14 +2799,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2798,7 +2816,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2821,7 +2839,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2831,11 +2849,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>26</v>
@@ -2847,14 +2865,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2864,11 +2882,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>26</v>
@@ -2880,14 +2898,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2897,14 +2915,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2913,14 +2931,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2930,14 +2948,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2946,14 +2964,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2963,14 +2981,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2979,14 +2997,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2996,14 +3014,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3012,14 +3030,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3029,11 +3047,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>26</v>
@@ -3045,14 +3063,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3062,11 +3080,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>97</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -3078,31 +3096,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3111,14 +3129,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3128,14 +3146,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>175</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3144,31 +3162,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>61</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3177,14 +3195,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3194,14 +3212,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q60" s="12">
         <v>179</v>
-      </c>
-      <c t="s" r="Q60" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3217,7 +3235,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3227,11 +3245,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>26</v>
@@ -3243,14 +3261,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3260,11 +3278,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3276,14 +3294,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3293,11 +3311,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>26</v>
@@ -3309,14 +3327,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3326,14 +3344,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3342,14 +3360,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3359,14 +3377,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3375,14 +3393,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>54</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3392,14 +3410,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3408,14 +3426,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3425,14 +3443,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3441,14 +3459,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3458,14 +3476,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3474,14 +3492,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>179</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3491,14 +3509,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3507,14 +3525,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3524,14 +3542,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>47</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3540,14 +3558,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3557,14 +3575,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>48</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3573,20 +3591,20 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3594,7 +3612,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>107</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3606,28 +3624,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>216</v>
+        <v>133</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>148</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3639,28 +3657,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>216</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>47</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3672,31 +3690,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>124</v>
+        <v>221</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>125</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3705,28 +3723,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>151</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3738,31 +3756,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>224</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>225</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3771,28 +3789,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>126</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>42</v>
@@ -3804,28 +3822,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3837,28 +3855,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -3870,31 +3888,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>237</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3903,31 +3921,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>241</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3936,28 +3954,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -3969,28 +3987,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>145</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -4002,28 +4020,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4035,28 +4053,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>22</v>
+        <v>248</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4068,28 +4086,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>107</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4101,28 +4119,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>214</v>
+        <v>146</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4134,28 +4152,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>254</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4167,31 +4185,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>124</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4200,66 +4218,198 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>125</v>
+        <v>222</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>4124.1499999999996</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>259</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>42</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>175</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>222</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>260</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>22</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>175</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
         <v>261</v>
       </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
         <v>262</v>
       </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
+      <c t="s" r="Q93" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
         <v>263</v>
       </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>264</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>175</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>222</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>265</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>266</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>175</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>126</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>4283.2600000000002</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
+        <v>267</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
+        <v>268</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>269</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4693,10 +4843,30 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -206,6 +206,15 @@
     <t>32.6700</t>
   </si>
   <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
@@ -359,6 +368,15 @@
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
+    <t>FAKTU OINT. 30 GM</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -470,6 +488,18 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:21</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -482,6 +512,15 @@
     <t>19.8000</t>
   </si>
   <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -536,9 +575,6 @@
     <t>SHAAN BODY MILK 300ML</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>200.00</t>
   </si>
   <si>
@@ -599,6 +635,12 @@
     <t>40.5900</t>
   </si>
   <si>
+    <t>URGINAFECT 10MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -695,6 +737,9 @@
     <t>حنه فاتيكا اسود 1 كيس</t>
   </si>
   <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">زبدة كاكاو لونا </t>
   </si>
   <si>
@@ -812,7 +857,7 @@
     <t>38:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 7:19 PM</t>
+    <t>Thursday, 5 June, 2025 8:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1915,7 +1960,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1925,11 +1970,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>26</v>
@@ -1941,14 +1986,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1958,14 +2003,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1981,7 +2026,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1998,7 +2043,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2014,7 +2059,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2031,7 +2076,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2047,7 +2092,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2064,7 +2109,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2080,7 +2125,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2113,7 +2158,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2123,14 +2168,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2163,7 +2208,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2179,7 +2224,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2189,14 +2234,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2205,14 +2250,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2222,11 +2267,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>26</v>
@@ -2245,7 +2290,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2255,7 +2300,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2278,7 +2323,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2288,7 +2333,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -2311,7 +2356,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2328,7 +2373,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2361,7 +2406,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2410,7 +2455,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2420,11 +2465,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>26</v>
@@ -2436,14 +2481,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2476,7 +2521,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2486,14 +2531,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2502,14 +2547,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2519,14 +2564,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>119</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2535,14 +2580,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2552,14 +2597,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2568,14 +2613,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2585,14 +2630,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>42</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2601,14 +2646,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2618,14 +2663,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2634,14 +2679,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2651,14 +2696,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2667,14 +2712,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2684,11 +2729,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
@@ -2700,14 +2745,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2724,7 +2769,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2740,7 +2785,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2773,7 +2818,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2806,7 +2851,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2816,14 +2861,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2832,14 +2877,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2849,14 +2894,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2865,14 +2910,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2882,11 +2927,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>26</v>
@@ -2898,14 +2943,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2915,14 +2960,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2931,28 +2976,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>26</v>
@@ -2964,7 +3009,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2981,14 +3026,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2997,7 +3042,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3014,14 +3059,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3030,14 +3075,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3047,11 +3092,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>26</v>
@@ -3063,14 +3108,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3080,11 +3125,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>97</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -3096,14 +3141,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3113,14 +3158,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3129,7 +3174,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3146,14 +3191,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3162,7 +3207,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3175,18 +3220,18 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3195,14 +3240,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3212,14 +3257,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>179</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3228,14 +3273,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3245,11 +3290,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>39</v>
+        <v>157</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>61</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>26</v>
@@ -3261,14 +3306,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3278,11 +3323,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3294,31 +3339,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3327,14 +3372,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3344,14 +3389,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>113</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3360,14 +3405,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3377,11 +3422,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>39</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>26</v>
@@ -3400,7 +3445,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3417,7 +3462,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3433,7 +3478,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3450,7 +3495,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3466,7 +3511,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3476,11 +3521,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3492,14 +3537,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>179</v>
+        <v>29</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3509,14 +3554,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3525,14 +3570,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>54</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3542,14 +3587,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>47</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3558,14 +3603,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3575,14 +3620,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3591,14 +3636,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3608,11 +3653,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3624,14 +3669,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>133</v>
+        <v>214</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3641,11 +3686,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3657,14 +3702,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3674,14 +3719,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>47</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>48</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3703,18 +3748,18 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>47</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3736,18 +3781,18 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>151</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3756,28 +3801,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>224</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>107</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3789,31 +3834,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>126</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>127</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3822,28 +3867,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>229</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>222</v>
+        <v>47</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3855,28 +3900,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>235</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>212</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -3888,31 +3933,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>238</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>66</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>224</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3921,31 +3966,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>238</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3954,31 +3999,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>237</v>
+        <v>42</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>132</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>131</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3987,28 +4032,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>125</v>
+        <v>244</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -4020,28 +4065,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4060,24 +4105,24 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>248</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4086,31 +4131,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4119,28 +4164,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>146</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>147</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4152,28 +4197,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>254</v>
+        <v>131</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4185,28 +4230,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>22</v>
+        <v>259</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4218,28 +4263,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>107</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4251,28 +4296,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>222</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>107</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4284,28 +4329,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>152</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4317,31 +4362,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>222</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>225</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>125</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4350,66 +4395,231 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>266</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>126</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>92</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>4283.2600000000002</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
-        <v>267</v>
-      </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
-        <v>268</v>
-      </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>273</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
         <v>269</v>
       </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>161</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>236</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>274</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>42</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>161</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>236</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>275</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>22</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>161</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>276</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>277</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>278</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>279</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>161</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>236</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>280</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>281</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>161</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>132</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>4535.6800000000003</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>282</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>283</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>284</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4863,10 +5073,35 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -857,7 +857,7 @@
     <t>38:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 8:49 PM</t>
+    <t>Thursday, 5 June, 2025 8:51 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -215,6 +215,12 @@
     <t>7.9200</t>
   </si>
   <si>
+    <t>CELEBORG 200 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
@@ -266,6 +272,15 @@
     <t>58.5000</t>
   </si>
   <si>
+    <t>DAPABLIX 10MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -539,6 +554,15 @@
     <t>142.0000</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
   </si>
   <si>
@@ -857,7 +881,7 @@
     <t>38:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 8:51 PM</t>
+    <t>Thursday, 5 June, 2025 8:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1993,7 +2017,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2003,7 +2027,7 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
@@ -2026,7 +2050,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2036,14 +2060,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2052,14 +2076,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2069,14 +2093,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2085,14 +2109,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2102,14 +2126,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2118,14 +2142,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2135,14 +2159,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2151,14 +2175,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2168,11 +2192,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>18</v>
@@ -2184,14 +2208,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2201,14 +2225,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2217,14 +2241,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2234,14 +2258,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2250,14 +2274,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2267,14 +2291,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2290,7 +2314,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2300,14 +2324,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2323,7 +2347,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2333,11 +2357,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>26</v>
@@ -2349,14 +2373,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2366,11 +2390,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>26</v>
@@ -2382,14 +2406,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2399,14 +2423,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2415,14 +2439,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2432,11 +2456,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>26</v>
@@ -2448,7 +2472,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2465,14 +2489,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2481,14 +2505,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2498,11 +2522,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>26</v>
@@ -2514,14 +2538,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2531,11 +2555,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>26</v>
@@ -2547,14 +2571,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2564,14 +2588,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2580,14 +2604,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2597,14 +2621,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2613,14 +2637,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2630,14 +2654,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>125</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2646,14 +2670,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2663,14 +2687,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2679,14 +2703,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2696,14 +2720,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>42</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2712,14 +2736,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2729,14 +2753,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2745,14 +2769,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2762,14 +2786,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2778,14 +2802,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2795,11 +2819,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2811,14 +2835,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2828,14 +2852,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2844,14 +2868,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2861,11 +2885,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -2877,14 +2901,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2894,11 +2918,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -2910,14 +2934,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2927,14 +2951,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2950,7 +2974,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2967,7 +2991,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2983,21 +3007,21 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>54</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>26</v>
@@ -3009,14 +3033,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3026,11 +3050,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>26</v>
@@ -3049,24 +3073,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3075,14 +3099,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3092,11 +3116,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>157</v>
+        <v>51</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>26</v>
@@ -3108,14 +3132,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3125,11 +3149,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -3148,7 +3172,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3158,14 +3182,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3174,14 +3198,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3191,14 +3215,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3207,14 +3231,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3224,14 +3248,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3240,14 +3264,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3257,14 +3281,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3286,11 +3310,11 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3330,7 +3354,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3346,21 +3370,21 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>105</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3372,14 +3396,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3389,14 +3413,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>191</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3412,7 +3436,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3422,14 +3446,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>39</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>61</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3438,28 +3462,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3471,14 +3495,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3488,14 +3512,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>26</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3504,14 +3528,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3521,14 +3545,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>39</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3537,14 +3561,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3554,14 +3578,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3570,7 +3594,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3587,11 +3611,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>26</v>
@@ -3603,14 +3627,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3620,14 +3644,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3643,7 +3667,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3660,7 +3684,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3676,7 +3700,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>214</v>
+        <v>54</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3686,14 +3710,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3702,14 +3726,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3719,14 +3743,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3735,14 +3759,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3752,14 +3776,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>47</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3768,14 +3792,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3785,14 +3809,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3801,14 +3825,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>199</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3818,14 +3842,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3834,14 +3858,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3851,14 +3875,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>47</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3867,14 +3891,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3884,14 +3908,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>47</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>48</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3900,20 +3924,20 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>235</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -3921,7 +3945,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>110</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -3933,28 +3957,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>238</v>
+        <v>144</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>157</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -3966,28 +3990,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>238</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>47</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -3999,31 +4023,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>42</v>
+        <v>243</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>132</v>
+        <v>244</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>131</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4032,28 +4056,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>162</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -4065,28 +4089,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>246</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>226</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4098,31 +4122,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>225</v>
+        <v>137</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>69</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>238</v>
+        <v>136</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4131,31 +4155,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>252</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4164,28 +4188,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4204,24 +4228,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>246</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4230,31 +4254,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>259</v>
+        <v>22</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4263,28 +4287,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4296,28 +4320,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4329,28 +4353,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>267</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>152</v>
+        <v>268</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4362,28 +4386,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4395,28 +4419,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4428,28 +4452,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>269</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>236</v>
+        <v>157</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4461,28 +4485,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>42</v>
+        <v>277</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>110</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4494,7 +4518,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4507,15 +4531,15 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4527,31 +4551,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>239</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>131</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4560,66 +4584,165 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>281</v>
+        <v>42</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>132</v>
+        <v>244</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>4535.6800000000003</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>282</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
         <v>283</v>
       </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>22</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>166</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
         <v>284</v>
       </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>285</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>286</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>287</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>166</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>244</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>288</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>289</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>166</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>137</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>4673.5600000000004</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
+        <v>290</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>291</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>292</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5098,10 +5221,25 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -110,6 +110,18 @@
     <t>36.6300</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -128,18 +140,12 @@
     <t>1:2</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>51.4800</t>
   </si>
   <si>
     <t>AUGMENTIN ES-600 PD. FOR ORAL SUSP. 75 ML</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>169.00</t>
   </si>
   <si>
@@ -293,321 +299,327 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>71.2800</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>DULOXEPRIN 30MG 28 CAPSULES</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>DUPHALAC 667GM/L SYRUP 200ML</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>386.00</t>
+  </si>
+  <si>
+    <t>127.3800</t>
+  </si>
+  <si>
+    <t>E-MOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
+    <t>EXARETIC 20 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>106.50</t>
+  </si>
+  <si>
+    <t>35.1450</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
     <t>2:2</t>
   </si>
   <si>
+    <t>FAKTU OINT. 30 GM</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>88.5600</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>11.7600</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>GLIPTUS 50 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>151.50</t>
+  </si>
+  <si>
+    <t>151.5000</t>
+  </si>
+  <si>
+    <t>HERO BABY 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>KETOFAN 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>14.8500</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:21</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>MAXDINIR 125MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>-76.0000</t>
+  </si>
+  <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>142.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>PRAVOTIN 100MG 14 SACHETS</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
+  </si>
+  <si>
+    <t>1:8</t>
+  </si>
+  <si>
+    <t>4.8000</t>
+  </si>
+  <si>
+    <t>RAKU-TEN EMOLLIENT CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>SHAAN BODY MILK 300ML</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>200.0000</t>
+  </si>
+  <si>
+    <t>SILDAVA 100MG 12 TABLETS</t>
+  </si>
+  <si>
     <t>47.5200</t>
   </si>
   <si>
-    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>DULOXEPRIN 30MG 28 CAPSULES</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>DUPHALAC 667GM/L SYRUP 200ML</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>87.0000</t>
-  </si>
-  <si>
-    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>386.00</t>
-  </si>
-  <si>
-    <t>127.3800</t>
-  </si>
-  <si>
-    <t>E-MOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>4:3</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>11.5200</t>
-  </si>
-  <si>
-    <t>EXARETIC 20 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>106.50</t>
-  </si>
-  <si>
-    <t>35.1450</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>FAKTU OINT. 30 GM</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>88.5600</t>
-  </si>
-  <si>
-    <t>0:10</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>8:3</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>GLIPTUS 50 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>151.50</t>
-  </si>
-  <si>
-    <t>151.5000</t>
-  </si>
-  <si>
-    <t>HERO BABY 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>256.00</t>
-  </si>
-  <si>
-    <t>256.0000</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>KETOFAN 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>14.8500</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>0:21</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>MAXDINIR 125MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
-    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>-76.0000</t>
-  </si>
-  <si>
-    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>142.0000</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>98.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>PRAVOTIN 100MG 14 SACHETS</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
-  </si>
-  <si>
-    <t>1:8</t>
-  </si>
-  <si>
-    <t>4.8000</t>
-  </si>
-  <si>
-    <t>RAKU-TEN EMOLLIENT CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>SHAAN BODY MILK 300ML</t>
-  </si>
-  <si>
-    <t>200.00</t>
-  </si>
-  <si>
-    <t>200.0000</t>
-  </si>
-  <si>
-    <t>SILDAVA 100MG 12 TABLETS</t>
-  </si>
-  <si>
     <t>0:4</t>
   </si>
   <si>
@@ -785,9 +797,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
     <t>شامبو كلير 1 كيس</t>
   </si>
   <si>
@@ -881,7 +890,7 @@
     <t>38:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 8:52 PM</t>
+    <t>Thursday, 5 June, 2025 8:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1737,7 +1746,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1763,14 +1772,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1779,14 +1788,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1796,11 +1805,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>18</v>
@@ -1812,14 +1821,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1829,14 +1838,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1845,14 +1854,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1862,14 +1871,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1878,14 +1887,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1895,11 +1904,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>26</v>
@@ -1911,14 +1920,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1928,7 +1937,7 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
@@ -1951,7 +1960,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1961,11 +1970,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>26</v>
@@ -1977,14 +1986,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1994,11 +2003,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>26</v>
@@ -2010,14 +2019,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2027,7 +2036,7 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
@@ -2050,7 +2059,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2060,7 +2069,7 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -2083,7 +2092,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2093,14 +2102,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2109,14 +2118,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2126,14 +2135,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2142,14 +2151,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2159,14 +2168,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2175,14 +2184,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2192,14 +2201,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2208,14 +2217,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2225,11 +2234,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>18</v>
@@ -2241,7 +2250,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2258,14 +2267,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2274,14 +2283,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2291,14 +2300,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2307,14 +2316,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2328,10 +2337,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2340,14 +2349,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2357,14 +2366,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2394,7 +2403,7 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>26</v>
@@ -2406,14 +2415,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2423,11 +2432,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>26</v>
@@ -2439,14 +2448,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2456,11 +2465,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>26</v>
@@ -2472,14 +2481,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2489,14 +2498,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2505,7 +2514,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2522,14 +2531,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2538,7 +2547,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2555,11 +2564,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>26</v>
@@ -2571,14 +2580,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2588,11 +2597,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>26</v>
@@ -2604,14 +2613,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2621,11 +2630,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>26</v>
@@ -2637,14 +2646,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2654,14 +2663,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2670,14 +2679,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2687,11 +2696,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>18</v>
@@ -2710,7 +2719,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2720,14 +2729,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>130</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2736,14 +2745,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2753,14 +2762,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>26</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2769,14 +2778,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2786,14 +2795,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2802,14 +2811,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2819,14 +2828,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2835,14 +2844,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2852,14 +2861,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2868,14 +2877,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2892,7 +2901,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2941,7 +2950,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2974,7 +2983,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3007,7 +3016,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3017,14 +3026,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3033,14 +3042,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3050,7 +3059,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -3073,21 +3082,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>26</v>
@@ -3099,28 +3108,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>26</v>
@@ -3132,14 +3141,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3149,14 +3158,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3165,14 +3174,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3182,14 +3191,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3198,14 +3207,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3215,14 +3224,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3238,7 +3247,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3255,7 +3264,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3271,7 +3280,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3288,7 +3297,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3304,24 +3313,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>97</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3337,17 +3346,17 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3370,7 +3379,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3380,14 +3389,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>105</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3396,14 +3405,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3413,14 +3422,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3436,7 +3445,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3446,14 +3455,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3475,7 +3484,7 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3502,24 +3511,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>199</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3528,14 +3537,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3545,14 +3554,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>61</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>26</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3561,14 +3570,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3578,14 +3587,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>35</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3594,14 +3603,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3611,14 +3620,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3627,14 +3636,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3644,14 +3653,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3660,7 +3669,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3677,14 +3686,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3693,14 +3702,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3710,11 +3719,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>26</v>
@@ -3726,14 +3735,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3743,11 +3752,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>26</v>
@@ -3759,14 +3768,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3776,14 +3785,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3792,14 +3801,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>222</v>
+        <v>143</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3832,7 +3841,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3842,14 +3851,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3858,14 +3867,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3875,14 +3884,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3891,14 +3900,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3908,14 +3917,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>49</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3931,7 +3940,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>236</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3941,14 +3950,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3957,14 +3966,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3974,11 +3983,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -3990,14 +3999,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4007,11 +4016,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>47</v>
+        <v>243</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>48</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -4023,28 +4032,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>243</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>49</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -4056,28 +4065,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>162</v>
+        <v>248</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -4089,28 +4098,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>165</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>115</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4122,31 +4131,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>42</v>
+        <v>250</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>137</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>136</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4155,31 +4164,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>252</v>
+        <v>34</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>140</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>115</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4188,28 +4197,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>256</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>234</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4221,7 +4230,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4234,18 +4243,18 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>71</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>246</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4254,7 +4263,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4267,18 +4276,18 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>42</v>
+        <v>226</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4287,20 +4296,20 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>260</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4308,10 +4317,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4320,20 +4329,20 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>136</v>
+        <v>263</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
@@ -4360,21 +4369,21 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>267</v>
+        <v>139</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4386,28 +4395,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4419,28 +4428,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4465,15 +4474,15 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>157</v>
+        <v>276</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>158</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4485,28 +4494,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>277</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>160</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4518,28 +4527,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>22</v>
+        <v>280</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4558,21 +4567,21 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>277</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>115</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>18</v>
@@ -4584,28 +4593,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>42</v>
+        <v>280</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4617,28 +4626,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4657,24 +4666,24 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>287</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>136</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4683,66 +4692,99 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>137</v>
+        <v>248</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>100</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q103" s="12">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>291</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>292</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>169</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>140</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q104" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>4673.5600000000004</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
-        <v>290</v>
-      </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
-        <v>291</v>
-      </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
-        <v>292</v>
-      </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>4727.7200000000003</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>293</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>294</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>295</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5236,10 +5278,15 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -536,6 +536,12 @@
     <t>19.8000</t>
   </si>
   <si>
+    <t>NEURONTIN 300MG 20 CAPS</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
   </si>
   <si>
@@ -830,6 +836,12 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>فازلين بيور كبير</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>فرشاة اطفال ريتش ديلي</t>
   </si>
   <si>
@@ -863,9 +875,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>كريم فيبكس الازرق</t>
+  </si>
+  <si>
     <t>كريم فيرند لافلي الصغير</t>
   </si>
   <si>
+    <t>كريم فيرند لافلي الكبير</t>
+  </si>
+  <si>
     <t>ليفه اطفال اشكال</t>
   </si>
   <si>
@@ -890,7 +908,7 @@
     <t>38:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 8:53 PM</t>
+    <t>Thursday, 5 June, 2025 8:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3257,14 +3275,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>99</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3273,14 +3291,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3290,14 +3308,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3306,14 +3324,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3323,14 +3341,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3339,31 +3357,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3372,28 +3390,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>99</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>26</v>
@@ -3405,14 +3423,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3422,14 +3440,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3445,7 +3463,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3455,14 +3473,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3471,14 +3489,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3488,14 +3506,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3504,7 +3522,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3517,15 +3535,15 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3537,31 +3555,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>120</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>203</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3570,14 +3588,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3587,14 +3605,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>63</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>26</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3603,7 +3621,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3620,14 +3638,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>35</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3636,14 +3654,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3653,14 +3671,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3669,14 +3687,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3686,14 +3704,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3702,7 +3720,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3719,14 +3737,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3735,14 +3753,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3752,11 +3770,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>26</v>
@@ -3768,14 +3786,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3785,7 +3803,7 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3808,7 +3826,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3818,14 +3836,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3834,14 +3852,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>226</v>
+        <v>143</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3851,11 +3869,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3867,14 +3885,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3884,14 +3902,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3900,14 +3918,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3917,14 +3935,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>49</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3933,14 +3951,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3950,14 +3968,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>49</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3966,14 +3984,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>238</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3983,14 +4001,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3999,14 +4017,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4016,11 +4034,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -4032,14 +4050,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4049,11 +4067,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>49</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>50</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -4065,28 +4083,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>248</v>
+        <v>49</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -4098,14 +4116,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4115,11 +4133,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>165</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4131,14 +4149,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4148,11 +4166,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>165</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>117</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4164,14 +4182,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>34</v>
+        <v>252</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4181,14 +4199,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>139</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4204,7 +4222,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>256</v>
+        <v>34</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4214,14 +4232,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>140</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>117</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4237,7 +4255,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>258</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4247,11 +4265,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>238</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4280,14 +4298,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>145</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>226</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4296,7 +4314,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4313,14 +4331,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>228</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4336,7 +4354,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>263</v>
+        <v>22</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4346,14 +4364,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4362,14 +4380,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>139</v>
+        <v>265</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4379,11 +4397,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4395,14 +4413,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>270</v>
+        <v>139</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4412,11 +4430,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4428,14 +4446,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4445,11 +4463,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4468,7 +4486,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4478,11 +4496,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>276</v>
+        <v>116</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4494,14 +4512,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>278</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4511,11 +4529,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>160</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>161</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4534,7 +4552,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>280</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4544,11 +4562,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4560,14 +4578,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4577,11 +4595,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>282</v>
+        <v>160</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>283</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>18</v>
@@ -4593,14 +4611,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4610,11 +4628,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>117</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4633,7 +4651,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4643,11 +4661,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>117</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4659,14 +4677,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4676,11 +4694,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>140</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4699,7 +4717,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4709,14 +4727,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>251</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>139</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4725,14 +4743,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>292</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4753,38 +4771,170 @@
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>4727.7200000000003</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>291</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>34</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>169</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>250</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>292</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>22</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>169</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
         <v>293</v>
       </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
         <v>294</v>
       </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
+      <c t="s" r="Q106" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
         <v>295</v>
       </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>296</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>169</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>250</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>297</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>298</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>169</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>140</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>4891.7200000000003</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>299</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>300</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>301</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5283,10 +5433,30 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -356,6 +356,15 @@
     <t>127.3800</t>
   </si>
   <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>E-MOX 500MG 16 CAPS</t>
   </si>
   <si>
@@ -425,6 +434,15 @@
     <t>11.7600</t>
   </si>
   <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
@@ -482,12 +500,6 @@
     <t>IVERZINE 1% LOTION 60 ML</t>
   </si>
   <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
@@ -506,24 +518,27 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
+    <t>4:4</t>
+  </si>
+  <si>
     <t>60.00</t>
   </si>
   <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:21</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
     <t>12.0000</t>
   </si>
   <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>0:21</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -695,150 +710,168 @@
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>-14.4000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8696:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>ZESTRIL 20MG 10 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>ZYRTEC 0.1% SYRUP 100ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>بيروسول 300 مل</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>حنه فاتيكا اسود 1 كيس</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زبدة كاكاو لونا </t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>سلاكه ازن خشب صغيره</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>شامبو كلير 1 كيس</t>
+  </si>
+  <si>
+    <t>119:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>2.5000</t>
+  </si>
+  <si>
+    <t>شمع حريمي</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فازلين بيور صغير </t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>فازلين بيور كبير</t>
+  </si>
+  <si>
     <t>11:0</t>
   </si>
   <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>-14.4000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8696:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>ZESTRIL 20MG 10 TAB</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>ZYRTEC 0.1% SYRUP 100ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>بيروسول 300 مل</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>حلاوة حرير</t>
-  </si>
-  <si>
-    <t>حنه فاتيكا اسود 1 كيس</t>
-  </si>
-  <si>
-    <t>105.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">زبدة كاكاو لونا </t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>شامبو كلير 1 كيس</t>
-  </si>
-  <si>
-    <t>119:0</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>2.5000</t>
-  </si>
-  <si>
-    <t>شمع حريمي</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فازلين بيور صغير </t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>فازلين بيور كبير</t>
-  </si>
-  <si>
     <t>40.0000</t>
   </si>
   <si>
@@ -899,16 +932,13 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>10:0</t>
-  </si>
-  <si>
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
     <t>38:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 8:58 PM</t>
+    <t>Thursday, 5 June, 2025 9:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2605,7 +2635,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2622,7 +2652,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2638,7 +2668,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2648,11 +2678,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>26</v>
@@ -2664,14 +2694,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2704,7 +2734,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2714,14 +2744,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2730,14 +2760,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2747,11 +2777,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>18</v>
@@ -2770,7 +2800,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2780,14 +2810,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>133</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2796,14 +2826,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2813,14 +2843,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>48</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2829,14 +2859,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2846,14 +2876,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2862,14 +2892,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2879,14 +2909,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2895,14 +2925,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2912,14 +2942,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2928,14 +2958,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2945,11 +2975,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -2961,14 +2991,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2985,7 +3015,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3001,7 +3031,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3034,7 +3064,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3067,7 +3097,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3077,14 +3107,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3093,14 +3123,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3110,14 +3140,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3126,28 +3156,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>56</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>26</v>
@@ -3159,14 +3189,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3176,14 +3206,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3192,31 +3222,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3225,14 +3255,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3242,11 +3272,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>165</v>
+        <v>53</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>26</v>
@@ -3258,14 +3288,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3275,14 +3305,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3291,14 +3321,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3308,14 +3338,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3331,7 +3361,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3341,14 +3371,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3357,14 +3387,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3374,14 +3404,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3390,31 +3420,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>38</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>99</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3423,7 +3453,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3440,14 +3470,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3456,31 +3486,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3496,7 +3526,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3506,7 +3536,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3529,7 +3559,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3539,11 +3569,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3555,31 +3585,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3588,14 +3618,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3605,14 +3635,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>120</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>205</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3621,31 +3651,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>35</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>63</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3654,14 +3684,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3671,14 +3701,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>123</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3687,14 +3717,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3704,11 +3734,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>35</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>26</v>
@@ -3720,14 +3750,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3737,11 +3767,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3753,14 +3783,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3770,11 +3800,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>26</v>
@@ -3786,14 +3816,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3803,14 +3833,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3819,14 +3849,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3836,7 +3866,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3859,7 +3889,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>143</v>
+        <v>56</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3876,7 +3906,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3892,7 +3922,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>228</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3902,14 +3932,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3918,14 +3948,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>205</v>
+        <v>149</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3935,14 +3965,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3951,14 +3981,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3968,14 +3998,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>49</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3984,14 +4014,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>238</v>
+        <v>149</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4001,14 +4031,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4017,14 +4047,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4034,14 +4064,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4050,14 +4080,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>147</v>
+        <v>242</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4067,14 +4097,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>49</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4083,14 +4113,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>245</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4100,14 +4130,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>50</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4123,21 +4153,21 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>249</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>117</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4156,17 +4186,17 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>252</v>
+        <v>153</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>165</v>
+        <v>252</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4189,21 +4219,21 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>49</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4222,24 +4252,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>34</v>
+        <v>256</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>140</v>
+        <v>257</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>139</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4248,28 +4278,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>117</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4281,28 +4311,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>22</v>
+        <v>259</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4314,31 +4344,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>239</v>
+        <v>146</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
+        <v>263</v>
+      </c>
+      <c t="s" r="Q91" s="12">
         <v>145</v>
-      </c>
-      <c t="s" r="Q91" s="12">
-        <v>228</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4347,31 +4377,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>22</v>
+        <v>265</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4380,28 +4410,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>265</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4420,24 +4450,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>269</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4446,31 +4476,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4479,28 +4509,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>228</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>116</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4512,28 +4542,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4545,28 +4575,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4578,28 +4608,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>282</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>160</v>
+        <v>283</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>161</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>18</v>
@@ -4611,28 +4641,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>119</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4644,28 +4674,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>22</v>
+        <v>289</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4677,28 +4707,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>140</v>
+        <v>291</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>102</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4710,28 +4740,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>284</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>250</v>
+        <v>164</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4743,28 +4773,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>22</v>
+        <v>295</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>140</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>102</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4776,28 +4806,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>117</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -4809,28 +4839,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>293</v>
+        <v>146</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -4842,31 +4872,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>253</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>139</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4875,24 +4905,24 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>298</v>
+        <v>22</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
@@ -4903,38 +4933,170 @@
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>4891.7200000000003</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>299</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
-        <v>300</v>
-      </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
-        <v>301</v>
-      </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>302</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>34</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>173</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>257</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>303</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>22</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>173</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>304</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>305</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>306</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>233</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>173</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>257</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>307</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>308</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>173</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>146</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>5088.7200000000003</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
+        <v>309</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>310</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>311</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5453,10 +5615,30 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -794,6 +794,15 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>جل هيركود 100 مل يرطمان</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>حلاوة حرير</t>
   </si>
   <si>
@@ -809,6 +818,9 @@
     <t>15:0</t>
   </si>
   <si>
+    <t>زيت فاتيكا كبير 180 مل</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -923,12 +935,6 @@
     <t>ماسك صنفره هاي لايف</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
@@ -938,7 +944,7 @@
     <t>38:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 9:02 PM</t>
+    <t>Thursday, 5 June, 2025 9:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4318,7 +4324,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>259</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4328,11 +4334,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>120</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4344,14 +4350,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>34</v>
+        <v>259</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4361,14 +4367,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>146</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>145</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4377,14 +4383,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>265</v>
+        <v>34</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4394,14 +4400,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>146</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>120</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>145</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4410,14 +4416,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>268</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4427,11 +4433,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>247</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4443,14 +4449,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4460,14 +4466,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>246</v>
+        <v>164</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>269</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4497,10 +4503,10 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>175</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4526,14 +4532,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>175</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>273</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4549,7 +4555,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4559,14 +4565,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4575,14 +4581,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4592,11 +4598,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4608,14 +4614,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4625,11 +4631,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>18</v>
@@ -4641,14 +4647,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>286</v>
+        <v>145</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4658,11 +4664,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>119</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4674,14 +4680,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4691,11 +4697,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4707,14 +4713,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4724,11 +4730,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>291</v>
+        <v>119</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4740,14 +4746,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>293</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4757,11 +4763,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>164</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>165</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4780,7 +4786,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>295</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4790,11 +4796,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4806,14 +4812,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4823,14 +4829,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>297</v>
+        <v>164</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>298</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4839,14 +4845,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>34</v>
+        <v>299</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4856,11 +4862,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>146</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>102</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -4879,7 +4885,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>295</v>
+        <v>22</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4889,11 +4895,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>120</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>18</v>
@@ -4905,14 +4911,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4938,14 +4944,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>34</v>
+        <v>299</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4971,7 +4977,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -4988,11 +4994,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>304</v>
+        <v>146</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>305</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>18</v>
@@ -5011,7 +5017,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>233</v>
+        <v>34</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5025,10 +5031,10 @@
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>145</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5044,7 +5050,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>308</v>
+        <v>22</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5054,49 +5060,115 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>146</v>
+        <v>262</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
+        <v>263</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>308</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>233</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>173</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>257</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>309</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>310</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>173</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>146</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
         <v>102</v>
       </c>
-      <c t="s" r="Q112" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>5088.7200000000003</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
-        <v>309</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
-        <v>310</v>
-      </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
+      <c t="s" r="Q114" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>5248.7200000000003</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
         <v>311</v>
       </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>312</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>313</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5635,10 +5707,20 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -737,10 +737,7 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>33.6600</t>
+    <t>50.4900</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -803,6 +800,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>حلاوة حرير</t>
   </si>
   <si>
@@ -830,15 +836,12 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>12:0</t>
+    <t>13:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>سلاكه ازن خشب صغيره</t>
   </si>
   <si>
@@ -869,9 +872,6 @@
     <t xml:space="preserve">فازلين بيور صغير </t>
   </si>
   <si>
-    <t>13:0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
@@ -944,7 +944,7 @@
     <t>38:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 9:09 PM</t>
+    <t>Thursday, 5 June, 2025 9:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4093,7 +4093,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>242</v>
+        <v>93</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4107,10 +4107,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4119,14 +4119,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4136,11 +4136,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>34</v>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4169,11 +4169,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4202,11 +4202,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4218,7 +4218,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4251,14 +4251,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
@@ -4284,14 +4284,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4334,11 +4334,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4350,14 +4350,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>259</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4367,14 +4367,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>120</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4383,14 +4383,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>34</v>
+        <v>258</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4400,14 +4400,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>146</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>145</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4423,7 +4423,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>268</v>
+        <v>34</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4433,14 +4433,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>257</v>
+        <v>146</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>120</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>145</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4456,7 +4456,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4466,14 +4466,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>164</v>
+        <v>256</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4482,14 +4482,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4499,14 +4499,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>164</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>247</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4532,14 +4532,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>54</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>273</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4565,14 +4565,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>175</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4598,14 +4598,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4614,14 +4614,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>279</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4631,11 +4631,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>18</v>
@@ -4647,14 +4647,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>145</v>
+        <v>280</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4664,11 +4664,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4680,14 +4680,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>286</v>
+        <v>145</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4697,11 +4697,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4713,14 +4713,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4730,11 +4730,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>119</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4746,14 +4746,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4763,11 +4763,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>287</v>
+        <v>119</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4779,14 +4779,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>293</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4796,11 +4796,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4812,14 +4812,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4829,14 +4829,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>164</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>108</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4845,14 +4845,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>299</v>
+        <v>145</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4862,14 +4862,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>164</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4878,14 +4878,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>22</v>
+        <v>299</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4895,11 +4895,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>18</v>
@@ -4911,14 +4911,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4928,11 +4928,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>146</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>102</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>18</v>
@@ -4944,14 +4944,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>299</v>
+        <v>34</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4961,11 +4961,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>257</v>
+        <v>146</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>18</v>
@@ -4977,14 +4977,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>22</v>
+        <v>299</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4994,11 +4994,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>146</v>
+        <v>256</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>18</v>
@@ -5010,14 +5010,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5027,11 +5027,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>257</v>
+        <v>146</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>18</v>
@@ -5043,14 +5043,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5060,11 +5060,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>263</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>18</v>
@@ -5076,14 +5076,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>233</v>
+        <v>22</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5093,14 +5093,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>145</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5109,14 +5109,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>310</v>
+        <v>233</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5126,49 +5126,82 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>146</v>
+        <v>256</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
+        <v>259</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>309</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>310</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>173</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>146</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
         <v>102</v>
       </c>
-      <c t="s" r="Q114" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>5248.7200000000003</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
+      <c t="s" r="Q115" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>5273.5500000000002</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
         <v>311</v>
       </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
         <v>312</v>
       </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
         <v>313</v>
       </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5717,10 +5750,15 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -113,39 +113,42 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>24.9600</t>
+  </si>
+  <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>AUGMENTIN ES-600 PD. FOR ORAL SUSP. 75 ML</t>
+  </si>
+  <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>12.4800</t>
-  </si>
-  <si>
-    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>51.4800</t>
-  </si>
-  <si>
-    <t>AUGMENTIN ES-600 PD. FOR ORAL SUSP. 75 ML</t>
-  </si>
-  <si>
     <t>169.00</t>
   </si>
   <si>
@@ -227,6 +230,18 @@
     <t>49.5000</t>
   </si>
   <si>
+    <t xml:space="preserve">CERVETOLKA-CO  SYRUP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
@@ -530,9 +545,6 @@
     <t>0:21</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>300.00</t>
   </si>
   <si>
@@ -575,6 +587,15 @@
     <t>-76.0000</t>
   </si>
   <si>
+    <t>NORFLEX 100MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
     <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
   </si>
   <si>
@@ -836,42 +857,45 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>سلاكه ازن خشب صغيره</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>شامبو كلير 1 كيس</t>
+  </si>
+  <si>
+    <t>119:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>2.5000</t>
+  </si>
+  <si>
+    <t>شمع حريمي</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فازلين بيور صغير </t>
+  </si>
+  <si>
     <t>13:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>سلاكه ازن خشب صغيره</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>شامبو كلير 1 كيس</t>
-  </si>
-  <si>
-    <t>119:0</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>2.5000</t>
-  </si>
-  <si>
-    <t>شمع حريمي</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فازلين بيور صغير </t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
@@ -944,7 +968,7 @@
     <t>38:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 9:29 PM</t>
+    <t>Thursday, 5 June, 2025 9:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1767,7 +1791,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1849,7 +1873,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1859,11 +1883,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>18</v>
@@ -1875,14 +1899,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1892,11 +1916,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>18</v>
@@ -1908,14 +1932,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1925,14 +1949,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1941,14 +1965,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1958,11 +1982,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>26</v>
@@ -1974,7 +1998,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1991,11 +2015,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>26</v>
@@ -2007,14 +2031,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2028,7 +2052,7 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>26</v>
@@ -2040,14 +2064,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2057,11 +2081,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>26</v>
@@ -2073,7 +2097,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2090,11 +2114,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>26</v>
@@ -2106,7 +2130,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2123,11 +2147,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>26</v>
@@ -2139,31 +2163,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2172,14 +2196,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2189,14 +2213,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2205,14 +2229,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2222,14 +2246,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2238,14 +2262,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2255,14 +2279,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2271,14 +2295,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2288,14 +2312,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2304,14 +2328,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2321,11 +2345,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>18</v>
@@ -2337,7 +2361,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2354,14 +2378,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2370,14 +2394,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2387,14 +2411,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2403,14 +2427,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2424,10 +2448,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>97</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2436,14 +2460,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2453,14 +2477,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2469,14 +2493,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2486,11 +2510,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>26</v>
@@ -2502,14 +2526,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2519,11 +2543,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>26</v>
@@ -2535,14 +2559,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2552,11 +2576,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>26</v>
@@ -2568,14 +2592,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2585,14 +2609,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2601,7 +2625,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2618,14 +2642,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2634,14 +2658,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2651,14 +2675,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2667,14 +2691,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2684,14 +2708,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2700,14 +2724,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2717,11 +2741,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>26</v>
@@ -2733,14 +2757,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2750,11 +2774,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>26</v>
@@ -2766,14 +2790,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2783,14 +2807,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2799,14 +2823,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2816,11 +2840,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
@@ -2832,14 +2856,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2849,14 +2873,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>136</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2865,14 +2889,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2882,14 +2906,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>48</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2898,14 +2922,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2915,14 +2939,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2931,14 +2955,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2948,14 +2972,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2964,14 +2988,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2981,14 +3005,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2997,14 +3021,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3014,14 +3038,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3030,14 +3054,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3047,14 +3071,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3063,7 +3087,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3080,11 +3104,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
@@ -3096,14 +3120,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3113,11 +3137,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>18</v>
@@ -3129,14 +3153,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3146,11 +3170,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -3162,14 +3186,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3179,14 +3203,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3195,14 +3219,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>57</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3212,14 +3236,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3228,31 +3252,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3268,21 +3292,21 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>38</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>53</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>105</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>26</v>
@@ -3294,14 +3318,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3311,14 +3335,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3327,14 +3351,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3344,14 +3368,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3360,14 +3384,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3377,11 +3401,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>99</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>26</v>
@@ -3393,7 +3417,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3410,14 +3434,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3426,14 +3450,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3443,14 +3467,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3459,14 +3483,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3476,14 +3500,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3492,28 +3516,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>26</v>
@@ -3525,7 +3549,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3542,14 +3566,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3558,31 +3582,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3591,14 +3615,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3608,11 +3632,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>26</v>
@@ -3624,14 +3648,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3641,11 +3665,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>112</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3657,31 +3681,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3690,14 +3714,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3707,14 +3731,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>123</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>210</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3723,31 +3747,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>63</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3756,14 +3780,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3773,14 +3797,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3789,14 +3813,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3806,11 +3830,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>35</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>26</v>
@@ -3822,14 +3846,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3839,11 +3863,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3855,14 +3879,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3872,11 +3896,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>26</v>
@@ -3888,14 +3912,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3905,14 +3929,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3921,14 +3945,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3938,11 +3962,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>26</v>
@@ -3954,14 +3978,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3971,14 +3995,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3987,14 +4011,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4004,14 +4028,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4020,14 +4044,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4037,11 +4061,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -4053,14 +4077,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4070,14 +4094,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4086,14 +4110,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4103,14 +4127,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>49</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4119,14 +4143,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4136,14 +4160,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4152,14 +4176,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4169,14 +4193,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>248</v>
+        <v>50</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4192,7 +4216,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>153</v>
+        <v>251</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4202,14 +4226,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4218,7 +4242,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4235,11 +4259,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>49</v>
+        <v>255</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>50</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4251,28 +4275,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>255</v>
+        <v>158</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>120</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4284,28 +4308,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>259</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4317,28 +4341,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>262</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>262</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4350,31 +4374,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>265</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>264</v>
+        <v>175</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4383,28 +4407,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>258</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>120</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4416,31 +4440,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>146</v>
+        <v>271</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>145</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4449,28 +4473,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4482,31 +4506,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>108</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>34</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4515,28 +4539,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>246</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4548,31 +4572,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>245</v>
+        <v>169</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>237</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>275</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4581,7 +4605,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4594,18 +4618,18 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>175</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4614,7 +4638,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4627,18 +4651,18 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>175</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>262</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4647,31 +4671,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>280</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4680,28 +4704,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4720,21 +4744,21 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4746,28 +4770,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>119</v>
+        <v>291</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4779,28 +4803,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4812,28 +4836,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>298</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>124</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -4845,31 +4869,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>145</v>
+        <v>301</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>164</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>108</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4878,28 +4902,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>299</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>18</v>
@@ -4911,31 +4935,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>301</v>
+        <v>169</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>302</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4944,28 +4968,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>34</v>
+        <v>307</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>146</v>
+        <v>303</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>102</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>18</v>
@@ -4977,28 +5001,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>299</v>
+        <v>22</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>256</v>
+        <v>309</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>120</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>18</v>
@@ -5010,28 +5034,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>18</v>
@@ -5043,28 +5067,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>34</v>
+        <v>307</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>18</v>
@@ -5076,7 +5100,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5089,15 +5113,15 @@
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>261</v>
+        <v>151</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>262</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>18</v>
@@ -5109,31 +5133,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>233</v>
+        <v>45</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>259</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>145</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5142,66 +5166,132 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>310</v>
+        <v>22</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>146</v>
+        <v>268</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>102</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>5273.5500000000002</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>311</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
-        <v>312</v>
-      </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
-        <v>313</v>
-      </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>316</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>240</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>74</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>263</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>266</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>317</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>318</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>74</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>151</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="P118" s="13">
+        <v>5417.0299999999997</v>
+      </c>
+      <c r="Q118" s="13"/>
+    </row>
+    <row r="119" ht="16.5" customHeight="1">
+      <c t="s" r="A119" s="14">
+        <v>319</v>
+      </c>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c t="s" r="G119" s="15">
+        <v>320</v>
+      </c>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c t="s" r="K119" s="17">
+        <v>321</v>
+      </c>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="567">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5755,10 +5845,20 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="K119:Q119"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -392,13 +392,13 @@
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
-    <t>4:3</t>
+    <t>4:1</t>
   </si>
   <si>
     <t>144.00</t>
   </si>
   <si>
-    <t>11.5200</t>
+    <t>34.5600</t>
   </si>
   <si>
     <t>EXARETIC 20 MG 30 TAB.</t>
@@ -440,13 +440,16 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>8:1</t>
+    <t>8:0</t>
   </si>
   <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>11.7600</t>
+    <t>15.6000</t>
+  </si>
+  <si>
+    <t>0:4</t>
   </si>
   <si>
     <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
@@ -662,9 +665,6 @@
     <t>47.5200</t>
   </si>
   <si>
-    <t>0:4</t>
-  </si>
-  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -758,7 +758,7 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>50.4900</t>
+    <t>7:1</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -968,7 +968,7 @@
     <t>38:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 9:37 PM</t>
+    <t>Thursday, 5 June, 2025 9:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2781,7 +2781,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2946,7 +2946,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>49</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2972,11 +2972,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>26</v>
@@ -2988,14 +2988,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3005,11 +3005,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>45</v>
@@ -3021,14 +3021,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3038,11 +3038,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>18</v>
@@ -3054,14 +3054,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3071,11 +3071,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>22</v>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3104,11 +3104,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3137,11 +3137,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>18</v>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3203,11 +3203,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3236,11 +3236,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>26</v>
@@ -3252,14 +3252,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3269,7 +3269,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3285,14 +3285,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3302,11 +3302,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>26</v>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>18</v>
@@ -3384,7 +3384,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3401,11 +3401,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>26</v>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>26</v>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3467,11 +3467,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3483,7 +3483,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3500,11 +3500,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3533,11 +3533,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>26</v>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3566,11 +3566,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>45</v>
@@ -3582,14 +3582,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3603,7 +3603,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>26</v>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3632,11 +3632,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>26</v>
@@ -3648,7 +3648,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3681,14 +3681,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3698,11 +3698,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>26</v>
@@ -3714,7 +3714,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3731,11 +3731,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3764,11 +3764,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3801,10 +3801,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>217</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3820,7 +3820,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3853,7 +3853,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -4051,7 +4051,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4117,7 +4117,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4150,7 +4150,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>217</v>
+        <v>146</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4183,7 +4183,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>98</v>
+        <v>249</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4197,10 +4197,10 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4282,7 +4282,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4523,14 +4523,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>275</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4589,7 +4589,7 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4777,7 +4777,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4942,7 +4942,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
@@ -5051,7 +5051,7 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
@@ -5223,7 +5223,7 @@
         <v>266</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
@@ -5261,7 +5261,7 @@
     </row>
     <row r="118" ht="24.75" customHeight="1">
       <c r="P118" s="13">
-        <v>5417.0299999999997</v>
+        <v>5460.7399999999998</v>
       </c>
       <c r="Q118" s="13"/>
     </row>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -191,6 +191,15 @@
     <t>63.3600</t>
   </si>
   <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
   </si>
   <si>
@@ -491,9 +500,6 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>54.00</t>
-  </si>
-  <si>
     <t>0.0000</t>
   </si>
   <si>
@@ -612,9 +618,6 @@
   </si>
   <si>
     <t>3:3</t>
-  </si>
-  <si>
-    <t>27.0000</t>
   </si>
   <si>
     <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
@@ -2005,7 +2008,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2038,7 +2041,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2048,11 +2051,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>26</v>
@@ -2064,14 +2067,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2081,7 +2084,7 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
@@ -2104,7 +2107,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2137,7 +2140,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2147,11 +2150,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>26</v>
@@ -2163,31 +2166,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2196,31 +2199,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2229,14 +2232,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2246,14 +2249,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2269,7 +2272,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2286,7 +2289,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2302,7 +2305,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2319,7 +2322,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2335,7 +2338,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2352,7 +2355,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2368,7 +2371,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2418,7 +2421,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2434,7 +2437,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2444,14 +2447,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2467,7 +2470,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2481,10 +2484,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>102</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2500,7 +2503,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2510,14 +2513,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2526,14 +2529,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2543,11 +2546,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>26</v>
@@ -2566,7 +2569,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2576,7 +2579,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2599,7 +2602,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2609,7 +2612,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2632,7 +2635,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2649,7 +2652,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2682,7 +2685,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2698,7 +2701,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2715,7 +2718,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2731,7 +2734,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2748,7 +2751,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2764,7 +2767,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2774,14 +2777,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2790,14 +2793,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2814,7 +2817,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2830,7 +2833,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2840,14 +2843,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2856,14 +2859,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2873,11 +2876,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>18</v>
@@ -2896,7 +2899,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2906,14 +2909,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>141</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2922,14 +2925,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2939,14 +2942,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2955,14 +2958,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2972,14 +2975,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>149</v>
-      </c>
-      <c t="s" r="Q48" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2995,7 +2998,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3005,14 +3008,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3021,14 +3024,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3038,14 +3041,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3054,14 +3057,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3071,14 +3074,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3087,14 +3090,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3104,14 +3107,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>61</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3120,7 +3123,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3137,11 +3140,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>18</v>
@@ -3153,14 +3156,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3170,11 +3173,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -3186,14 +3189,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3203,11 +3206,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -3219,14 +3222,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3236,14 +3239,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3259,7 +3262,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3269,14 +3272,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3285,31 +3288,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3318,28 +3321,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>54</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>110</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>26</v>
@@ -3351,14 +3354,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3368,14 +3371,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3384,14 +3387,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3401,14 +3404,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3424,7 +3427,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3434,7 +3437,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>104</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3467,14 +3470,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3483,14 +3486,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3500,14 +3503,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3516,14 +3519,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3533,14 +3536,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3549,7 +3552,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3566,14 +3569,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3582,31 +3585,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>200</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>104</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3615,28 +3618,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>107</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>26</v>
@@ -3648,14 +3651,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3665,14 +3668,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3681,14 +3684,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>208</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3698,14 +3701,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3714,14 +3717,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3731,14 +3734,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3747,7 +3750,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3760,15 +3763,15 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3780,31 +3783,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>128</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>146</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3813,14 +3816,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>151</v>
+        <v>53</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3830,14 +3833,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>64</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>26</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3853,7 +3856,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3863,14 +3866,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>35</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3879,14 +3882,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3896,14 +3899,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3912,14 +3915,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3929,14 +3932,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3945,7 +3948,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3962,14 +3965,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3978,14 +3981,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3995,11 +3998,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>26</v>
@@ -4011,14 +4014,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4028,11 +4031,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>26</v>
@@ -4044,14 +4047,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4061,14 +4064,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4077,14 +4080,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>240</v>
+        <v>158</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4094,14 +4097,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>137</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4110,14 +4113,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>155</v>
+        <v>241</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4127,14 +4130,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4143,14 +4146,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4160,14 +4163,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4176,14 +4179,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>249</v>
+        <v>149</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4193,14 +4196,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>50</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>28</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4209,14 +4212,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4226,14 +4229,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>252</v>
+        <v>50</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>253</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4242,14 +4245,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>252</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4259,14 +4262,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4275,14 +4278,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4292,11 +4295,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4308,14 +4311,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4325,11 +4328,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>50</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>51</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4348,21 +4351,21 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>262</v>
+        <v>22</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>263</v>
+        <v>50</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4374,28 +4377,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>176</v>
+        <v>264</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>266</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4407,28 +4410,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>266</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>268</v>
+        <v>178</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4440,31 +4443,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4473,31 +4476,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>265</v>
+        <v>22</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>125</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4513,24 +4516,24 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>275</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>151</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4539,31 +4542,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>277</v>
+        <v>45</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>263</v>
+        <v>155</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>125</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4572,31 +4575,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>278</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>170</v>
+        <v>264</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4612,24 +4615,24 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>280</v>
+        <v>172</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>253</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4638,7 +4641,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4651,18 +4654,18 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>262</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4671,7 +4674,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4684,18 +4687,18 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>180</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>263</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4717,18 +4720,18 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4737,28 +4740,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>287</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4770,28 +4773,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>151</v>
+        <v>288</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4803,28 +4806,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>294</v>
+        <v>154</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4836,28 +4839,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>124</v>
+        <v>296</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -4869,28 +4872,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>127</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -4902,28 +4905,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>302</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>18</v>
@@ -4935,31 +4938,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>170</v>
+        <v>304</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>113</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4975,24 +4978,24 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>307</v>
+        <v>154</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>303</v>
+        <v>172</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>304</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5001,28 +5004,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>22</v>
+        <v>308</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>18</v>
@@ -5034,28 +5037,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>152</v>
+        <v>310</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>107</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>18</v>
@@ -5074,21 +5077,21 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>307</v>
+        <v>45</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>263</v>
+        <v>155</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>18</v>
@@ -5107,21 +5110,21 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>22</v>
+        <v>308</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>18</v>
@@ -5140,21 +5143,21 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>263</v>
+        <v>155</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>18</v>
@@ -5173,21 +5176,21 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>269</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
@@ -5206,24 +5209,24 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>240</v>
+        <v>22</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>151</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5239,59 +5242,92 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>318</v>
+        <v>241</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>107</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>18</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
-      <c r="P118" s="13">
-        <v>5460.7399999999998</v>
-      </c>
-      <c r="Q118" s="13"/>
-    </row>
-    <row r="119" ht="16.5" customHeight="1">
-      <c t="s" r="A119" s="14">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>318</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
         <v>319</v>
       </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c t="s" r="G119" s="15">
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>77</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>155</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>5487.7399999999998</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
         <v>320</v>
       </c>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="16"/>
-      <c t="s" r="K119" s="17">
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
         <v>321</v>
       </c>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>322</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="567">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5855,10 +5891,15 @@
     <mergeCell ref="H117:K117"/>
     <mergeCell ref="L117:M117"/>
     <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="K119:Q119"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -344,6 +344,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>DIOSED-C 20 TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -428,12 +437,6 @@
     <t>FAKTU OINT. 30 GM</t>
   </si>
   <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -539,6 +542,15 @@
     <t>14.8500</t>
   </si>
   <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -737,9 +749,6 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>38.00</t>
-  </si>
-  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -971,7 +980,7 @@
     <t>38:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 9:43 PM</t>
+    <t>Thursday, 5 June, 2025 9:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2602,7 +2611,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2612,14 +2621,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2635,7 +2644,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2645,7 +2654,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2668,7 +2677,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2685,7 +2694,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2718,7 +2727,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2734,7 +2743,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2751,7 +2760,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2767,7 +2776,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2784,7 +2793,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2800,7 +2809,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2810,14 +2819,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2826,14 +2835,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2850,7 +2859,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2866,7 +2875,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2876,14 +2885,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2892,14 +2901,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2909,11 +2918,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2932,7 +2941,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2942,14 +2951,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>144</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2958,14 +2967,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2975,14 +2984,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2991,14 +3000,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3008,14 +3017,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3024,14 +3033,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3041,14 +3050,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3057,14 +3066,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3074,14 +3083,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3090,14 +3099,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3107,14 +3116,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3123,14 +3132,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3140,14 +3149,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3156,7 +3165,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3173,11 +3182,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -3189,14 +3198,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3206,11 +3215,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>124</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -3229,7 +3238,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3239,11 +3248,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -3255,14 +3264,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3272,14 +3281,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3288,14 +3297,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>57</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3305,14 +3314,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3321,28 +3330,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>180</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>26</v>
@@ -3354,14 +3363,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3371,14 +3380,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>54</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3387,31 +3396,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3420,14 +3429,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3437,11 +3446,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>26</v>
@@ -3453,14 +3462,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3470,14 +3479,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3493,7 +3502,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3503,14 +3512,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3519,14 +3528,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3536,14 +3545,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>107</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3552,14 +3561,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3569,14 +3578,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3585,14 +3594,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3602,14 +3611,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3618,28 +3627,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>107</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>62</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>26</v>
@@ -3651,7 +3660,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3668,14 +3677,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3684,31 +3693,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>206</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3717,14 +3726,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3734,11 +3743,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>26</v>
@@ -3750,14 +3759,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3767,11 +3776,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3783,31 +3792,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>213</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3816,14 +3825,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3833,14 +3842,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>131</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>149</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3849,31 +3858,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>35</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>67</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3882,14 +3891,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>154</v>
+        <v>53</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3899,14 +3908,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>134</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3922,7 +3931,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3932,11 +3941,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>35</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>26</v>
@@ -3948,14 +3957,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3965,11 +3974,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3981,14 +3990,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3998,11 +4007,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>26</v>
@@ -4014,14 +4023,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4031,14 +4040,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4047,14 +4056,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4064,11 +4073,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>26</v>
@@ -4080,14 +4089,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4097,14 +4106,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4113,14 +4122,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>241</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4130,14 +4139,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4146,14 +4155,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4163,11 +4172,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -4179,14 +4188,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>149</v>
+        <v>245</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4196,14 +4205,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>178</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4212,14 +4221,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>250</v>
+        <v>159</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4229,14 +4238,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>50</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>28</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4245,14 +4254,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>252</v>
+        <v>150</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4262,14 +4271,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4278,14 +4287,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>253</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4295,14 +4304,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>50</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4311,14 +4320,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>162</v>
+        <v>255</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4328,14 +4337,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4344,7 +4353,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4361,11 +4370,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>50</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>51</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4377,28 +4386,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>263</v>
+        <v>163</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>128</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4410,28 +4419,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>266</v>
+        <v>22</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>178</v>
+        <v>50</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4443,14 +4452,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>266</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4460,11 +4469,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4476,14 +4485,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>22</v>
+        <v>269</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4493,14 +4502,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>272</v>
+        <v>182</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4509,14 +4518,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>266</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4526,11 +4535,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>128</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4542,14 +4551,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4559,14 +4568,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>155</v>
+        <v>275</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>154</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4582,7 +4591,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4592,11 +4601,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4608,14 +4617,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4625,14 +4634,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>116</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>45</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4648,7 +4657,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>22</v>
+        <v>281</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4658,11 +4667,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>254</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>18</v>
@@ -4681,7 +4690,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4691,14 +4700,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>253</v>
+        <v>173</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>263</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4707,7 +4716,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4724,14 +4733,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>182</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4757,14 +4766,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>182</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>18</v>
+        <v>266</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4780,7 +4789,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>288</v>
+        <v>22</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4790,14 +4799,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4806,14 +4815,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4823,11 +4832,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4839,14 +4848,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4856,11 +4865,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -4872,14 +4881,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>299</v>
+        <v>155</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4889,11 +4898,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>127</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -4905,14 +4914,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4922,11 +4931,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>18</v>
@@ -4938,14 +4947,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>302</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4955,11 +4964,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>304</v>
+        <v>130</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>18</v>
@@ -4971,14 +4980,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>154</v>
+        <v>305</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4988,14 +4997,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>172</v>
+        <v>299</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>116</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5004,14 +5013,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>308</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5021,11 +5030,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>18</v>
@@ -5044,7 +5053,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5054,14 +5063,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>310</v>
+        <v>173</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>311</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5070,14 +5079,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>45</v>
+        <v>311</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5087,11 +5096,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>155</v>
+        <v>307</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>110</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>18</v>
@@ -5103,14 +5112,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>308</v>
+        <v>22</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5120,11 +5129,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>128</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>18</v>
@@ -5136,14 +5145,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5153,7 +5162,7 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
@@ -5169,14 +5178,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>45</v>
+        <v>311</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5186,11 +5195,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
@@ -5202,7 +5211,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5219,11 +5228,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>269</v>
+        <v>156</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>270</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>18</v>
@@ -5235,14 +5244,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>241</v>
+        <v>45</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5252,14 +5261,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>267</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>154</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5268,14 +5277,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>319</v>
+        <v>22</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5285,49 +5294,115 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>155</v>
+        <v>272</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>320</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>245</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>77</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>267</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>270</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>321</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>322</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>77</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>156</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
         <v>110</v>
       </c>
-      <c t="s" r="Q118" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>5487.7399999999998</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
-        <v>320</v>
-      </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
-        <v>321</v>
-      </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
-        <v>322</v>
-      </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+      <c t="s" r="Q120" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>5582.7399999999998</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
+        <v>323</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>324</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>325</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5896,10 +5971,20 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -980,7 +980,7 @@
     <t>38:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 9:58 PM</t>
+    <t>Thursday, 5 June, 2025 9:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -980,7 +980,7 @@
     <t>38:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 9:59 PM</t>
+    <t>Thursday, 5 June, 2025 10:00 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -473,12 +473,21 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>FORTUM 1 GM VIAL.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>318.0000</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
@@ -608,6 +617,9 @@
     <t>-76.0000</t>
   </si>
   <si>
+    <t>NITAZODE 100MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
     <t>NORFLEX 100MG 20 TAB.</t>
   </si>
   <si>
@@ -869,7 +881,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>28.0000</t>
+    <t>22:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -980,7 +992,7 @@
     <t>38:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 10:00 PM</t>
+    <t>Thursday, 5 June, 2025 10:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3090,7 +3102,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>45</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3106,7 +3118,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3116,14 +3128,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3132,14 +3144,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3149,14 +3161,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3172,7 +3184,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3182,14 +3194,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3238,7 +3250,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3248,11 +3260,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -3264,14 +3276,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3281,11 +3293,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -3304,7 +3316,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3314,14 +3326,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3330,14 +3342,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3347,7 +3359,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3370,7 +3382,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3380,14 +3392,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>55</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3409,7 +3421,7 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3417,10 +3429,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3429,28 +3441,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>54</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>116</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>26</v>
@@ -3462,14 +3474,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3479,14 +3491,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3495,14 +3507,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3512,14 +3524,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>109</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3528,14 +3540,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3545,11 +3557,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>107</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>26</v>
@@ -3561,7 +3573,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3578,14 +3590,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>107</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3601,7 +3613,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3618,7 +3630,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3634,7 +3646,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3651,7 +3663,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3677,14 +3689,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>92</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3693,28 +3705,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>206</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>26</v>
@@ -3726,7 +3738,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3743,14 +3755,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3759,31 +3771,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3792,14 +3804,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3809,11 +3821,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>26</v>
@@ -3825,14 +3837,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3842,11 +3854,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>118</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3858,31 +3870,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3891,14 +3903,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3908,14 +3920,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>134</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>150</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3924,31 +3936,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>35</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>67</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3957,14 +3969,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3974,14 +3986,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>134</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3997,7 +4009,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4007,11 +4019,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>35</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>26</v>
@@ -4023,14 +4035,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4040,11 +4052,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -4056,14 +4068,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4073,11 +4085,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>26</v>
@@ -4089,14 +4101,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4106,14 +4118,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4122,14 +4134,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4139,11 +4151,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>26</v>
@@ -4155,14 +4167,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4172,14 +4184,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4188,14 +4200,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>245</v>
+        <v>26</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4205,14 +4217,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>113</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4221,14 +4233,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4238,11 +4250,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4254,14 +4266,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>150</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4271,14 +4283,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4287,14 +4299,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>253</v>
+        <v>162</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4304,14 +4316,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>50</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>28</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4320,14 +4332,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>255</v>
+        <v>150</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4337,14 +4349,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4353,14 +4365,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>22</v>
+        <v>257</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4370,14 +4382,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>50</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4386,14 +4398,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>163</v>
+        <v>259</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4403,14 +4415,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4419,7 +4431,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4436,11 +4448,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>50</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>51</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4459,21 +4471,21 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>266</v>
+        <v>166</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>131</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4492,21 +4504,21 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>269</v>
+        <v>22</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4518,14 +4530,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4535,11 +4547,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4551,14 +4563,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4568,14 +4580,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>275</v>
+        <v>185</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4584,14 +4596,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>269</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4601,11 +4613,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>131</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4624,7 +4636,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4634,14 +4646,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>156</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>155</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4650,14 +4662,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4667,7 +4679,7 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
@@ -4690,7 +4702,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4700,14 +4712,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>119</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>45</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4716,14 +4728,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>22</v>
+        <v>285</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4733,11 +4745,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>257</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4749,14 +4761,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4766,14 +4778,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>256</v>
+        <v>176</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>266</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4799,14 +4811,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>186</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4815,7 +4827,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4832,14 +4844,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>186</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>18</v>
+        <v>290</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4848,14 +4860,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>291</v>
+        <v>22</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4865,14 +4877,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4881,14 +4893,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4898,11 +4910,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -4914,14 +4926,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4931,11 +4943,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>18</v>
@@ -4947,14 +4959,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>302</v>
+        <v>155</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4964,11 +4976,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>130</v>
+        <v>299</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>18</v>
@@ -4980,14 +4992,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4997,11 +5009,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>18</v>
@@ -5013,14 +5025,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>306</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5030,11 +5042,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>307</v>
+        <v>130</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>18</v>
@@ -5046,14 +5058,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>155</v>
+        <v>309</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5063,14 +5075,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>173</v>
+        <v>303</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>119</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5086,7 +5098,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>311</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5096,11 +5108,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>18</v>
@@ -5112,14 +5124,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5129,14 +5141,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>313</v>
+        <v>176</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>314</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5145,14 +5157,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5162,11 +5174,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>156</v>
+        <v>311</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>110</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>18</v>
@@ -5185,7 +5197,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>311</v>
+        <v>22</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5195,11 +5207,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>267</v>
+        <v>317</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>131</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
@@ -5211,14 +5223,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5228,7 +5240,7 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
@@ -5244,14 +5256,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5261,7 +5273,7 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
@@ -5277,7 +5289,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5294,11 +5306,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>272</v>
+        <v>159</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>273</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>18</v>
@@ -5310,14 +5322,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>245</v>
+        <v>45</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5327,14 +5339,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>270</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>155</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5343,14 +5355,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>322</v>
+        <v>22</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5360,49 +5372,115 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>156</v>
+        <v>276</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
+        <v>277</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>324</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>249</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>77</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>271</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>274</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>325</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>326</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>77</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>159</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
         <v>110</v>
       </c>
-      <c t="s" r="Q120" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>5582.7399999999998</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
-        <v>323</v>
-      </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
-        <v>324</v>
-      </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
-        <v>325</v>
-      </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c t="s" r="Q122" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>5960.7399999999998</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>327</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>328</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>329</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5981,10 +6059,20 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -533,6 +533,15 @@
     <t>256.0000</t>
   </si>
   <si>
+    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>IVERZINE 1% LOTION 60 ML</t>
   </si>
   <si>
@@ -881,7 +890,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>22:0</t>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>24:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -992,7 +1004,7 @@
     <t>38:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 10:02 PM</t>
+    <t>Thursday, 5 June, 2025 10:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3283,7 +3295,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3293,11 +3305,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -3309,14 +3321,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3326,11 +3338,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3349,7 +3361,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3359,14 +3371,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3375,14 +3387,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3392,7 +3404,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3415,7 +3427,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3425,14 +3437,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>55</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3454,7 +3466,7 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3462,10 +3474,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3474,28 +3486,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>54</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>26</v>
@@ -3507,14 +3519,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3524,14 +3536,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3540,14 +3552,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3557,14 +3569,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3573,14 +3585,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3590,11 +3602,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>26</v>
@@ -3606,7 +3618,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3623,14 +3635,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>107</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3646,7 +3658,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3663,7 +3675,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3679,7 +3691,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3689,14 +3701,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>92</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>93</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3705,7 +3717,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3722,14 +3734,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>92</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3762,7 +3774,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3778,24 +3790,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>62</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3804,28 +3816,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>213</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>26</v>
@@ -3844,7 +3856,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3854,14 +3866,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3870,14 +3882,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3887,14 +3899,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3910,7 +3922,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>22</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3920,14 +3932,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3949,7 +3961,7 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3976,24 +3988,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>134</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>150</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4002,14 +4014,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4019,14 +4031,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>67</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>26</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4035,7 +4047,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4052,14 +4064,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>35</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4075,7 +4087,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4092,7 +4104,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4108,7 +4120,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4125,7 +4137,7 @@
         <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4158,7 +4170,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4174,7 +4186,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4207,7 +4219,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4217,11 +4229,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>26</v>
@@ -4233,14 +4245,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4250,14 +4262,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4273,7 +4285,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>249</v>
+        <v>162</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4283,14 +4295,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>181</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>113</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4299,14 +4311,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>162</v>
+        <v>252</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4316,14 +4328,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4339,7 +4351,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4356,7 +4368,7 @@
         <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4372,7 +4384,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>257</v>
+        <v>150</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4382,14 +4394,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>50</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>28</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4398,14 +4410,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4415,14 +4427,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>50</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4431,14 +4443,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>22</v>
+        <v>262</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4455,7 +4467,7 @@
         <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4471,7 +4483,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>166</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4504,7 +4516,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4514,11 +4526,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>50</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>51</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4530,28 +4542,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>270</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>50</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4580,11 +4592,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>185</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4603,7 +4615,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>276</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4613,7 +4625,7 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>188</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
@@ -4636,7 +4648,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4653,7 +4665,7 @@
         <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4669,7 +4681,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>273</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4679,14 +4691,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>131</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4695,14 +4707,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>45</v>
+        <v>276</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4712,14 +4724,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>159</v>
+        <v>274</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>155</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4728,14 +4740,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>285</v>
+        <v>45</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4745,14 +4757,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>271</v>
+        <v>159</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>131</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>18</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4761,14 +4773,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>288</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4778,14 +4790,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>176</v>
+        <v>274</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4794,14 +4806,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4811,14 +4823,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>179</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>261</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4827,7 +4839,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4844,14 +4856,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>93</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>290</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4860,7 +4872,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4877,14 +4889,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>189</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>294</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4893,7 +4905,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4910,14 +4922,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4926,14 +4938,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>295</v>
+        <v>22</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4943,11 +4955,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>297</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>18</v>
@@ -4966,7 +4978,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>155</v>
+        <v>299</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4976,11 +4988,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>18</v>
@@ -4992,14 +5004,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>302</v>
+        <v>155</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5042,11 +5054,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>130</v>
+        <v>307</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>18</v>
@@ -5058,14 +5070,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5075,11 +5087,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>303</v>
+        <v>130</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>18</v>
@@ -5091,14 +5103,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>313</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5108,11 +5120,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>18</v>
@@ -5124,14 +5136,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5141,14 +5153,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>176</v>
+        <v>315</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>119</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5157,14 +5169,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>315</v>
+        <v>155</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5174,14 +5186,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>311</v>
+        <v>179</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>312</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5190,14 +5202,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>22</v>
+        <v>319</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5207,11 +5219,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
@@ -5223,14 +5235,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5240,11 +5252,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>159</v>
+        <v>321</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>110</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>18</v>
@@ -5256,14 +5268,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>315</v>
+        <v>45</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5273,11 +5285,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>271</v>
+        <v>159</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>18</v>
@@ -5289,14 +5301,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>22</v>
+        <v>319</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5306,11 +5318,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>159</v>
+        <v>274</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>18</v>
@@ -5322,14 +5334,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5339,11 +5351,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>271</v>
+        <v>159</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>18</v>
@@ -5355,14 +5367,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5372,11 +5384,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>277</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>18</v>
@@ -5388,14 +5400,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>249</v>
+        <v>22</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5405,14 +5417,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>155</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5421,14 +5433,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>326</v>
+        <v>252</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5438,49 +5450,82 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>159</v>
+        <v>274</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
+        <v>277</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>329</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>330</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>77</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>159</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
         <v>110</v>
       </c>
-      <c t="s" r="Q122" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>5960.7399999999998</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
-        <v>327</v>
-      </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
-        <v>328</v>
-      </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
-        <v>329</v>
-      </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c t="s" r="Q123" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>6003.7399999999998</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
+        <v>331</v>
+      </c>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
+        <v>332</v>
+      </c>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>333</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6069,10 +6114,15 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -1004,7 +1004,7 @@
     <t>38:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 10:06 PM</t>
+    <t>Thursday, 5 June, 2025 10:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -647,6 +647,12 @@
     <t>142.0000</t>
   </si>
   <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -770,6 +776,12 @@
     <t>10:0</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>VETOCETAMOL 24 TAB.</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -833,9 +845,6 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>بيروسول 300 مل</t>
   </si>
   <si>
@@ -1004,7 +1013,7 @@
     <t>38:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 10:07 PM</t>
+    <t>Thursday, 5 June, 2025 10:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3823,24 +3832,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>213</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3856,21 +3865,21 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>215</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>107</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>26</v>
@@ -3882,14 +3891,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3899,14 +3908,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>118</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3922,7 +3931,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3932,14 +3941,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>188</v>
+        <v>118</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3948,14 +3957,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>222</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3965,14 +3974,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3981,7 +3990,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3994,15 +4003,15 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -4014,31 +4023,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>134</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>150</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4054,7 +4063,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4064,14 +4073,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>67</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>26</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4080,7 +4089,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4097,14 +4106,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>35</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4113,14 +4122,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4130,14 +4139,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4146,14 +4155,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4163,14 +4172,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4179,7 +4188,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4196,14 +4205,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4212,14 +4221,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4229,11 +4238,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>26</v>
@@ -4245,14 +4254,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4262,7 +4271,7 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4285,7 +4294,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4295,14 +4304,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4311,14 +4320,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4328,14 +4337,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>184</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>113</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4351,7 +4360,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>162</v>
+        <v>254</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4361,14 +4370,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>184</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4377,14 +4386,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4394,14 +4403,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>14</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4410,14 +4419,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>260</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4427,14 +4436,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4443,14 +4452,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>262</v>
+        <v>162</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4460,14 +4469,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4476,14 +4485,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4493,14 +4502,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4509,14 +4518,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>166</v>
+        <v>264</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4526,14 +4535,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>50</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4542,14 +4551,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>266</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4559,14 +4568,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>50</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>51</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4575,28 +4584,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>273</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>131</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4608,28 +4617,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>276</v>
+        <v>166</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>188</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4641,28 +4650,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4674,14 +4683,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4691,14 +4700,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>282</v>
+        <v>213</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>283</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4707,14 +4716,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4724,11 +4733,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>274</v>
+        <v>188</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>131</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4740,14 +4749,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4757,14 +4766,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>159</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>155</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4773,14 +4782,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>288</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4790,14 +4799,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>131</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4806,14 +4815,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>279</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4823,14 +4832,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4839,14 +4848,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4856,14 +4865,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>159</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>18</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4872,14 +4881,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>22</v>
+        <v>291</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4889,14 +4898,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>294</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4905,14 +4914,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4922,14 +4931,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>282</v>
+        <v>179</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>192</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4938,7 +4947,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4955,11 +4964,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>192</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>18</v>
@@ -4971,14 +4980,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>299</v>
+        <v>22</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4988,14 +4997,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>18</v>
+        <v>297</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5004,14 +5013,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5021,14 +5030,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>304</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5037,14 +5046,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>306</v>
+        <v>22</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5054,11 +5063,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>308</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>18</v>
@@ -5070,14 +5079,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5087,11 +5096,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>130</v>
+        <v>303</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>18</v>
@@ -5103,14 +5112,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>313</v>
+        <v>155</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5120,11 +5129,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>18</v>
@@ -5136,14 +5145,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5153,11 +5162,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>18</v>
@@ -5169,14 +5178,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>155</v>
+        <v>313</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5186,14 +5195,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>119</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5202,14 +5211,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5219,11 +5228,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
@@ -5235,14 +5244,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5252,11 +5261,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>18</v>
@@ -5268,14 +5277,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5285,14 +5294,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5301,14 +5310,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5318,11 +5327,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>274</v>
+        <v>318</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>131</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>18</v>
@@ -5334,7 +5343,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5351,11 +5360,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>159</v>
+        <v>324</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>110</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>18</v>
@@ -5384,11 +5393,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>274</v>
+        <v>159</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>18</v>
@@ -5407,7 +5416,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>22</v>
+        <v>322</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5417,11 +5426,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>279</v>
+        <v>213</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>280</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>18</v>
@@ -5440,7 +5449,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5450,14 +5459,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>274</v>
+        <v>159</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>277</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>155</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5473,7 +5482,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>330</v>
+        <v>45</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5483,49 +5492,148 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>330</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>22</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>77</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>282</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>283</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>331</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>254</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>77</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>213</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>280</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>332</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>333</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>77</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>159</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
         <v>110</v>
       </c>
-      <c t="s" r="Q123" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="124" ht="25.5" customHeight="1">
-      <c r="P124" s="13">
-        <v>6003.7399999999998</v>
-      </c>
-      <c r="Q124" s="13"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="14">
-        <v>331</v>
-      </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c t="s" r="G125" s="15">
-        <v>332</v>
-      </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="16"/>
-      <c t="s" r="K125" s="17">
-        <v>333</v>
-      </c>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="17"/>
-      <c r="Q125" s="17"/>
+      <c t="s" r="Q126" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="P127" s="13">
+        <v>6059.7399999999998</v>
+      </c>
+      <c r="Q127" s="13"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="14">
+        <v>334</v>
+      </c>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c t="s" r="G128" s="15">
+        <v>335</v>
+      </c>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c t="s" r="K128" s="17">
+        <v>336</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="597">
+  <mergeCells count="612">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6119,10 +6227,25 @@
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
     <mergeCell ref="N123:O123"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="K128:Q128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -224,6 +224,15 @@
     <t>32.6700</t>
   </si>
   <si>
+    <t>CARLA EXTRA 30 TAB</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
     <t>CATAFAST 50 MG 9 SACHET</t>
   </si>
   <si>
@@ -368,528 +377,540 @@
     <t>180.00</t>
   </si>
   <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t>DUPHALAC 667GM/L SYRUP 200ML</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>386.00</t>
+  </si>
+  <si>
+    <t>127.3800</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>E-MOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>34.5600</t>
+  </si>
+  <si>
+    <t>EXARETIC 20 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>106.50</t>
+  </si>
+  <si>
+    <t>35.1450</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>FAKTU OINT. 30 GM</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>88.5600</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>15.6000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>FORTUM 1 GM VIAL.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>318.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>GLIPTUS 50 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>151.50</t>
+  </si>
+  <si>
+    <t>151.5000</t>
+  </si>
+  <si>
+    <t>HERO BABY 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
+    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>KETOFAN 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>14.8500</t>
+  </si>
+  <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>4:4</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:21</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>MAXDINIR 125MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>NEURONTIN 300MG 20 CAPS</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>-76.0000</t>
+  </si>
+  <si>
+    <t>NITAZODE 100MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>NORFLEX 100MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>142.0000</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>PRAVOTIN 100MG 14 SACHETS</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
+  </si>
+  <si>
+    <t>1:8</t>
+  </si>
+  <si>
+    <t>4.8000</t>
+  </si>
+  <si>
+    <t>RAKU-TEN EMOLLIENT CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>SHAAN BODY MILK 300ML</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>200.0000</t>
+  </si>
+  <si>
+    <t>SILDAVA 100MG 12 TABLETS</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/850MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
+    <t>TORSERETIC 100MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>261.00</t>
+  </si>
+  <si>
+    <t>86.1300</t>
+  </si>
+  <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
+    <t>URGINAFECT 10MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>VETOCETAMOL 24 TAB.</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>-14.4000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8696:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>ZESTRIL 20MG 10 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>ZYRTEC 0.1% SYRUP 100ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>بيروسول 300 مل</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>جل هيركود 100 مل يرطمان</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>حنه فاتيكا اسود 1 كيس</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زبدة كاكاو لونا </t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>زيت فاتيكا كبير 180 مل</t>
+  </si>
+  <si>
     <t>90.0000</t>
   </si>
   <si>
-    <t>DUPHALAC 667GM/L SYRUP 200ML</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>87.0000</t>
-  </si>
-  <si>
-    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>386.00</t>
-  </si>
-  <si>
-    <t>127.3800</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>E-MOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>34.5600</t>
-  </si>
-  <si>
-    <t>EXARETIC 20 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>106.50</t>
-  </si>
-  <si>
-    <t>35.1450</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>FAKTU OINT. 30 GM</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>88.5600</t>
-  </si>
-  <si>
-    <t>0:10</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>15.6000</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>FORTUM 1 GM VIAL.</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>318.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>GLIPTUS 50 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>151.50</t>
-  </si>
-  <si>
-    <t>151.5000</t>
-  </si>
-  <si>
-    <t>HERO BABY 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>256.00</t>
-  </si>
-  <si>
-    <t>256.0000</t>
-  </si>
-  <si>
-    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>KETOFAN 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>14.8500</t>
-  </si>
-  <si>
-    <t>KETOLAC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>4:4</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>0:21</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>MAXDINIR 125MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
-    <t>NEURONTIN 300MG 20 CAPS</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>-76.0000</t>
-  </si>
-  <si>
-    <t>NITAZODE 100MG/5ML 60ML SUSP.</t>
-  </si>
-  <si>
-    <t>NORFLEX 100MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>142.0000</t>
-  </si>
-  <si>
-    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>98.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>PRAVOTIN 100MG 14 SACHETS</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
-  </si>
-  <si>
-    <t>1:8</t>
-  </si>
-  <si>
-    <t>4.8000</t>
-  </si>
-  <si>
-    <t>RAKU-TEN EMOLLIENT CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>SHAAN BODY MILK 300ML</t>
-  </si>
-  <si>
-    <t>200.00</t>
-  </si>
-  <si>
-    <t>200.0000</t>
-  </si>
-  <si>
-    <t>SILDAVA 100MG 12 TABLETS</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>45.0450</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/850MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>132.0000</t>
-  </si>
-  <si>
-    <t>TORSERETIC 100MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>261.00</t>
-  </si>
-  <si>
-    <t>86.1300</t>
-  </si>
-  <si>
-    <t>TORSERETIC 20MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>40.5900</t>
-  </si>
-  <si>
-    <t>URGINAFECT 10MG 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>VETOCETAMOL 24 TAB.</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>-14.4000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8696:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>ZESTRIL 20MG 10 TAB</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>ZYRTEC 0.1% SYRUP 100ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>بيروسول 300 مل</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>جل هيركود 100 مل يرطمان</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>حلاوة حرير</t>
-  </si>
-  <si>
-    <t>حنه فاتيكا اسود 1 كيس</t>
-  </si>
-  <si>
-    <t>105.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">زبدة كاكاو لونا </t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>زيت فاتيكا كبير 180 مل</t>
-  </si>
-  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -1013,7 +1034,7 @@
     <t>38:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 10:12 PM</t>
+    <t>Thursday, 5 June, 2025 10:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2182,7 +2203,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2199,7 +2220,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2215,7 +2236,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2225,11 +2246,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>26</v>
@@ -2241,31 +2262,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2274,31 +2295,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2307,14 +2328,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2324,14 +2345,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2347,7 +2368,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2364,7 +2385,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2380,7 +2401,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2397,7 +2418,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2413,7 +2434,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2430,7 +2451,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2446,7 +2467,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2496,7 +2517,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2512,7 +2533,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2522,14 +2543,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2545,7 +2566,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2559,10 +2580,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2578,7 +2599,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2588,14 +2609,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2604,14 +2625,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2621,11 +2642,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>26</v>
@@ -2644,7 +2665,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2661,7 +2682,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2677,7 +2698,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2687,14 +2708,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2710,7 +2731,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2720,7 +2741,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2743,7 +2764,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2760,7 +2781,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2793,7 +2814,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2809,7 +2830,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2826,7 +2847,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2842,7 +2863,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2859,7 +2880,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2875,7 +2896,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2885,14 +2906,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2901,14 +2922,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2925,7 +2946,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2941,7 +2962,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2951,14 +2972,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2967,14 +2988,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2984,11 +3005,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>18</v>
@@ -3000,14 +3021,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3017,14 +3038,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>145</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3033,14 +3054,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3050,14 +3071,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3066,14 +3087,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3083,14 +3104,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>153</v>
-      </c>
-      <c t="s" r="Q50" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3106,7 +3127,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3116,14 +3137,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>155</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3132,14 +3153,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3156,7 +3177,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>45</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3172,7 +3193,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3182,14 +3203,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3198,14 +3219,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3215,14 +3236,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3238,7 +3259,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3248,14 +3269,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>61</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3304,7 +3325,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3337,7 +3358,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3347,11 +3368,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3363,14 +3384,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3380,11 +3401,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -3403,7 +3424,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3413,14 +3434,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3429,14 +3450,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3446,7 +3467,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3469,7 +3490,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3479,14 +3500,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>55</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3508,7 +3529,7 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3516,10 +3537,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3528,28 +3549,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>38</v>
+        <v>193</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>54</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>116</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>26</v>
@@ -3561,14 +3582,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3578,14 +3599,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3594,14 +3615,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3611,14 +3632,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>112</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3627,14 +3648,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3644,11 +3665,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>107</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>26</v>
@@ -3660,7 +3681,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3677,14 +3698,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3693,14 +3714,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3710,14 +3731,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3733,7 +3754,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3743,11 +3764,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>92</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>93</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3759,14 +3780,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3776,14 +3797,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3792,7 +3813,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3809,14 +3830,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>95</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3832,7 +3853,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3846,10 +3867,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>131</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3858,31 +3879,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>215</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>62</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3891,14 +3912,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3908,14 +3929,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3924,31 +3945,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>221</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3957,14 +3978,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>222</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3974,11 +3995,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>26</v>
@@ -3990,14 +4011,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4007,7 +4028,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>121</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -4030,24 +4051,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>228</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4063,7 +4084,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4073,14 +4094,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>134</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>150</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4089,31 +4110,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>35</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>67</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4122,14 +4143,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4139,14 +4160,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>137</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4155,14 +4176,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4172,11 +4193,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>35</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>26</v>
@@ -4195,7 +4216,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4228,7 +4249,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4261,7 +4282,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4278,7 +4299,7 @@
         <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4294,7 +4315,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4304,11 +4325,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>210</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>26</v>
@@ -4320,14 +4341,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>162</v>
+        <v>57</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4337,14 +4358,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4353,14 +4374,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>254</v>
+        <v>26</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4370,14 +4391,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>113</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4386,14 +4407,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4403,14 +4424,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>14</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>81</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4419,14 +4440,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4436,14 +4457,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4452,14 +4473,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4469,14 +4490,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>14</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4485,14 +4506,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4502,14 +4523,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>14</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4525,7 +4546,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>264</v>
+        <v>165</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4535,14 +4556,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>50</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>28</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4551,14 +4572,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>266</v>
+        <v>153</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4575,7 +4596,7 @@
         <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4591,7 +4612,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>270</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4601,14 +4622,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>50</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4617,14 +4638,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>166</v>
+        <v>272</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4641,7 +4662,7 @@
         <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4667,11 +4688,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>50</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>51</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4683,28 +4704,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>277</v>
+        <v>169</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>213</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>131</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>18</v>
@@ -4716,28 +4737,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>279</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4749,28 +4770,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>283</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>219</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4789,24 +4810,24 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>285</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
         <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4822,21 +4843,21 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>279</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>213</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>131</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4848,31 +4869,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>159</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>155</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4881,28 +4902,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -4914,31 +4935,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>119</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>45</v>
+        <v>158</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4947,28 +4968,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>22</v>
+        <v>297</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>294</v>
+        <v>219</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>268</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>18</v>
@@ -4980,31 +5001,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>267</v>
+        <v>182</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>297</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5013,7 +5034,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5026,18 +5047,18 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>192</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5046,7 +5067,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5059,18 +5080,18 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>192</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>18</v>
+        <v>304</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5079,31 +5100,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>302</v>
+        <v>22</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>304</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5112,28 +5133,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>307</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>18</v>
@@ -5158,7 +5179,7 @@
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
@@ -5185,17 +5206,17 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>313</v>
+        <v>158</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>130</v>
+        <v>313</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
@@ -5224,15 +5245,15 @@
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
@@ -5244,28 +5265,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>320</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>318</v>
+        <v>133</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>18</v>
@@ -5277,31 +5298,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>155</v>
+        <v>323</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>179</v>
+        <v>317</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>119</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5310,28 +5331,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>322</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>18</v>
@@ -5343,31 +5364,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>324</v>
+        <v>182</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5376,28 +5397,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>45</v>
+        <v>329</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>159</v>
+        <v>325</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>110</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>18</v>
@@ -5409,28 +5430,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>322</v>
+        <v>22</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>213</v>
+        <v>331</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>131</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>18</v>
@@ -5442,28 +5463,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>18</v>
@@ -5475,28 +5496,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>45</v>
+        <v>329</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>18</v>
@@ -5508,7 +5529,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5521,15 +5542,15 @@
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>282</v>
+        <v>162</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>283</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>18</v>
@@ -5541,31 +5562,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>254</v>
+        <v>45</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>280</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>155</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5574,66 +5595,132 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>333</v>
+        <v>22</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>159</v>
+        <v>288</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>110</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
-      <c r="P127" s="13">
-        <v>6059.7399999999998</v>
-      </c>
-      <c r="Q127" s="13"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="14">
-        <v>334</v>
-      </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c t="s" r="G128" s="15">
-        <v>335</v>
-      </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="16"/>
-      <c t="s" r="K128" s="17">
-        <v>336</v>
-      </c>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
-      <c r="Q128" s="17"/>
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>338</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>260</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>80</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>219</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>286</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>339</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>340</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>80</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>162</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="P129" s="13">
+        <v>6386.3599999999997</v>
+      </c>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="14">
+        <v>341</v>
+      </c>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c t="s" r="G130" s="15">
+        <v>342</v>
+      </c>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c t="s" r="K130" s="17">
+        <v>343</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="612">
+  <mergeCells count="622">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6242,10 +6329,20 @@
     <mergeCell ref="H126:K126"/>
     <mergeCell ref="L126:M126"/>
     <mergeCell ref="N126:O126"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="K130:Q130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -587,6 +587,12 @@
     <t>60.00</t>
   </si>
   <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
   </si>
   <si>
@@ -611,6 +617,15 @@
     <t>19.8000</t>
   </si>
   <si>
+    <t>MICONAZ 2% CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>NANAZOXID 500MG 18 F.C. TABS.</t>
   </si>
   <si>
@@ -650,9 +665,6 @@
     <t>NORFLEX 100MG 20 TAB.</t>
   </si>
   <si>
-    <t>18.00</t>
-  </si>
-  <si>
     <t>9.0000</t>
   </si>
   <si>
@@ -962,12 +974,6 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>فازلين بيور كبير</t>
   </si>
   <si>
@@ -977,6 +983,18 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>فازلين بيور وسط</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>فرشاة اطفال ريتش ديلي</t>
   </si>
   <si>
@@ -995,19 +1013,13 @@
     <t>فلامنجو شفرات للنساء</t>
   </si>
   <si>
+    <t>قطن ازن صغير</t>
+  </si>
+  <si>
     <t>كريم فاتيكا 190 مل</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>كريم فاتيكا 65 مل</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
   </si>
   <si>
     <t>كريم فيبكس الازرق</t>
@@ -3556,24 +3568,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3582,28 +3594,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>38</v>
+        <v>195</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>54</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>119</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>26</v>
@@ -3615,14 +3627,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3632,14 +3644,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3648,14 +3660,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3665,14 +3677,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>112</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3688,7 +3700,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3698,11 +3710,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>26</v>
@@ -3714,14 +3726,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3731,14 +3743,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3771,7 +3783,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3787,7 +3799,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3797,14 +3809,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3813,14 +3825,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3830,11 +3842,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>95</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3846,14 +3858,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3863,14 +3875,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3879,7 +3891,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3896,14 +3908,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>95</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3912,14 +3924,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3929,14 +3941,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>134</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3945,31 +3957,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>221</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>62</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3985,7 +3997,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3999,10 +4011,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4011,31 +4023,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>225</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4044,14 +4056,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>228</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4061,11 +4073,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>26</v>
@@ -4077,14 +4089,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4094,11 +4106,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>121</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -4110,31 +4122,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4143,14 +4155,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4160,14 +4172,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>137</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>153</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4176,31 +4188,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>158</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>35</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>67</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4209,14 +4221,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>158</v>
+        <v>53</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4226,14 +4238,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>137</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4249,7 +4261,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4259,11 +4271,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>35</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>26</v>
@@ -4275,14 +4287,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4292,11 +4304,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4308,14 +4320,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4325,11 +4337,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>26</v>
@@ -4341,14 +4353,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4358,14 +4370,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4374,14 +4386,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4391,11 +4403,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>26</v>
@@ -4407,14 +4419,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>165</v>
+        <v>57</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4424,14 +4436,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4440,14 +4452,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>260</v>
+        <v>26</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4457,14 +4469,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>116</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4473,14 +4485,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4490,14 +4502,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>14</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>84</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4506,14 +4518,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>264</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4523,14 +4535,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4539,14 +4551,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4556,14 +4568,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>14</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4579,7 +4591,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4589,14 +4601,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>14</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4605,14 +4617,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4622,14 +4634,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>50</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>28</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4638,14 +4650,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>272</v>
+        <v>153</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4655,14 +4667,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4671,14 +4683,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4688,14 +4700,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>50</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4704,14 +4716,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>169</v>
+        <v>276</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4721,14 +4733,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4737,7 +4749,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4754,11 +4766,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>50</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>51</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4777,21 +4789,21 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>219</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>134</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4803,28 +4815,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>285</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>191</v>
+        <v>50</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4836,14 +4848,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>287</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4853,11 +4865,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>223</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4869,14 +4881,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>22</v>
+        <v>289</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4886,14 +4898,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>191</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4902,14 +4914,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>285</v>
+        <v>18</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4919,11 +4931,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>219</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>134</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -4942,7 +4954,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4952,14 +4964,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>162</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>158</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4968,14 +4980,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4985,7 +4997,7 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
@@ -5008,7 +5020,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5018,14 +5030,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
         <v>299</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>45</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5041,7 +5053,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>22</v>
+        <v>301</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5051,11 +5063,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>301</v>
+        <v>223</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>274</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>18</v>
@@ -5074,7 +5086,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5084,14 +5096,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>273</v>
+        <v>182</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
         <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>304</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5100,7 +5112,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5117,14 +5129,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>195</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5150,14 +5162,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>195</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>18</v>
+        <v>308</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5166,14 +5178,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>309</v>
+        <v>22</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5183,14 +5195,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>311</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5199,14 +5211,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>158</v>
+        <v>22</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5216,11 +5228,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>314</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>18</v>
@@ -5232,14 +5244,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5249,11 +5261,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
@@ -5265,14 +5277,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>320</v>
+        <v>158</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5282,11 +5294,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>133</v>
+        <v>317</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>18</v>
@@ -5298,14 +5310,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5315,11 +5327,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>317</v>
+        <v>203</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>318</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>18</v>
@@ -5331,14 +5343,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>322</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5348,11 +5360,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>325</v>
+        <v>133</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>18</v>
@@ -5364,14 +5376,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>158</v>
+        <v>325</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5381,14 +5393,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>182</v>
+        <v>326</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5414,11 +5426,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>325</v>
+        <v>203</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>326</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>18</v>
@@ -5437,7 +5449,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5470,7 +5482,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5480,14 +5492,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>113</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5503,7 +5515,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5513,11 +5525,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>18</v>
@@ -5536,7 +5548,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>22</v>
+        <v>325</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5546,11 +5558,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>162</v>
+        <v>331</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>113</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>18</v>
@@ -5569,7 +5581,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5579,11 +5591,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>219</v>
+        <v>326</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>134</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>18</v>
@@ -5602,7 +5614,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5612,11 +5624,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>288</v>
+        <v>162</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>289</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>18</v>
@@ -5635,7 +5647,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>260</v>
+        <v>325</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5645,14 +5657,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>286</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>158</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5668,7 +5680,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>340</v>
+        <v>22</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5689,38 +5701,170 @@
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
-      <c r="P129" s="13">
-        <v>6386.3599999999997</v>
-      </c>
-      <c r="Q129" s="13"/>
-    </row>
-    <row r="130" ht="16.5" customHeight="1">
-      <c t="s" r="A130" s="14">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>340</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>45</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>80</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>223</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
         <v>341</v>
       </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c t="s" r="G130" s="15">
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>22</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>80</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>292</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>293</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
         <v>342</v>
       </c>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="16"/>
-      <c t="s" r="K130" s="17">
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>264</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>80</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>223</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>290</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
         <v>343</v>
       </c>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="17"/>
-      <c r="Q130" s="17"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>344</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>80</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>162</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="P133" s="13">
+        <v>6464.3599999999997</v>
+      </c>
+      <c r="Q133" s="13"/>
+    </row>
+    <row r="134" ht="16.5" customHeight="1">
+      <c t="s" r="A134" s="14">
+        <v>345</v>
+      </c>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c t="s" r="G134" s="15">
+        <v>346</v>
+      </c>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c t="s" r="K134" s="17">
+        <v>347</v>
+      </c>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="622">
+  <mergeCells count="642">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6339,10 +6483,30 @@
     <mergeCell ref="H128:K128"/>
     <mergeCell ref="L128:M128"/>
     <mergeCell ref="N128:O128"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="K134:Q134"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -461,282 +461,282 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>8:0</t>
+    <t>7:0</t>
   </si>
   <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>15.6000</t>
+    <t>39.6000</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>FORTUM 1 GM VIAL.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>318.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>GLIPTUS 50 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>151.50</t>
+  </si>
+  <si>
+    <t>151.5000</t>
+  </si>
+  <si>
+    <t>HERO BABY 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
+    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>KETOFAN 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>14.8500</t>
+  </si>
+  <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>4:4</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:21</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>MAXDINIR 125MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>MICONAZ 2% CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>NEURONTIN 300MG 20 CAPS</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>-76.0000</t>
+  </si>
+  <si>
+    <t>NITAZODE 100MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>NORFLEX 100MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>142.0000</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>PRAVOTIN 100MG 14 SACHETS</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
+  </si>
+  <si>
+    <t>1:8</t>
+  </si>
+  <si>
+    <t>4.8000</t>
+  </si>
+  <si>
+    <t>RAKU-TEN EMOLLIENT CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>SHAAN BODY MILK 300ML</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>200.0000</t>
+  </si>
+  <si>
+    <t>SILDAVA 100MG 12 TABLETS</t>
+  </si>
+  <si>
+    <t>47.5200</t>
   </si>
   <si>
     <t>0:4</t>
   </si>
   <si>
-    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>FORTUM 1 GM VIAL.</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>318.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>GLIPTUS 50 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>151.50</t>
-  </si>
-  <si>
-    <t>151.5000</t>
-  </si>
-  <si>
-    <t>HERO BABY 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>256.00</t>
-  </si>
-  <si>
-    <t>256.0000</t>
-  </si>
-  <si>
-    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>KETOFAN 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>14.8500</t>
-  </si>
-  <si>
-    <t>KETOLAC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>4:4</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>0:21</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>MAXDINIR 125MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
-    <t>MICONAZ 2% CREAM 20 GM</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>NEURONTIN 300MG 20 CAPS</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>-76.0000</t>
-  </si>
-  <si>
-    <t>NITAZODE 100MG/5ML 60ML SUSP.</t>
-  </si>
-  <si>
-    <t>NORFLEX 100MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>142.0000</t>
-  </si>
-  <si>
-    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>98.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>PRAVOTIN 100MG 14 SACHETS</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
-  </si>
-  <si>
-    <t>1:8</t>
-  </si>
-  <si>
-    <t>4.8000</t>
-  </si>
-  <si>
-    <t>RAKU-TEN EMOLLIENT CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>SHAAN BODY MILK 300ML</t>
-  </si>
-  <si>
-    <t>200.00</t>
-  </si>
-  <si>
-    <t>200.0000</t>
-  </si>
-  <si>
-    <t>SILDAVA 100MG 12 TABLETS</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -830,6 +830,9 @@
     <t>-14.4000</t>
   </si>
   <si>
+    <t>VOLTAREN 100MG 10 SUPP.</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -986,9 +989,6 @@
     <t>فازلين بيور وسط</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
@@ -1046,7 +1046,7 @@
     <t>38:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 10:15 PM</t>
+    <t>Thursday, 5 June, 2025 10:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3123,7 +3123,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3149,11 +3149,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>26</v>
@@ -3165,14 +3165,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3182,14 +3182,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3198,14 +3198,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3215,11 +3215,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>45</v>
@@ -3231,14 +3231,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3248,11 +3248,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -3264,14 +3264,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>22</v>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3314,11 +3314,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -3330,7 +3330,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3347,11 +3347,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3380,11 +3380,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3446,11 +3446,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>18</v>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3479,11 +3479,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>26</v>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3512,11 +3512,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>26</v>
@@ -3528,14 +3528,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3545,7 +3545,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3561,14 +3561,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3594,14 +3594,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3611,11 +3611,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>26</v>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3710,11 +3710,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>26</v>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3743,11 +3743,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3776,11 +3776,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>26</v>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>26</v>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3842,11 +3842,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3875,11 +3875,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3941,11 +3941,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>26</v>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3974,11 +3974,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>45</v>
@@ -3990,7 +3990,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -4023,14 +4023,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4073,11 +4073,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>26</v>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4110,7 +4110,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -4122,14 +4122,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4139,11 +4139,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>26</v>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4172,11 +4172,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -4188,7 +4188,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4205,11 +4205,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4242,10 +4242,10 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
+        <v>240</v>
+      </c>
+      <c t="s" r="Q84" s="12">
         <v>241</v>
-      </c>
-      <c t="s" r="Q84" s="12">
-        <v>153</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4261,7 +4261,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4294,7 +4294,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4492,7 +4492,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
@@ -4624,7 +4624,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4657,7 +4657,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>153</v>
+        <v>241</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4690,7 +4690,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>274</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4700,14 +4700,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4716,14 +4716,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4733,14 +4733,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>50</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4749,14 +4749,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4766,14 +4766,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4782,14 +4782,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4799,11 +4799,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4815,14 +4815,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4832,11 +4832,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>51</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4855,21 +4855,21 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>287</v>
+        <v>22</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>223</v>
+        <v>50</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4881,14 +4881,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4898,11 +4898,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4914,14 +4914,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>18</v>
+        <v>290</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4931,11 +4931,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>190</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -4947,14 +4947,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4964,14 +4964,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4980,14 +4980,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>289</v>
+        <v>22</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4997,14 +4997,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>134</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5020,7 +5020,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5030,14 +5030,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>299</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>158</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5046,14 +5046,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>301</v>
+        <v>45</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5063,14 +5063,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>134</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>18</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5079,14 +5079,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>18</v>
+        <v>302</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5096,14 +5096,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>303</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5112,14 +5112,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5129,14 +5129,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>305</v>
+        <v>181</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5145,7 +5145,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5162,14 +5162,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>308</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5178,7 +5178,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5195,14 +5195,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>197</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>309</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5228,14 +5228,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5244,14 +5244,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>313</v>
+        <v>22</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5261,11 +5261,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>315</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
@@ -5277,14 +5277,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>158</v>
+        <v>314</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5294,11 +5294,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>18</v>
@@ -5310,14 +5310,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>320</v>
+        <v>157</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5327,11 +5327,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>203</v>
+        <v>318</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>204</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>18</v>
@@ -5343,14 +5343,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5360,11 +5360,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>323</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>18</v>
@@ -5376,14 +5376,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5393,11 +5393,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>326</v>
+        <v>133</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>18</v>
@@ -5409,14 +5409,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>329</v>
+        <v>150</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5426,11 +5426,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>203</v>
+        <v>326</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>204</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>18</v>
@@ -5442,14 +5442,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>12</v>
+        <v>329</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5459,11 +5459,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>331</v>
+        <v>202</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>332</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>18</v>
@@ -5475,14 +5475,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5492,14 +5492,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>182</v>
+        <v>331</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5508,14 +5508,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>320</v>
+        <v>157</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5525,14 +5525,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>204</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5541,14 +5541,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5558,11 +5558,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>331</v>
+        <v>202</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>332</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>18</v>
@@ -5574,14 +5574,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5591,11 +5591,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>18</v>
@@ -5607,14 +5607,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5624,11 +5624,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>162</v>
+        <v>326</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>113</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>18</v>
@@ -5640,14 +5640,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>325</v>
+        <v>45</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5657,11 +5657,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>18</v>
@@ -5673,14 +5673,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5690,11 +5690,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>18</v>
@@ -5706,14 +5706,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5723,11 +5723,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>18</v>
@@ -5739,14 +5739,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5756,11 +5756,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>293</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>18</v>
@@ -5772,14 +5772,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>264</v>
+        <v>22</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5789,14 +5789,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>223</v>
+        <v>293</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>158</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5805,14 +5805,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>344</v>
+        <v>264</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5822,49 +5822,82 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
+        <v>291</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>343</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>344</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>80</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>161</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
         <v>113</v>
       </c>
-      <c t="s" r="Q132" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="133" ht="24.75" customHeight="1">
-      <c r="P133" s="13">
-        <v>6464.3599999999997</v>
-      </c>
-      <c r="Q133" s="13"/>
-    </row>
-    <row r="134" ht="16.5" customHeight="1">
-      <c t="s" r="A134" s="14">
+      <c t="s" r="Q133" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="P134" s="13">
+        <v>6542.3599999999997</v>
+      </c>
+      <c r="Q134" s="13"/>
+    </row>
+    <row r="135" ht="16.5" customHeight="1">
+      <c t="s" r="A135" s="14">
         <v>345</v>
       </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c t="s" r="G134" s="15">
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c t="s" r="G135" s="15">
         <v>346</v>
       </c>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="16"/>
-      <c t="s" r="K134" s="17">
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="16"/>
+      <c t="s" r="K135" s="17">
         <v>347</v>
       </c>
-      <c r="L134" s="17"/>
-      <c r="M134" s="17"/>
-      <c r="N134" s="17"/>
-      <c r="O134" s="17"/>
-      <c r="P134" s="17"/>
-      <c r="Q134" s="17"/>
+      <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
+      <c r="N135" s="17"/>
+      <c r="O135" s="17"/>
+      <c r="P135" s="17"/>
+      <c r="Q135" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="642">
+  <mergeCells count="647">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6503,10 +6536,15 @@
     <mergeCell ref="H132:K132"/>
     <mergeCell ref="L132:M132"/>
     <mergeCell ref="N132:O132"/>
-    <mergeCell ref="P133:Q133"/>
-    <mergeCell ref="A134:F134"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="K134:Q134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="P134:Q134"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="K135:Q135"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -935,10 +935,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>24:0</t>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>25:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -950,6 +950,15 @@
     <t>12.00</t>
   </si>
   <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>46:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
     <t>شامبو كلير 1 كيس</t>
   </si>
   <si>
@@ -968,9 +977,6 @@
     <t>50.00</t>
   </si>
   <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">فازلين بيور صغير </t>
   </si>
   <si>
@@ -1046,7 +1052,7 @@
     <t>38:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 10:16 PM</t>
+    <t>Thursday, 5 June, 2025 10:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5232,10 +5238,10 @@
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>164</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5298,7 +5304,7 @@
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>18</v>
@@ -5310,14 +5316,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>157</v>
+        <v>317</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5350,7 +5356,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>321</v>
+        <v>157</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5360,11 +5366,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>202</v>
+        <v>321</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>203</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>18</v>
@@ -5393,11 +5399,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>324</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>18</v>
@@ -5409,14 +5415,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>150</v>
+        <v>325</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5426,11 +5432,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>326</v>
+        <v>133</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>18</v>
@@ -5442,14 +5448,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>329</v>
+        <v>150</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5459,11 +5465,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>202</v>
+        <v>328</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>203</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>18</v>
@@ -5482,7 +5488,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>331</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5492,11 +5498,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>331</v>
+        <v>202</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>332</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>18</v>
@@ -5508,14 +5514,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5525,14 +5531,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>181</v>
+        <v>333</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5541,14 +5547,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>321</v>
+        <v>157</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5558,14 +5564,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>203</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5574,14 +5580,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>150</v>
+        <v>323</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5591,11 +5597,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>331</v>
+        <v>202</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>332</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>18</v>
@@ -5607,14 +5613,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5624,11 +5630,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>18</v>
@@ -5640,14 +5646,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5657,11 +5663,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>161</v>
+        <v>328</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>113</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>18</v>
@@ -5673,14 +5679,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5690,11 +5696,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>222</v>
+        <v>161</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>18</v>
@@ -5706,14 +5712,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5723,11 +5729,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>161</v>
+        <v>222</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>18</v>
@@ -5739,14 +5745,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5756,11 +5762,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>222</v>
+        <v>161</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>18</v>
@@ -5772,14 +5778,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5789,11 +5795,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>294</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>18</v>
@@ -5805,14 +5811,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>264</v>
+        <v>22</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5822,14 +5828,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>222</v>
+        <v>293</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>157</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5838,14 +5844,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>344</v>
+        <v>264</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5855,49 +5861,82 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>161</v>
+        <v>222</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
+        <v>291</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>345</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>346</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>80</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>161</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
         <v>113</v>
       </c>
-      <c t="s" r="Q133" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="134" ht="25.5" customHeight="1">
-      <c r="P134" s="13">
-        <v>6542.3599999999997</v>
-      </c>
-      <c r="Q134" s="13"/>
-    </row>
-    <row r="135" ht="16.5" customHeight="1">
-      <c t="s" r="A135" s="14">
-        <v>345</v>
-      </c>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c t="s" r="G135" s="15">
-        <v>346</v>
-      </c>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="16"/>
-      <c t="s" r="K135" s="17">
+      <c t="s" r="Q134" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="P135" s="13">
+        <v>6553.3599999999997</v>
+      </c>
+      <c r="Q135" s="13"/>
+    </row>
+    <row r="136" ht="16.5" customHeight="1">
+      <c t="s" r="A136" s="14">
         <v>347</v>
       </c>
-      <c r="L135" s="17"/>
-      <c r="M135" s="17"/>
-      <c r="N135" s="17"/>
-      <c r="O135" s="17"/>
-      <c r="P135" s="17"/>
-      <c r="Q135" s="17"/>
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c t="s" r="G136" s="15">
+        <v>348</v>
+      </c>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="16"/>
+      <c t="s" r="K136" s="17">
+        <v>349</v>
+      </c>
+      <c r="L136" s="17"/>
+      <c r="M136" s="17"/>
+      <c r="N136" s="17"/>
+      <c r="O136" s="17"/>
+      <c r="P136" s="17"/>
+      <c r="Q136" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="647">
+  <mergeCells count="652">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6541,10 +6580,15 @@
     <mergeCell ref="H133:K133"/>
     <mergeCell ref="L133:M133"/>
     <mergeCell ref="N133:O133"/>
-    <mergeCell ref="P134:Q134"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="K135:Q135"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="K136:Q136"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -548,6 +548,9 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>IS IS بقدونس كرفس</t>
+  </si>
+  <si>
     <t>IVERZINE 1% LOTION 60 ML</t>
   </si>
   <si>
@@ -695,6 +698,12 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
     <t>PRAVOTIN 100MG 14 SACHETS</t>
   </si>
   <si>
@@ -878,6 +887,18 @@
     <t>14:0</t>
   </si>
   <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>بيروسول 300 مل</t>
   </si>
   <si>
@@ -935,48 +956,48 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>سلاكه ازن خشب صغيره</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>46:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>شامبو كلير 1 كيس</t>
+  </si>
+  <si>
+    <t>119:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>2.5000</t>
+  </si>
+  <si>
+    <t>شمع حريمي</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
     <t>50.0000</t>
   </si>
   <si>
-    <t>25:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>سلاكه ازن خشب صغيره</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>46:0</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>شامبو كلير 1 كيس</t>
-  </si>
-  <si>
-    <t>119:0</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>2.5000</t>
-  </si>
-  <si>
-    <t>شمع حريمي</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">فازلين بيور صغير </t>
   </si>
   <si>
@@ -995,12 +1016,6 @@
     <t>فازلين بيور وسط</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>فرشاة اطفال ريتش ديلي</t>
   </si>
   <si>
@@ -1052,7 +1067,7 @@
     <t>38:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 10:19 PM</t>
+    <t>Thursday, 5 June, 2025 10:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3409,21 +3424,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -3442,7 +3457,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3452,11 +3467,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>18</v>
@@ -3468,14 +3483,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3485,14 +3500,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3501,14 +3516,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3518,11 +3533,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>26</v>
@@ -3534,14 +3549,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3551,14 +3566,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>55</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3567,14 +3582,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3584,14 +3599,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3600,31 +3615,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3633,28 +3648,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>38</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>54</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>119</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>26</v>
@@ -3673,7 +3688,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3683,14 +3698,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3706,7 +3721,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3716,14 +3731,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>190</v>
+        <v>112</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3732,14 +3747,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3749,14 +3764,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3765,14 +3780,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3782,14 +3797,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3798,7 +3813,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3815,11 +3830,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>26</v>
@@ -3831,7 +3846,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3848,14 +3863,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3864,14 +3879,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3881,14 +3896,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3897,14 +3912,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3914,14 +3929,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>96</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3947,14 +3962,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3963,7 +3978,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3980,14 +3995,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3996,14 +4011,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4013,14 +4028,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>134</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4029,31 +4044,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>110</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4062,28 +4077,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>110</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>26</v>
@@ -4095,14 +4110,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4112,14 +4127,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>121</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4128,14 +4143,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>231</v>
+        <v>108</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4145,11 +4160,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>190</v>
+        <v>54</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>26</v>
@@ -4161,14 +4176,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4178,11 +4193,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>121</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -4194,31 +4209,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>234</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4227,14 +4242,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4244,14 +4259,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>137</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>241</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4260,31 +4275,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>35</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>67</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4293,14 +4308,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4310,14 +4325,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>137</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4326,14 +4341,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4343,11 +4358,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>35</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>26</v>
@@ -4359,14 +4374,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4376,11 +4391,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4392,14 +4407,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4409,11 +4424,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>26</v>
@@ -4425,14 +4440,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4442,14 +4457,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4458,14 +4473,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4475,11 +4490,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>26</v>
@@ -4491,14 +4506,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4508,14 +4523,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4524,14 +4539,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>264</v>
+        <v>26</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4541,14 +4556,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>116</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4557,14 +4572,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4574,14 +4589,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>14</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>84</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4597,7 +4612,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>267</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4607,14 +4622,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4623,14 +4638,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4640,14 +4655,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>14</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4656,14 +4671,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>241</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4673,14 +4688,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>14</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4689,14 +4704,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4706,11 +4721,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>208</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4722,14 +4737,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4739,14 +4754,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>50</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>28</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4762,7 +4777,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>277</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4772,14 +4787,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>61</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4788,14 +4803,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>22</v>
+        <v>278</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4805,14 +4820,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>50</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4821,14 +4836,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>168</v>
+        <v>280</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4838,14 +4853,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4854,7 +4869,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4871,11 +4886,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>51</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4887,28 +4902,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>288</v>
+        <v>168</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>222</v>
+        <v>287</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>134</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4927,21 +4942,21 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -4953,14 +4968,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>18</v>
+        <v>291</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4970,11 +4985,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>293</v>
+        <v>223</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -4986,14 +5001,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>22</v>
+        <v>293</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5003,14 +5018,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5019,14 +5034,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5036,11 +5051,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>134</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>18</v>
@@ -5059,7 +5074,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5069,14 +5084,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>161</v>
+        <v>300</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>157</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5085,14 +5100,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>302</v>
+        <v>22</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5102,14 +5117,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>222</v>
+        <v>303</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>134</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5118,14 +5133,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>18</v>
+        <v>297</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5135,14 +5150,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>304</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5151,14 +5166,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5168,14 +5183,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>306</v>
+        <v>161</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>18</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5184,14 +5199,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>22</v>
+        <v>309</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5201,14 +5216,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>278</v>
+        <v>223</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>308</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>309</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5224,7 +5239,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5234,14 +5249,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>296</v>
+        <v>182</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>203</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>164</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5250,7 +5265,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5267,11 +5282,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>196</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
@@ -5283,14 +5298,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>314</v>
+        <v>22</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5300,14 +5315,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>315</v>
+        <v>281</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>297</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>18</v>
+        <v>315</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5323,7 +5338,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>317</v>
+        <v>22</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5333,14 +5348,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>319</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>18</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5349,14 +5364,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5366,11 +5381,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>308</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>18</v>
@@ -5382,14 +5397,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5399,11 +5414,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>202</v>
+        <v>321</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>203</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>18</v>
@@ -5415,14 +5430,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5432,11 +5447,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>133</v>
+        <v>324</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>18</v>
@@ -5448,14 +5463,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5465,11 +5480,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>18</v>
@@ -5481,14 +5496,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5498,11 +5513,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>18</v>
@@ -5514,14 +5529,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>12</v>
+        <v>332</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5531,11 +5546,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>333</v>
+        <v>133</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>18</v>
@@ -5547,14 +5562,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5564,14 +5579,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>181</v>
+        <v>294</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5580,14 +5595,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5597,11 +5612,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>18</v>
@@ -5620,7 +5635,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5630,11 +5645,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>18</v>
@@ -5646,14 +5661,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5663,14 +5678,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>328</v>
+        <v>182</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5679,14 +5694,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>45</v>
+        <v>330</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5696,11 +5711,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>113</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>18</v>
@@ -5712,7 +5727,7 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -5729,11 +5744,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>222</v>
+        <v>338</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>134</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>18</v>
@@ -5745,7 +5760,7 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -5762,11 +5777,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>161</v>
+        <v>294</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>113</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>18</v>
@@ -5778,7 +5793,7 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
@@ -5795,11 +5810,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>222</v>
+        <v>161</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>18</v>
@@ -5811,14 +5826,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5828,14 +5843,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>293</v>
+        <v>223</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5844,14 +5859,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>264</v>
+        <v>22</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5861,14 +5876,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>222</v>
+        <v>161</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>291</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>157</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5877,14 +5892,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>346</v>
+        <v>45</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5894,49 +5909,148 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>348</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>22</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>80</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>300</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>301</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>349</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>267</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>80</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>223</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>298</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>350</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>351</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>80</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>161</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
         <v>113</v>
       </c>
-      <c t="s" r="Q134" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="135" ht="24.75" customHeight="1">
-      <c r="P135" s="13">
-        <v>6553.3599999999997</v>
-      </c>
-      <c r="Q135" s="13"/>
-    </row>
-    <row r="136" ht="16.5" customHeight="1">
-      <c t="s" r="A136" s="14">
-        <v>347</v>
-      </c>
-      <c r="B136" s="14"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c t="s" r="G136" s="15">
-        <v>348</v>
-      </c>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
-      <c r="J136" s="16"/>
-      <c t="s" r="K136" s="17">
-        <v>349</v>
-      </c>
-      <c r="L136" s="17"/>
-      <c r="M136" s="17"/>
-      <c r="N136" s="17"/>
-      <c r="O136" s="17"/>
-      <c r="P136" s="17"/>
-      <c r="Q136" s="17"/>
+      <c t="s" r="Q137" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="P138" s="13">
+        <v>6648.04</v>
+      </c>
+      <c r="Q138" s="13"/>
+    </row>
+    <row r="139" ht="16.5" customHeight="1">
+      <c t="s" r="A139" s="14">
+        <v>352</v>
+      </c>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c t="s" r="G139" s="15">
+        <v>353</v>
+      </c>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="16"/>
+      <c t="s" r="K139" s="17">
+        <v>354</v>
+      </c>
+      <c r="L139" s="17"/>
+      <c r="M139" s="17"/>
+      <c r="N139" s="17"/>
+      <c r="O139" s="17"/>
+      <c r="P139" s="17"/>
+      <c r="Q139" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="652">
+  <mergeCells count="667">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6585,10 +6699,25 @@
     <mergeCell ref="H134:K134"/>
     <mergeCell ref="L134:M134"/>
     <mergeCell ref="N134:O134"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="K136:Q136"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="P138:Q138"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="G139:I139"/>
+    <mergeCell ref="K139:Q139"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -935,6 +935,15 @@
     <t>105.0000</t>
   </si>
   <si>
+    <t>ريكسونا بليه بودر دراي</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">زبدة كاكاو لونا </t>
   </si>
   <si>
@@ -1067,7 +1076,7 @@
     <t>38:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 10:27 PM</t>
+    <t>Thursday, 5 June, 2025 10:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5206,7 +5215,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>309</v>
+        <v>168</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5216,11 +5225,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>223</v>
+        <v>309</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>134</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>18</v>
@@ -5232,14 +5241,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>18</v>
+        <v>312</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5249,14 +5258,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>182</v>
+        <v>223</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>311</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5265,14 +5274,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5282,14 +5291,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>313</v>
+        <v>182</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5298,7 +5307,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5315,14 +5324,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>131</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>315</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5331,7 +5340,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5348,14 +5357,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>204</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>164</v>
+        <v>318</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5364,7 +5373,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5381,14 +5390,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>18</v>
+        <v>164</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5397,14 +5406,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>320</v>
+        <v>22</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5418,7 +5427,7 @@
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>304</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>18</v>
@@ -5451,7 +5460,7 @@
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>18</v>
@@ -5463,14 +5472,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>157</v>
+        <v>326</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5503,7 +5512,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>330</v>
+        <v>157</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5513,11 +5522,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>203</v>
+        <v>330</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>204</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>18</v>
@@ -5529,14 +5538,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5546,11 +5555,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>333</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>18</v>
@@ -5569,7 +5578,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>150</v>
+        <v>335</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5579,11 +5588,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>294</v>
+        <v>133</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>18</v>
@@ -5595,14 +5604,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>336</v>
+        <v>150</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5612,11 +5621,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>203</v>
+        <v>294</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>204</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>18</v>
@@ -5628,14 +5637,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>12</v>
+        <v>339</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5645,11 +5654,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>338</v>
+        <v>203</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>339</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>18</v>
@@ -5668,7 +5677,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5678,14 +5687,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>182</v>
+        <v>341</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5694,14 +5703,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>330</v>
+        <v>157</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5711,14 +5720,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>204</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5727,14 +5736,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>150</v>
+        <v>333</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5744,11 +5753,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>338</v>
+        <v>203</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>339</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>18</v>
@@ -5760,14 +5769,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5777,11 +5786,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>18</v>
@@ -5793,14 +5802,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5810,11 +5819,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>161</v>
+        <v>294</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>113</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>18</v>
@@ -5826,14 +5835,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5843,14 +5852,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>333</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5859,14 +5868,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5876,14 +5885,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5892,14 +5901,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5909,11 +5918,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>18</v>
@@ -5925,14 +5934,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5942,11 +5951,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>300</v>
+        <v>223</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>301</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>18</v>
@@ -5958,14 +5967,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>267</v>
+        <v>22</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -5975,14 +5984,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>223</v>
+        <v>300</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>157</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -5991,14 +6000,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>351</v>
+        <v>267</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6008,49 +6017,82 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
+        <v>298</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
+        <v>353</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>354</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>80</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>161</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
         <v>113</v>
       </c>
-      <c t="s" r="Q137" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="138" ht="24.75" customHeight="1">
-      <c r="P138" s="13">
-        <v>6648.04</v>
-      </c>
-      <c r="Q138" s="13"/>
-    </row>
-    <row r="139" ht="16.5" customHeight="1">
-      <c t="s" r="A139" s="14">
-        <v>352</v>
-      </c>
-      <c r="B139" s="14"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c t="s" r="G139" s="15">
-        <v>353</v>
-      </c>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="16"/>
-      <c t="s" r="K139" s="17">
-        <v>354</v>
-      </c>
-      <c r="L139" s="17"/>
-      <c r="M139" s="17"/>
-      <c r="N139" s="17"/>
-      <c r="O139" s="17"/>
-      <c r="P139" s="17"/>
-      <c r="Q139" s="17"/>
+      <c t="s" r="Q138" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="P139" s="13">
+        <v>6685.04</v>
+      </c>
+      <c r="Q139" s="13"/>
+    </row>
+    <row r="140" ht="16.5" customHeight="1">
+      <c t="s" r="A140" s="14">
+        <v>355</v>
+      </c>
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c t="s" r="G140" s="15">
+        <v>356</v>
+      </c>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="16"/>
+      <c t="s" r="K140" s="17">
+        <v>357</v>
+      </c>
+      <c r="L140" s="17"/>
+      <c r="M140" s="17"/>
+      <c r="N140" s="17"/>
+      <c r="O140" s="17"/>
+      <c r="P140" s="17"/>
+      <c r="Q140" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="667">
+  <mergeCells count="672">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6714,10 +6756,15 @@
     <mergeCell ref="H137:K137"/>
     <mergeCell ref="L137:M137"/>
     <mergeCell ref="N137:O137"/>
-    <mergeCell ref="P138:Q138"/>
-    <mergeCell ref="A139:F139"/>
-    <mergeCell ref="G139:I139"/>
-    <mergeCell ref="K139:Q139"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="P139:Q139"/>
+    <mergeCell ref="A140:F140"/>
+    <mergeCell ref="G140:I140"/>
+    <mergeCell ref="K140:Q140"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -887,142 +887,136 @@
     <t>14:0</t>
   </si>
   <si>
-    <t xml:space="preserve">برفان القصاص </t>
-  </si>
-  <si>
-    <t>8:0</t>
+    <t>بيروسول 300 مل</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>جل هيركود 100 مل يرطمان</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>حنه فاتيكا اسود 1 كيس</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>ريكسونا بليه بودر دراي</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زبدة كاكاو لونا </t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>زيت فاتيكا كبير 180 مل</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>سلاكه ازن خشب صغيره</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>46:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>شامبو كلير 1 كيس</t>
+  </si>
+  <si>
+    <t>119:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>2.5000</t>
+  </si>
+  <si>
+    <t>شمع حريمي</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فازلين بيور صغير </t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>فازلين بيور كبير</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>فازلين بيور وسط</t>
   </si>
   <si>
     <t>30.00</t>
   </si>
   <si>
     <t>30.0000</t>
-  </si>
-  <si>
-    <t>بيروسول 300 مل</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>جل هيركود 100 مل يرطمان</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>حلاوة حرير</t>
-  </si>
-  <si>
-    <t>حنه فاتيكا اسود 1 كيس</t>
-  </si>
-  <si>
-    <t>105.0000</t>
-  </si>
-  <si>
-    <t>ريكسونا بليه بودر دراي</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">زبدة كاكاو لونا </t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>زيت فاتيكا كبير 180 مل</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>26:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>سلاكه ازن خشب صغيره</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>46:0</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>شامبو كلير 1 كيس</t>
-  </si>
-  <si>
-    <t>119:0</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>2.5000</t>
-  </si>
-  <si>
-    <t>شمع حريمي</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فازلين بيور صغير </t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>فازلين بيور كبير</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>فازلين بيور وسط</t>
   </si>
   <si>
     <t>فرشاة اطفال ريتش ديلي</t>
@@ -5027,11 +5021,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>294</v>
+        <v>191</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>18</v>
@@ -5043,14 +5037,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>297</v>
+        <v>18</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5060,11 +5054,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>191</v>
+        <v>296</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>18</v>
@@ -5076,14 +5070,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5093,14 +5087,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5109,14 +5103,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>22</v>
+        <v>293</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5126,14 +5120,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>303</v>
+        <v>223</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>304</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5142,14 +5136,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>297</v>
+        <v>45</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5159,14 +5153,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>134</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>18</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5175,14 +5169,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5192,14 +5186,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>161</v>
+        <v>305</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>157</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5208,14 +5202,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>168</v>
+        <v>308</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5225,11 +5219,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>309</v>
+        <v>223</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>310</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>18</v>
@@ -5241,14 +5235,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>312</v>
+        <v>18</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5258,14 +5252,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>134</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5274,14 +5268,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5291,14 +5285,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>182</v>
+        <v>312</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5307,7 +5301,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5324,14 +5318,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>282</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>18</v>
+        <v>314</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5340,7 +5334,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5357,14 +5351,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>318</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5373,7 +5367,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5390,14 +5384,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>164</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5406,14 +5400,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>22</v>
+        <v>319</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5423,11 +5417,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>197</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>18</v>
@@ -5439,14 +5433,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5456,11 +5450,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>18</v>
@@ -5479,7 +5473,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>326</v>
+        <v>157</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5489,11 +5483,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>18</v>
@@ -5505,14 +5499,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>157</v>
+        <v>329</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5522,11 +5516,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>330</v>
+        <v>203</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>331</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>18</v>
@@ -5538,14 +5532,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5555,11 +5549,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>203</v>
+        <v>133</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>204</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>18</v>
@@ -5571,14 +5565,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>335</v>
+        <v>150</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5588,11 +5582,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>133</v>
+        <v>334</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>18</v>
@@ -5604,14 +5598,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>150</v>
+        <v>337</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5621,11 +5615,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>294</v>
+        <v>203</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>295</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>18</v>
@@ -5644,7 +5638,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>339</v>
+        <v>12</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5654,11 +5648,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>203</v>
+        <v>339</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>204</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>18</v>
@@ -5670,14 +5664,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5687,14 +5681,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>341</v>
+        <v>182</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5703,14 +5697,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>157</v>
+        <v>329</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5720,14 +5714,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>314</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5736,14 +5730,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>333</v>
+        <v>150</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5753,11 +5747,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>203</v>
+        <v>339</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>204</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>18</v>
@@ -5769,14 +5763,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>150</v>
+        <v>22</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5786,11 +5780,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>18</v>
@@ -5802,14 +5796,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5819,11 +5813,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>294</v>
+        <v>161</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>295</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>18</v>
@@ -5835,14 +5829,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5852,11 +5846,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>18</v>
@@ -5868,14 +5862,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5885,14 +5879,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>336</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5901,14 +5895,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5918,11 +5912,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>18</v>
@@ -5934,14 +5928,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5951,11 +5945,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>134</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>18</v>
@@ -5967,14 +5961,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>22</v>
+        <v>267</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -5984,14 +5978,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>300</v>
+        <v>223</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>18</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6000,14 +5994,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>267</v>
+        <v>352</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6017,82 +6011,49 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>298</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>157</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
-      <c r="A138" s="7">
-        <v>132</v>
-      </c>
-      <c r="B138" s="7"/>
-      <c t="s" r="C138" s="8">
+      <c r="P138" s="13">
+        <v>6635.04</v>
+      </c>
+      <c r="Q138" s="13"/>
+    </row>
+    <row r="139" ht="16.5" customHeight="1">
+      <c t="s" r="A139" s="14">
         <v>353</v>
       </c>
-      <c r="D138" s="8"/>
-      <c r="E138" s="8"/>
-      <c r="F138" s="8"/>
-      <c r="G138" s="8"/>
-      <c t="s" r="H138" s="9">
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c t="s" r="G139" s="15">
         <v>354</v>
       </c>
-      <c r="I138" s="9"/>
-      <c r="J138" s="9"/>
-      <c r="K138" s="9"/>
-      <c t="s" r="L138" s="10">
-        <v>80</v>
-      </c>
-      <c r="M138" s="10"/>
-      <c t="s" r="N138" s="8">
-        <v>161</v>
-      </c>
-      <c r="O138" s="8"/>
-      <c t="s" r="P138" s="11">
-        <v>113</v>
-      </c>
-      <c t="s" r="Q138" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="139" ht="25.5" customHeight="1">
-      <c r="P139" s="13">
-        <v>6685.04</v>
-      </c>
-      <c r="Q139" s="13"/>
-    </row>
-    <row r="140" ht="16.5" customHeight="1">
-      <c t="s" r="A140" s="14">
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="16"/>
+      <c t="s" r="K139" s="17">
         <v>355</v>
       </c>
-      <c r="B140" s="14"/>
-      <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
-      <c t="s" r="G140" s="15">
-        <v>356</v>
-      </c>
-      <c r="H140" s="15"/>
-      <c r="I140" s="15"/>
-      <c r="J140" s="16"/>
-      <c t="s" r="K140" s="17">
-        <v>357</v>
-      </c>
-      <c r="L140" s="17"/>
-      <c r="M140" s="17"/>
-      <c r="N140" s="17"/>
-      <c r="O140" s="17"/>
-      <c r="P140" s="17"/>
-      <c r="Q140" s="17"/>
+      <c r="L139" s="17"/>
+      <c r="M139" s="17"/>
+      <c r="N139" s="17"/>
+      <c r="O139" s="17"/>
+      <c r="P139" s="17"/>
+      <c r="Q139" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="672">
+  <mergeCells count="667">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6756,15 +6717,10 @@
     <mergeCell ref="H137:K137"/>
     <mergeCell ref="L137:M137"/>
     <mergeCell ref="N137:O137"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="C138:G138"/>
-    <mergeCell ref="H138:K138"/>
-    <mergeCell ref="L138:M138"/>
-    <mergeCell ref="N138:O138"/>
-    <mergeCell ref="P139:Q139"/>
-    <mergeCell ref="A140:F140"/>
-    <mergeCell ref="G140:I140"/>
-    <mergeCell ref="K140:Q140"/>
+    <mergeCell ref="P138:Q138"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="G139:I139"/>
+    <mergeCell ref="K139:Q139"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -1070,7 +1070,7 @@
     <t>38:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 10:28 PM</t>
+    <t>Thursday, 5 June, 2025 10:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -1017,6 +1017,9 @@
   </si>
   <si>
     <t>30.0000</t>
+  </si>
+  <si>
+    <t>فرد شعر هير كونترول</t>
   </si>
   <si>
     <t>فرشاة اطفال ريتش ديلي</t>
@@ -5605,7 +5608,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>337</v>
+        <v>18</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5615,11 +5618,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>203</v>
+        <v>121</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>18</v>
@@ -5631,14 +5634,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5648,11 +5651,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>339</v>
+        <v>203</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>340</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>18</v>
@@ -5664,14 +5667,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5681,14 +5684,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>182</v>
+        <v>340</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5704,7 +5707,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>329</v>
+        <v>157</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5714,14 +5717,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>204</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5737,7 +5740,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>150</v>
+        <v>329</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5747,11 +5750,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>339</v>
+        <v>203</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>340</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>18</v>
@@ -5770,7 +5773,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5780,11 +5783,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>18</v>
@@ -5803,7 +5806,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5813,11 +5816,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>161</v>
+        <v>334</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>113</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>18</v>
@@ -5836,7 +5839,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5846,11 +5849,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>18</v>
@@ -5869,7 +5872,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5879,11 +5882,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>18</v>
@@ -5902,7 +5905,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5912,11 +5915,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>18</v>
@@ -5935,7 +5938,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5945,11 +5948,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>296</v>
+        <v>223</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>297</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>18</v>
@@ -5968,7 +5971,7 @@
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>267</v>
+        <v>22</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -5978,14 +5981,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>157</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6001,7 +6004,7 @@
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>352</v>
+        <v>267</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6011,49 +6014,82 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
+        <v>294</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
+        <v>352</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>353</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>80</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>161</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
         <v>113</v>
       </c>
-      <c t="s" r="Q137" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="138" ht="24.75" customHeight="1">
-      <c r="P138" s="13">
-        <v>6635.04</v>
-      </c>
-      <c r="Q138" s="13"/>
-    </row>
-    <row r="139" ht="16.5" customHeight="1">
-      <c t="s" r="A139" s="14">
-        <v>353</v>
-      </c>
-      <c r="B139" s="14"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c t="s" r="G139" s="15">
+      <c t="s" r="Q138" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="P139" s="13">
+        <v>6815.04</v>
+      </c>
+      <c r="Q139" s="13"/>
+    </row>
+    <row r="140" ht="16.5" customHeight="1">
+      <c t="s" r="A140" s="14">
         <v>354</v>
       </c>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="16"/>
-      <c t="s" r="K139" s="17">
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c t="s" r="G140" s="15">
         <v>355</v>
       </c>
-      <c r="L139" s="17"/>
-      <c r="M139" s="17"/>
-      <c r="N139" s="17"/>
-      <c r="O139" s="17"/>
-      <c r="P139" s="17"/>
-      <c r="Q139" s="17"/>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="16"/>
+      <c t="s" r="K140" s="17">
+        <v>356</v>
+      </c>
+      <c r="L140" s="17"/>
+      <c r="M140" s="17"/>
+      <c r="N140" s="17"/>
+      <c r="O140" s="17"/>
+      <c r="P140" s="17"/>
+      <c r="Q140" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="667">
+  <mergeCells count="672">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6717,10 +6753,15 @@
     <mergeCell ref="H137:K137"/>
     <mergeCell ref="L137:M137"/>
     <mergeCell ref="N137:O137"/>
-    <mergeCell ref="P138:Q138"/>
-    <mergeCell ref="A139:F139"/>
-    <mergeCell ref="G139:I139"/>
-    <mergeCell ref="K139:Q139"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="P139:Q139"/>
+    <mergeCell ref="A140:F140"/>
+    <mergeCell ref="G140:I140"/>
+    <mergeCell ref="K140:Q140"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -887,6 +887,15 @@
     <t>14:0</t>
   </si>
   <si>
+    <t xml:space="preserve">برفان كوبي </t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>160.0000</t>
+  </si>
+  <si>
     <t>بيروسول 300 مل</t>
   </si>
   <si>
@@ -1043,6 +1052,9 @@
     <t>قطن ازن صغير</t>
   </si>
   <si>
+    <t>12:0</t>
+  </si>
+  <si>
     <t>كريم فاتيكا 190 مل</t>
   </si>
   <si>
@@ -1073,7 +1085,7 @@
     <t>38:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 10:29 PM</t>
+    <t>Thursday, 5 June, 2025 10:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5014,7 +5026,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>293</v>
+        <v>45</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5024,14 +5036,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>191</v>
+        <v>293</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>294</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5047,7 +5059,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>18</v>
+        <v>296</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5057,7 +5069,7 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>296</v>
+        <v>191</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
@@ -5080,7 +5092,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5097,7 +5109,7 @@
         <v>300</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5113,7 +5125,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>293</v>
+        <v>22</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5123,14 +5135,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>223</v>
+        <v>302</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>134</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5139,14 +5151,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>45</v>
+        <v>296</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5156,14 +5168,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>303</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>157</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5172,14 +5184,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5189,14 +5201,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>305</v>
+        <v>161</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
         <v>306</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>18</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5212,7 +5224,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>308</v>
+        <v>168</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5222,11 +5234,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>223</v>
+        <v>308</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>134</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>18</v>
@@ -5238,14 +5250,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>18</v>
+        <v>311</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5255,14 +5267,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>182</v>
+        <v>223</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>310</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5271,14 +5283,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5288,14 +5300,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>312</v>
+        <v>182</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5304,7 +5316,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5321,14 +5333,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>131</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>314</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5337,7 +5349,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5354,14 +5366,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>204</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>164</v>
+        <v>317</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5370,7 +5382,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5387,14 +5399,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>18</v>
+        <v>164</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5403,14 +5415,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>319</v>
+        <v>22</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5424,7 +5436,7 @@
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>300</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>18</v>
@@ -5457,7 +5469,7 @@
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>18</v>
@@ -5469,14 +5481,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>157</v>
+        <v>325</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5509,7 +5521,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>329</v>
+        <v>157</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5519,11 +5531,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>203</v>
+        <v>329</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>204</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>18</v>
@@ -5535,14 +5547,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5552,11 +5564,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>332</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>18</v>
@@ -5575,7 +5587,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>150</v>
+        <v>334</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5585,7 +5597,7 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>334</v>
+        <v>133</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
@@ -5608,7 +5620,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5618,11 +5630,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>121</v>
+        <v>337</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>232</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>18</v>
@@ -5634,14 +5646,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>338</v>
+        <v>18</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5651,11 +5663,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>203</v>
+        <v>121</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>18</v>
@@ -5667,14 +5679,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>12</v>
+        <v>341</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5684,11 +5696,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>340</v>
+        <v>203</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>341</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>18</v>
@@ -5707,7 +5719,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5717,14 +5729,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>182</v>
+        <v>343</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5733,14 +5745,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>329</v>
+        <v>157</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5750,14 +5762,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>204</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5766,14 +5778,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>150</v>
+        <v>347</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5783,14 +5795,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>340</v>
+        <v>203</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5799,14 +5811,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5816,11 +5828,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>18</v>
@@ -5832,14 +5844,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5849,11 +5861,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>161</v>
+        <v>337</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>113</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>18</v>
@@ -5865,14 +5877,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5882,11 +5894,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>18</v>
@@ -5898,14 +5910,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5915,14 +5927,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>113</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>18</v>
+        <v>157</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5931,14 +5943,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5948,11 +5960,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>18</v>
@@ -5964,14 +5976,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -5981,11 +5993,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>296</v>
+        <v>223</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>297</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>18</v>
@@ -5997,14 +6009,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>267</v>
+        <v>22</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6014,14 +6026,14 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>223</v>
+        <v>299</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>157</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6030,14 +6042,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>353</v>
+        <v>267</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6047,49 +6059,82 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
+        <v>297</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
+        <v>356</v>
+      </c>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>357</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>80</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>161</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
         <v>113</v>
       </c>
-      <c t="s" r="Q138" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="139" ht="25.5" customHeight="1">
-      <c r="P139" s="13">
-        <v>6815.04</v>
-      </c>
-      <c r="Q139" s="13"/>
-    </row>
-    <row r="140" ht="16.5" customHeight="1">
-      <c t="s" r="A140" s="14">
-        <v>354</v>
-      </c>
-      <c r="B140" s="14"/>
-      <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
-      <c t="s" r="G140" s="15">
-        <v>355</v>
-      </c>
-      <c r="H140" s="15"/>
-      <c r="I140" s="15"/>
-      <c r="J140" s="16"/>
-      <c t="s" r="K140" s="17">
-        <v>356</v>
-      </c>
-      <c r="L140" s="17"/>
-      <c r="M140" s="17"/>
-      <c r="N140" s="17"/>
-      <c r="O140" s="17"/>
-      <c r="P140" s="17"/>
-      <c r="Q140" s="17"/>
+      <c t="s" r="Q139" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="P140" s="13">
+        <v>7030.04</v>
+      </c>
+      <c r="Q140" s="13"/>
+    </row>
+    <row r="141" ht="16.5" customHeight="1">
+      <c t="s" r="A141" s="14">
+        <v>358</v>
+      </c>
+      <c r="B141" s="14"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
+      <c t="s" r="G141" s="15">
+        <v>359</v>
+      </c>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
+      <c r="J141" s="16"/>
+      <c t="s" r="K141" s="17">
+        <v>360</v>
+      </c>
+      <c r="L141" s="17"/>
+      <c r="M141" s="17"/>
+      <c r="N141" s="17"/>
+      <c r="O141" s="17"/>
+      <c r="P141" s="17"/>
+      <c r="Q141" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="672">
+  <mergeCells count="677">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6758,10 +6803,15 @@
     <mergeCell ref="H138:K138"/>
     <mergeCell ref="L138:M138"/>
     <mergeCell ref="N138:O138"/>
-    <mergeCell ref="P139:Q139"/>
-    <mergeCell ref="A140:F140"/>
-    <mergeCell ref="G140:I140"/>
-    <mergeCell ref="K140:Q140"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="P140:Q140"/>
+    <mergeCell ref="A141:F141"/>
+    <mergeCell ref="G141:I141"/>
+    <mergeCell ref="K141:Q141"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -530,6 +530,15 @@
     <t>151.5000</t>
   </si>
   <si>
+    <t>HERBANA 30CAPS</t>
+  </si>
+  <si>
+    <t>-79.2000</t>
+  </si>
+  <si>
+    <t>0:-2</t>
+  </si>
+  <si>
     <t>HERO BABY 2 MILK 400 GM</t>
   </si>
   <si>
@@ -662,6 +671,9 @@
     <t>NITAZODE 100MG/5ML 60ML SUSP.</t>
   </si>
   <si>
+    <t>58.5200</t>
+  </si>
+  <si>
     <t>NORFLEX 100MG 20 TAB.</t>
   </si>
   <si>
@@ -806,9 +818,6 @@
     <t>31.00</t>
   </si>
   <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
@@ -887,6 +896,18 @@
     <t>14:0</t>
   </si>
   <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">برفان كوبي </t>
   </si>
   <si>
@@ -1022,12 +1043,6 @@
     <t>فازلين بيور وسط</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>فرد شعر هير كونترول</t>
   </si>
   <si>
@@ -1085,7 +1100,7 @@
     <t>38:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 10:32 PM</t>
+    <t>Thursday, 5 June, 2025 10:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3376,24 +3391,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q57" s="12">
         <v>175</v>
-      </c>
-      <c t="s" r="Q57" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3409,7 +3424,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3442,21 +3457,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -3468,28 +3483,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>18</v>
@@ -3501,14 +3516,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3518,11 +3533,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3541,7 +3556,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3551,14 +3566,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3567,14 +3582,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3584,7 +3599,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3607,7 +3622,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3617,14 +3632,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>55</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3640,7 +3655,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3650,14 +3665,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3666,20 +3681,20 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3687,10 +3702,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3699,28 +3714,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>38</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>54</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>26</v>
@@ -3732,14 +3747,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3749,14 +3764,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3765,14 +3780,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3782,14 +3797,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>191</v>
+        <v>112</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3798,14 +3813,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3815,14 +3830,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3838,7 +3853,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3855,7 +3870,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3881,11 +3896,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>26</v>
@@ -3897,7 +3912,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3914,14 +3929,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>110</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3937,7 +3952,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3954,7 +3969,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3970,7 +3985,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3980,14 +3995,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>95</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>96</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3996,14 +4011,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4013,14 +4028,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>193</v>
+        <v>95</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4029,7 +4044,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4046,14 +4061,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4062,14 +4077,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4079,14 +4094,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>134</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4095,31 +4110,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>225</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>110</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4128,28 +4143,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>110</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>26</v>
@@ -4161,14 +4176,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4178,11 +4193,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>54</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>26</v>
@@ -4194,14 +4209,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4211,14 +4226,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4227,14 +4242,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>234</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4244,14 +4259,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>191</v>
+        <v>121</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4260,14 +4275,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4277,14 +4292,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4293,7 +4308,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4306,15 +4321,15 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4326,31 +4341,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>137</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>244</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4359,14 +4374,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4376,14 +4391,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>67</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>26</v>
+        <v>248</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4392,7 +4407,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4409,14 +4424,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>35</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4425,14 +4440,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4442,14 +4457,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4458,14 +4473,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4475,14 +4490,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4491,7 +4506,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4508,14 +4523,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4524,14 +4539,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4541,11 +4556,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>26</v>
@@ -4557,14 +4572,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4574,11 +4589,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>220</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>26</v>
@@ -4590,14 +4605,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>164</v>
+        <v>26</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4607,14 +4622,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4623,14 +4638,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>267</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4640,11 +4655,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>187</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>45</v>
@@ -4656,14 +4671,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4673,14 +4688,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4689,7 +4704,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4722,14 +4737,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4739,14 +4754,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>271</v>
+        <v>14</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>272</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4762,7 +4777,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>244</v>
+        <v>164</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4779,7 +4794,7 @@
         <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4795,7 +4810,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>248</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4805,14 +4820,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>61</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>209</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4821,14 +4836,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>278</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4838,14 +4853,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>28</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4854,14 +4869,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4871,14 +4886,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>281</v>
+        <v>50</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>282</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4887,14 +4902,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>22</v>
+        <v>283</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4911,7 +4926,7 @@
         <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4927,7 +4942,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4960,7 +4975,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4970,11 +4985,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>50</v>
+        <v>290</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>51</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -4986,28 +5001,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>291</v>
+        <v>22</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>223</v>
+        <v>50</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -5019,14 +5034,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>45</v>
+        <v>294</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5036,14 +5051,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>293</v>
+        <v>227</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>294</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5069,11 +5084,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>191</v>
+        <v>297</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>18</v>
@@ -5085,14 +5100,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5102,14 +5117,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5118,14 +5133,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>22</v>
+        <v>303</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5135,14 +5150,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>302</v>
+        <v>194</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5151,14 +5166,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>296</v>
+        <v>18</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5168,11 +5183,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>223</v>
+        <v>306</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>134</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>18</v>
@@ -5184,14 +5199,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5201,14 +5216,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>161</v>
+        <v>309</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>157</v>
+        <v>45</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5217,14 +5232,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>168</v>
+        <v>303</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5234,11 +5249,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>308</v>
+        <v>227</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>309</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>18</v>
@@ -5250,14 +5265,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>311</v>
+        <v>45</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5267,14 +5282,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>134</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>18</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5283,14 +5298,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5300,14 +5315,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>182</v>
+        <v>315</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5316,14 +5331,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>22</v>
+        <v>318</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5333,11 +5348,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>315</v>
+        <v>227</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>282</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>18</v>
@@ -5349,14 +5364,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5366,14 +5381,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>281</v>
+        <v>185</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>131</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>317</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5382,7 +5397,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5399,14 +5414,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>204</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>164</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5415,7 +5430,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5432,14 +5447,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>18</v>
+        <v>324</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5448,14 +5463,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>322</v>
+        <v>22</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5465,14 +5480,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>303</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>18</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5481,14 +5496,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>325</v>
+        <v>22</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5498,11 +5513,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>327</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>18</v>
@@ -5521,7 +5536,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>157</v>
+        <v>329</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5531,11 +5546,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>18</v>
@@ -5564,11 +5579,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>203</v>
+        <v>333</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>204</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>18</v>
@@ -5580,14 +5595,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>334</v>
+        <v>157</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5597,11 +5612,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>133</v>
+        <v>336</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>18</v>
@@ -5613,14 +5628,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>150</v>
+        <v>339</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5630,11 +5645,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>337</v>
+        <v>206</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>338</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>18</v>
@@ -5646,14 +5661,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>18</v>
+        <v>341</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5663,11 +5678,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>232</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>18</v>
@@ -5679,14 +5694,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>341</v>
+        <v>150</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5696,11 +5711,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>203</v>
+        <v>297</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>204</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>18</v>
@@ -5712,14 +5727,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5729,11 +5744,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>343</v>
+        <v>121</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>344</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>18</v>
@@ -5752,7 +5767,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>157</v>
+        <v>346</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5762,14 +5777,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>313</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5778,14 +5793,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>347</v>
+        <v>12</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5795,14 +5810,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>203</v>
+        <v>348</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5811,14 +5826,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5828,14 +5843,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>343</v>
+        <v>185</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5844,14 +5859,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>22</v>
+        <v>352</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5861,14 +5876,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>337</v>
+        <v>206</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5877,14 +5892,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5894,11 +5909,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>161</v>
+        <v>348</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>113</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>18</v>
@@ -5910,14 +5925,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5927,14 +5942,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>223</v>
+        <v>297</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>157</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5943,14 +5958,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5976,14 +5991,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -5993,14 +6008,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>134</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>18</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6009,7 +6024,7 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
@@ -6026,11 +6041,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>299</v>
+        <v>161</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>300</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>18</v>
@@ -6042,14 +6057,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>267</v>
+        <v>45</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6059,14 +6074,14 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>297</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>157</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6075,14 +6090,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>357</v>
+        <v>22</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6092,49 +6107,115 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>161</v>
+        <v>306</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
+        <v>307</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
+        <v>360</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>270</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>80</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>227</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
+        <v>304</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="A141" s="7">
+        <v>135</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c t="s" r="C141" s="8">
+        <v>361</v>
+      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
+        <v>362</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c t="s" r="L141" s="10">
+        <v>80</v>
+      </c>
+      <c r="M141" s="10"/>
+      <c t="s" r="N141" s="8">
+        <v>161</v>
+      </c>
+      <c r="O141" s="8"/>
+      <c t="s" r="P141" s="11">
         <v>113</v>
       </c>
-      <c t="s" r="Q139" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="140" ht="24.75" customHeight="1">
-      <c r="P140" s="13">
-        <v>7030.04</v>
-      </c>
-      <c r="Q140" s="13"/>
-    </row>
-    <row r="141" ht="16.5" customHeight="1">
-      <c t="s" r="A141" s="14">
-        <v>358</v>
-      </c>
-      <c r="B141" s="14"/>
-      <c r="C141" s="14"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
-      <c t="s" r="G141" s="15">
-        <v>359</v>
-      </c>
-      <c r="H141" s="15"/>
-      <c r="I141" s="15"/>
-      <c r="J141" s="16"/>
-      <c t="s" r="K141" s="17">
-        <v>360</v>
-      </c>
-      <c r="L141" s="17"/>
-      <c r="M141" s="17"/>
-      <c r="N141" s="17"/>
-      <c r="O141" s="17"/>
-      <c r="P141" s="17"/>
-      <c r="Q141" s="17"/>
+      <c t="s" r="Q141" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="P142" s="13">
+        <v>7026.3599999999997</v>
+      </c>
+      <c r="Q142" s="13"/>
+    </row>
+    <row r="143" ht="16.5" customHeight="1">
+      <c t="s" r="A143" s="14">
+        <v>363</v>
+      </c>
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c t="s" r="G143" s="15">
+        <v>364</v>
+      </c>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="16"/>
+      <c t="s" r="K143" s="17">
+        <v>365</v>
+      </c>
+      <c r="L143" s="17"/>
+      <c r="M143" s="17"/>
+      <c r="N143" s="17"/>
+      <c r="O143" s="17"/>
+      <c r="P143" s="17"/>
+      <c r="Q143" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="677">
+  <mergeCells count="687">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6808,10 +6889,20 @@
     <mergeCell ref="H139:K139"/>
     <mergeCell ref="L139:M139"/>
     <mergeCell ref="N139:O139"/>
-    <mergeCell ref="P140:Q140"/>
-    <mergeCell ref="A141:F141"/>
-    <mergeCell ref="G141:I141"/>
-    <mergeCell ref="K141:Q141"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="P142:Q142"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="G143:I143"/>
+    <mergeCell ref="K143:Q143"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -365,258 +365,255 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>6:2</t>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>DULOXEPRIN 30MG 28 CAPSULES</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t>DUPHALAC 667GM/L SYRUP 200ML</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>386.00</t>
+  </si>
+  <si>
+    <t>127.3800</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>E-MOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>34.5600</t>
+  </si>
+  <si>
+    <t>EXARETIC 20 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>106.50</t>
+  </si>
+  <si>
+    <t>35.1450</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>FAKTU OINT. 30 GM</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>88.5600</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>FORTUM 1 GM VIAL.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>318.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>GLIPTUS 50 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>151.50</t>
+  </si>
+  <si>
+    <t>151.5000</t>
+  </si>
+  <si>
+    <t>HERBANA 30CAPS</t>
+  </si>
+  <si>
+    <t>-79.2000</t>
+  </si>
+  <si>
+    <t>0:-2</t>
+  </si>
+  <si>
+    <t>HERO BABY 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
+    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>IS IS بقدونس كرفس</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>KETOFAN 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>14.8500</t>
+  </si>
+  <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>4:4</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:21</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
     <t>15.8400</t>
   </si>
   <si>
-    <t>DULOXEPRIN 30MG 28 CAPSULES</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>270.0000</t>
-  </si>
-  <si>
-    <t>DUPHALAC 667GM/L SYRUP 200ML</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>87.0000</t>
-  </si>
-  <si>
-    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>386.00</t>
-  </si>
-  <si>
-    <t>127.3800</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>E-MOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>34.5600</t>
-  </si>
-  <si>
-    <t>EXARETIC 20 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>106.50</t>
-  </si>
-  <si>
-    <t>35.1450</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>FAKTU OINT. 30 GM</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>88.5600</t>
-  </si>
-  <si>
-    <t>0:10</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>39.6000</t>
-  </si>
-  <si>
-    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>FORTUM 1 GM VIAL.</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>318.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>GLIPTUS 50 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>151.50</t>
-  </si>
-  <si>
-    <t>151.5000</t>
-  </si>
-  <si>
-    <t>HERBANA 30CAPS</t>
-  </si>
-  <si>
-    <t>-79.2000</t>
-  </si>
-  <si>
-    <t>0:-2</t>
-  </si>
-  <si>
-    <t>HERO BABY 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>256.00</t>
-  </si>
-  <si>
-    <t>256.0000</t>
-  </si>
-  <si>
-    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>IS IS بقدونس كرفس</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>KETOFAN 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>14.8500</t>
-  </si>
-  <si>
-    <t>KETOLAC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>4:4</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>0:21</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
     <t>MAXDINIR 125MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -1100,7 +1097,7 @@
     <t>38:0</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 10:34 PM</t>
+    <t>Thursday, 5 June, 2025 10:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2814,7 +2811,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -3160,7 +3157,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3170,11 +3167,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>146</v>
@@ -3186,7 +3183,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3203,11 +3200,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>26</v>
@@ -3219,14 +3216,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3236,14 +3233,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3252,14 +3249,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3269,11 +3266,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>45</v>
@@ -3285,14 +3282,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3302,11 +3299,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -3318,14 +3315,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3339,7 +3336,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>22</v>
@@ -3351,7 +3348,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3368,11 +3365,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -3384,7 +3381,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3405,10 +3402,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3417,7 +3414,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3434,11 +3431,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3450,7 +3447,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3467,11 +3464,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -3483,7 +3480,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3500,7 +3497,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3516,7 +3513,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3549,7 +3546,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3566,11 +3563,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3582,7 +3579,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3599,11 +3596,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>26</v>
@@ -3615,7 +3612,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3632,11 +3629,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>26</v>
@@ -3648,14 +3645,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3665,7 +3662,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3681,14 +3678,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3698,7 +3695,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3714,14 +3711,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3731,11 +3728,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>26</v>
@@ -3747,7 +3744,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3768,7 +3765,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>26</v>
@@ -3780,7 +3777,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3801,7 +3798,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3813,7 +3810,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3830,11 +3827,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>26</v>
@@ -3846,7 +3843,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3863,11 +3860,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3879,7 +3876,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3896,11 +3893,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>26</v>
@@ -3912,7 +3909,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3933,7 +3930,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>26</v>
@@ -3945,7 +3942,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3962,11 +3959,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3978,7 +3975,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3995,11 +3992,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -4011,7 +4008,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4032,7 +4029,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -4044,7 +4041,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4061,11 +4058,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>26</v>
@@ -4077,7 +4074,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4094,11 +4091,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>45</v>
@@ -4110,7 +4107,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4127,7 +4124,7 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -4143,14 +4140,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4176,7 +4173,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4193,11 +4190,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>26</v>
@@ -4209,7 +4206,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4230,7 +4227,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>26</v>
@@ -4242,7 +4239,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4263,7 +4260,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -4275,14 +4272,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4292,11 +4289,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>26</v>
@@ -4308,7 +4305,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4325,11 +4322,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4341,7 +4338,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4358,11 +4355,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4374,7 +4371,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4395,10 +4392,10 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q87" s="12">
         <v>247</v>
-      </c>
-      <c t="s" r="Q87" s="12">
-        <v>248</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4407,14 +4404,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4440,14 +4437,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4457,11 +4454,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4473,7 +4470,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4490,11 +4487,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>26</v>
@@ -4506,7 +4503,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4523,11 +4520,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4539,7 +4536,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4556,11 +4553,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>26</v>
@@ -4572,7 +4569,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4589,11 +4586,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>26</v>
@@ -4605,7 +4602,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4622,11 +4619,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>26</v>
@@ -4638,7 +4635,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4655,7 +4652,7 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
@@ -4671,14 +4668,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4688,7 +4685,7 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
@@ -4704,7 +4701,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4737,7 +4734,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4770,14 +4767,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4787,11 +4784,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>18</v>
@@ -4803,14 +4800,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4820,11 +4817,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4836,7 +4833,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4857,7 +4854,7 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4869,14 +4866,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4902,14 +4899,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4919,11 +4916,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>45</v>
@@ -4935,7 +4932,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4952,11 +4949,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4968,14 +4965,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4985,11 +4982,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -5001,7 +4998,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -5034,14 +5031,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5051,7 +5048,7 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
@@ -5067,14 +5064,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5084,11 +5081,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>18</v>
@@ -5100,7 +5097,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5117,11 +5114,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>45</v>
@@ -5133,14 +5130,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5150,11 +5147,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>18</v>
@@ -5166,7 +5163,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5183,11 +5180,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>18</v>
@@ -5199,7 +5196,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5216,11 +5213,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>45</v>
@@ -5232,14 +5229,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5249,7 +5246,7 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
@@ -5265,7 +5262,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5282,14 +5279,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5298,14 +5295,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5315,11 +5312,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
@@ -5331,14 +5328,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5348,7 +5345,7 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
@@ -5364,7 +5361,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5381,11 +5378,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>45</v>
@@ -5397,7 +5394,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5414,11 +5411,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>18</v>
@@ -5430,7 +5427,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5447,14 +5444,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5463,7 +5460,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5480,14 +5477,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5496,7 +5493,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5513,11 +5510,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>18</v>
@@ -5529,14 +5526,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5546,11 +5543,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>18</v>
@@ -5562,14 +5559,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5579,11 +5576,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>18</v>
@@ -5595,14 +5592,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5612,11 +5609,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>18</v>
@@ -5628,14 +5625,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5645,11 +5642,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>18</v>
@@ -5661,14 +5658,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5682,7 +5679,7 @@
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>18</v>
@@ -5694,14 +5691,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5711,11 +5708,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>18</v>
@@ -5727,7 +5724,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5748,7 +5745,7 @@
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>18</v>
@@ -5760,14 +5757,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5777,11 +5774,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>18</v>
@@ -5793,7 +5790,7 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -5810,11 +5807,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>18</v>
@@ -5826,14 +5823,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5843,11 +5840,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>45</v>
@@ -5859,14 +5856,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5876,11 +5873,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>45</v>
@@ -5892,14 +5889,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5909,11 +5906,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>18</v>
@@ -5925,7 +5922,7 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
@@ -5942,11 +5939,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>18</v>
@@ -5958,7 +5955,7 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
@@ -5975,7 +5972,7 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
@@ -5991,14 +5988,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6008,14 +6005,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6024,7 +6021,7 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
@@ -6041,7 +6038,7 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
@@ -6057,7 +6054,7 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
@@ -6074,7 +6071,7 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
@@ -6090,7 +6087,7 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
@@ -6107,11 +6104,11 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>18</v>
@@ -6123,14 +6120,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6140,14 +6137,14 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q140" s="12">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
@@ -6156,14 +6153,14 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6173,7 +6170,7 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
@@ -6185,13 +6182,13 @@
     </row>
     <row r="142" ht="25.5" customHeight="1">
       <c r="P142" s="13">
-        <v>7026.3599999999997</v>
+        <v>7010.5200000000004</v>
       </c>
       <c r="Q142" s="13"/>
     </row>
     <row r="143" ht="16.5" customHeight="1">
       <c t="s" r="A143" s="14">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B143" s="14"/>
       <c r="C143" s="14"/>
@@ -6199,13 +6196,13 @@
       <c r="E143" s="14"/>
       <c r="F143" s="14"/>
       <c t="s" r="G143" s="15">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H143" s="15"/>
       <c r="I143" s="15"/>
       <c r="J143" s="16"/>
       <c t="s" r="K143" s="17">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L143" s="17"/>
       <c r="M143" s="17"/>

--- a/DaySale_2025-06-05_00-00.xlsx
+++ b/DaySale_2025-06-05_00-00.xlsx
@@ -632,6 +632,9 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>MUCO 15MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
     <t>NANAZOXID 500MG 18 F.C. TABS.</t>
   </si>
   <si>
@@ -737,6 +740,15 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>RICHI PANTHENOL CREAM 20GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>SHAAN BODY MILK 300ML</t>
   </si>
   <si>
@@ -897,12 +909,6 @@
   </si>
   <si>
     <t>8:0</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
   </si>
   <si>
     <t xml:space="preserve">برفان كوبي </t>
@@ -3883,7 +3889,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3893,14 +3899,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3909,7 +3915,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3926,11 +3932,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>26</v>
@@ -3942,7 +3948,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3959,14 +3965,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>110</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3975,14 +3981,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3992,14 +3998,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4008,14 +4014,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4025,14 +4031,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>95</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4041,14 +4047,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4058,14 +4064,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>194</v>
+        <v>95</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4074,7 +4080,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4091,14 +4097,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4107,14 +4113,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4124,14 +4130,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>134</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4140,31 +4146,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>110</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4173,28 +4179,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>26</v>
@@ -4206,14 +4212,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4223,11 +4229,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>54</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>26</v>
@@ -4239,14 +4245,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4256,14 +4262,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4272,14 +4278,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>237</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4289,14 +4295,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4305,14 +4311,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>238</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4322,14 +4328,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4338,7 +4344,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4351,15 +4357,15 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4371,14 +4377,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4388,14 +4394,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>137</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>247</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4404,31 +4410,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>35</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>67</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4444,7 +4450,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4454,14 +4460,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>137</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
+        <v>250</v>
+      </c>
+      <c t="s" r="Q89" s="12">
         <v>251</v>
-      </c>
-      <c t="s" r="Q89" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4477,7 +4483,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4487,11 +4493,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>35</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>26</v>
@@ -4503,14 +4509,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>29</v>
+        <v>156</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4520,11 +4526,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4536,14 +4542,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4553,11 +4559,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>26</v>
@@ -4569,14 +4575,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4586,14 +4592,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4602,14 +4608,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4619,11 +4625,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>26</v>
@@ -4635,14 +4641,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4652,14 +4658,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>90</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4675,7 +4681,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>269</v>
+        <v>26</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4685,14 +4691,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>116</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4708,7 +4714,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4718,14 +4724,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>14</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4734,14 +4740,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>273</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4751,14 +4757,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4767,14 +4773,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4784,14 +4790,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>274</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4807,7 +4813,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>247</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4817,14 +4823,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>276</v>
+        <v>14</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>277</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4833,14 +4839,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4850,11 +4856,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>61</v>
+        <v>277</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>211</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4873,7 +4879,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4883,14 +4889,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>50</v>
+        <v>280</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>28</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4899,14 +4905,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>282</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4916,14 +4922,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>283</v>
+        <v>61</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>284</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4932,14 +4938,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>22</v>
+        <v>284</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4949,14 +4955,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>286</v>
+        <v>50</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>287</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4965,14 +4971,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>167</v>
+        <v>286</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4982,14 +4988,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4998,7 +5004,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -5015,11 +5021,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>50</v>
+        <v>290</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>51</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -5038,21 +5044,21 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>293</v>
+        <v>167</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>226</v>
+        <v>293</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>134</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>18</v>
@@ -5064,28 +5070,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>295</v>
+        <v>22</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>296</v>
+        <v>50</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>297</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>18</v>
@@ -5097,14 +5103,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>45</v>
+        <v>297</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5114,14 +5120,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>299</v>
+        <v>227</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>300</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5130,14 +5136,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5147,11 +5153,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>192</v>
+        <v>244</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>303</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>18</v>
@@ -5163,14 +5169,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5180,14 +5186,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5196,14 +5202,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>22</v>
+        <v>304</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5213,14 +5219,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>308</v>
+        <v>192</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5229,14 +5235,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>302</v>
+        <v>18</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5246,11 +5252,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>226</v>
+        <v>307</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>134</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>18</v>
@@ -5262,14 +5268,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5279,14 +5285,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>160</v>
+        <v>310</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>156</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5295,14 +5301,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>167</v>
+        <v>304</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5312,11 +5318,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>314</v>
+        <v>227</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>315</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
@@ -5328,14 +5334,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>317</v>
+        <v>45</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5345,14 +5351,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>226</v>
+        <v>160</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>134</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>18</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5361,14 +5367,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v